--- a/Data Sources/Imports Exports/ET_5.6.xlsx
+++ b/Data Sources/Imports Exports/ET_5.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Statistics\Publications\Energy Trends\Tables\Electricity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357BF12-F23E-4B8A-BB9B-72719C175F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B0D94-1A93-474D-8F76-7DC9839264F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12960" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="18465" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="9" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="155">
   <si>
     <t>France-UK</t>
   </si>
@@ -507,6 +507,49 @@
     <t>In the latest three months</t>
   </si>
   <si>
+    <t>Quarterly data from quarter 1 1998 to quarter 1 2022, in GWh</t>
+  </si>
+  <si>
+    <t>Scotland and Northern Ireland (NI)</t>
+  </si>
+  <si>
+    <t>Table 5.6 imports, exports and transfers of electricity quarter 1 1998 to quarter 1 2022 (GWh)</t>
+  </si>
+  <si>
+    <t>Table 5.6 imports, exports and transfers of electricity 1998 to 2021 (GWh)</t>
+  </si>
+  <si>
+    <t>0776 757 3907</t>
+  </si>
+  <si>
+    <t>Glossary and acronyms, DUKES Annex B (opens in a new window)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>The data for France is the sum of imports, exports and net imports across the three interconnectors with France. IFA2 interconnector became operational in quarter 1 2021 and ElecLink in Q2 2022.</t>
+  </si>
+  <si>
+    <t>Quarter 3 [provisional]</t>
+  </si>
+  <si>
+    <t>Continued high exports in Quarter 3 made the UK a net exporter of electricity for the second successive quarter</t>
+  </si>
+  <si>
+    <t>Net exports from the UK to France, Belgium and Norway with low net imports for other interconnectors</t>
+  </si>
+  <si>
+    <t>Between Quarter 3 2021 and 2022, net electricity transfers from Scotland to England increased by 52 per cent to 3.0 TWh. This is linked to higher output from wind generation compared to Quarter 3 2021, as Scotland has a high proportion of the UK’s wind generation capacity.  Meanwhile, net electricity transfers from Scotland to Northern Ireland decreased to -0.05 TWh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UK continued to be a net exporter to France and Belgium in Quarter 3 2022 for the second successive quarter, while in Quarter 3 2022 the UK was also a net exporter to Norway for the first time since the interconnector came into operation. Exports to France were 4.6 TWh in Quarter 3 2022, four hundred times higher than the same period a year ago and the fourth successive quarter of unusually high exports. At the same time, imports from France fell by 96 per cent to 0.2 TWh. This considerable rise in net exports to France comes from the continued reduction in French electricity production from nuclear outages, resulting in less electricity available in France to export to the UK and a greater demand for imports. French interconnector capacity also remained restricted, as the IFA interconnector continued operating at half capacity (1 GW). 
+The UK was also a net exporter of electricity to Belgium and Norway in Quarter 3 2022.  The rise in exports may reflect lower availability of electricity in European markets as a result of France’s lower nuclear production. The interconnector between Ireland and Northern Ireland also continued to be a net exporter, with net exports of 0.2 TWh in Quarter 3 2022. The UK’s other interconnectors had relatively low levels of net imports during Quarter 3 2022. The interconnector with the Netherlands had negligible net imports while net imports from Ireland to Wales totalled 0.2 TWh over the same time period, in contrast to the net exports of 0.3 TWh in Quarter 3 2021.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UK was a net exporter of electricity in Quarter 3 2022 for the second successive quarter. Net exports were 4.9 TWh, the largest value on the published data series as exports reached 7.4 TWh, seven times higher than in Quarter 3 2021 and above the previous record in Quarter 2 2022.  Imports were 2.5 TWh in Quarter 3 2022, 70 per cent lower than the same period the previous year.  The continuing high levels of exports are a result of increased demand in France due to reduced nuclear output there. </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This data was published on </t>
     </r>
@@ -519,7 +562,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday 30th June 2022</t>
+      <t>Thursday 22nd December 2022</t>
     </r>
     <r>
       <rPr>
@@ -541,7 +584,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday 29th September 2022</t>
+      <t>Thursday 30th March 2023</t>
     </r>
   </si>
   <si>
@@ -557,7 +600,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>new data for quarter 1 2022</t>
+      <t>new data for quarter 3 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (July to September)</t>
     </r>
   </si>
   <si>
@@ -573,7 +626,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2020 and 2021</t>
+      <t>for quarters 1 and 2 2022 (January to June)</t>
     </r>
     <r>
       <rPr>
@@ -588,51 +641,7 @@
     </r>
   </si>
   <si>
-    <t>Quarterly data from quarter 1 1998 to quarter 1 2022, in GWh</t>
-  </si>
-  <si>
-    <t>Scotland and Northern Ireland (NI)</t>
-  </si>
-  <si>
-    <t>Table 5.6 imports, exports and transfers of electricity quarter 1 1998 to quarter 1 2022 (GWh)</t>
-  </si>
-  <si>
-    <t>Table 5.6 imports, exports and transfers of electricity 1998 to 2021 (GWh)</t>
-  </si>
-  <si>
-    <t>0776 757 3907</t>
-  </si>
-  <si>
-    <t>Glossary and acronyms, DUKES Annex B (opens in a new window)</t>
-  </si>
-  <si>
-    <t>Quarter 2 [provisional]</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>The data for France is the sum of imports, exports and net imports across the three interconnectors with France. IFA2 interconnector became operational in quarter 1 2021 and ElecLink in Q2 2022.</t>
-  </si>
-  <si>
-    <t>Large increase in exports in Quarter 2 made the UK a net exporter of electricity</t>
-  </si>
-  <si>
-    <t>Net exports from the UK to France, the Netherlands and Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UK was a net exporter of electricity in Quarter 2 2022, with imports decreasing by more than two thirds whilst exports increased sixfold. The UK had total net exports in Quarter 2 2022 of 4.0 TWh, the largest value on the published data series and was a net exporter of electricity for the first time since Quarter 1 2010. Net exports reached record levels as electricity imports fell by 68 per cent to 2.3 TWh, whilst exports increased 570 per cent to 6.2 TWh. The considerable rise in exports comes as a result of increased demand in France due to reduced nuclear output there. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UK was a net exporter to France in Quarter 2 2022 for the first time since Quarter 4 2016  as well as to the Netherlands and Belgium for the first time on record. Exports to France were 3.6 TWh in Quarter 2 2022, more than twenty times higher than the same period a year ago and the third consecutive quarter of unusually high exports. At the same time, imports from France fell by 95 per cent to 0.23 TWh. This considerable rise in net exports to France comes from the continued reduction in French electricity production from nuclear outages, resulting in less electricity available in France to export to the UK and a greater demand for imports. French interconnector capacity also remained restricted, as the IFA interconnector continued operating at half capacity (1 GW). 
-The UK was also a net exporter of electricity to the Netherlands and Belgium in Quarter 2 2022 for the first time since the respective interconnectors came into operation. The rise in exports may reflect lower availability of electricity in European markets as a result of France’s lower nuclear production. The interconnector between Ireland and Northern Ireland also continued to be a net exporter, with net exports of 0.3 TWh in Quarter 2 2022. 
-The UK’s other interconnectors had relatively low levels of net imports during Quarter 2 2022. The North Sea Link (NSL) interconnector between the UK and Norway commenced operations during Quarter 4 2021 and has since been a net importer of electricity to the UK, with net imports totalling 0.2 TWh during Quarter 2 2022. Net imports from Ireland to Wales totalled 0.06 TWh over the same time period, in contrast to the net exports of 0.3 TWh in Quarter 2 2021.  </t>
-  </si>
-  <si>
-    <t>Increased transfers between Scotland and England doubled whilst transfers between Scotland and Northern Ireland decreased</t>
-  </si>
-  <si>
-    <t>Between Quarter 2 2021 and 2022, net electricity transfers from Scotland to England doubled to 3.9 TWh. This is linked to higher output from wind generation compared to Quarter 2 2021, as Scotland has a high proportion of the UK’s wind generation capacity.  Meanwhile, net electricity transfers from Scotland to Northern Ireland decreased to -0.03 TWh.</t>
+    <t>Transfers between Scotland and England doubled whilst transfers between Scotland and Northern Ireland decreased</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1131,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1446,6 +1455,7 @@
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3728,53 +3738,53 @@
       <sheetName val="Annual (GWh)"/>
       <sheetName val="Quarter (GWh)"/>
       <sheetName val="Month (GWh)"/>
-      <sheetName val="Calculation (GWh)_hide"/>
+      <sheetName val="Calculation (GWh)"/>
       <sheetName val="Main Table (Million m3)"/>
       <sheetName val="Annual (Million m3)"/>
       <sheetName val="Quarter (Million m3)"/>
       <sheetName val="Month (Million m3)"/>
       <sheetName val="Calculation (MM3)"/>
       <sheetName val="Calorific Values"/>
-      <sheetName val="Calculation (GWh)"/>
+      <sheetName val="Calculation (GWh)_hide"/>
+      <sheetName val="Cover_Sheet1"/>
+      <sheetName val="Main_Table_(GWh)1"/>
+      <sheetName val="Annual_(GWh)1"/>
+      <sheetName val="Quarter_(GWh)1"/>
+      <sheetName val="Month_(GWh)1"/>
+      <sheetName val="Calculation_(GWh)1"/>
+      <sheetName val="Main_Table_(Million_m3)1"/>
+      <sheetName val="Annual_(Million_m3)1"/>
+      <sheetName val="Quarter_(Million_m3)1"/>
+      <sheetName val="Month_(Million_m3)1"/>
+      <sheetName val="Calculation_(MM3)1"/>
+      <sheetName val="Calorific_Values1"/>
+      <sheetName val="Calculation_(GWh)_hide1"/>
+      <sheetName val="Cover_Sheet"/>
+      <sheetName val="Main_Table_(GWh)"/>
+      <sheetName val="Annual_(GWh)"/>
+      <sheetName val="Quarter_(GWh)"/>
+      <sheetName val="Month_(GWh)"/>
+      <sheetName val="Calculation_(GWh)"/>
+      <sheetName val="Main_Table_(Million_m3)"/>
+      <sheetName val="Annual_(Million_m3)"/>
+      <sheetName val="Quarter_(Million_m3)"/>
+      <sheetName val="Month_(Million_m3)"/>
+      <sheetName val="Calculation_(MM3)"/>
+      <sheetName val="Calorific_Values"/>
+      <sheetName val="Calculation_(GWh)_hide"/>
       <sheetName val="Cover_Sheet2"/>
       <sheetName val="Main_Table_(GWh)2"/>
       <sheetName val="Annual_(GWh)2"/>
       <sheetName val="Quarter_(GWh)2"/>
       <sheetName val="Month_(GWh)2"/>
-      <sheetName val="Calculation_(GWh)_hide2"/>
+      <sheetName val="Calculation_(GWh)2"/>
       <sheetName val="Main_Table_(Million_m3)2"/>
       <sheetName val="Annual_(Million_m3)2"/>
       <sheetName val="Quarter_(Million_m3)2"/>
       <sheetName val="Month_(Million_m3)2"/>
       <sheetName val="Calculation_(MM3)2"/>
       <sheetName val="Calorific_Values2"/>
-      <sheetName val="Calculation_(GWh)2"/>
-      <sheetName val="Cover_Sheet"/>
-      <sheetName val="Main_Table_(GWh)"/>
-      <sheetName val="Annual_(GWh)"/>
-      <sheetName val="Quarter_(GWh)"/>
-      <sheetName val="Month_(GWh)"/>
-      <sheetName val="Calculation_(GWh)_hide"/>
-      <sheetName val="Main_Table_(Million_m3)"/>
-      <sheetName val="Annual_(Million_m3)"/>
-      <sheetName val="Quarter_(Million_m3)"/>
-      <sheetName val="Month_(Million_m3)"/>
-      <sheetName val="Calculation_(MM3)"/>
-      <sheetName val="Calorific_Values"/>
-      <sheetName val="Calculation_(GWh)"/>
-      <sheetName val="Cover_Sheet1"/>
-      <sheetName val="Main_Table_(GWh)1"/>
-      <sheetName val="Annual_(GWh)1"/>
-      <sheetName val="Quarter_(GWh)1"/>
-      <sheetName val="Month_(GWh)1"/>
-      <sheetName val="Calculation_(GWh)_hide1"/>
-      <sheetName val="Main_Table_(Million_m3)1"/>
-      <sheetName val="Annual_(Million_m3)1"/>
-      <sheetName val="Quarter_(Million_m3)1"/>
-      <sheetName val="Month_(Million_m3)1"/>
-      <sheetName val="Calculation_(MM3)1"/>
-      <sheetName val="Calorific_Values1"/>
-      <sheetName val="Calculation_(GWh)1"/>
+      <sheetName val="Calculation_(GWh)_hide2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3785,14 +3795,14 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="15" refreshError="1"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
@@ -3962,8 +3972,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD9E6058-927B-4BAC-8484-800365389141}" name="Table5.6_imports_exports_and_transfers_of_electricity_quarter_1_1998_to_quarter_2_2021_GWh" displayName="Table5.6_imports_exports_and_transfers_of_electricity_quarter_1_1998_to_quarter_2_2021_GWh" ref="A6:AC104" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
-  <autoFilter ref="A6:AC104" xr:uid="{AD9E6058-927B-4BAC-8484-800365389141}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD9E6058-927B-4BAC-8484-800365389141}" name="Table5.6_imports_exports_and_transfers_of_electricity_quarter_1_1998_to_quarter_2_2021_GWh" displayName="Table5.6_imports_exports_and_transfers_of_electricity_quarter_1_1998_to_quarter_2_2021_GWh" ref="A6:AC105" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
+  <autoFilter ref="A6:AC105" xr:uid="{AD9E6058-927B-4BAC-8484-800365389141}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4352,9 +4362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE73DAF-F1C4-49E8-BD7E-3937C3FA23E8}">
   <dimension ref="A1:IW26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4892,7 +4900,7 @@
     </row>
     <row r="4" spans="1:257" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:257" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5158,7 +5166,7 @@
     </row>
     <row r="6" spans="1:257" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:257" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5424,7 +5432,7 @@
     </row>
     <row r="8" spans="1:257" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:257" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5990,7 +5998,7 @@
     </row>
     <row r="18" spans="1:257" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="147" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E18" s="34"/>
     </row>
@@ -6285,7 +6293,7 @@
     </row>
     <row r="23" spans="1:257" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="146" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B23" s="37"/>
     </row>
@@ -6405,7 +6413,7 @@
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>66</v>
@@ -6482,7 +6490,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6549,32 +6557,32 @@
     </row>
     <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="143" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="143" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="144" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="143" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="144" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6590,7 +6598,7 @@
   </sheetPr>
   <dimension ref="A1:AS40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight"/>
@@ -6700,7 +6708,7 @@
       <c r="Z6" s="93"/>
       <c r="AA6" s="70"/>
       <c r="AB6" s="71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AC6" s="73"/>
     </row>
@@ -6799,7 +6807,7 @@
         <v>2020</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="82">
         <f ca="1">INDIRECT(Calculation!I11,FALSE)</f>
@@ -6932,7 +6940,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C9" s="82">
         <f ca="1">INDIRECT(Calculation!I12,FALSE)</f>
@@ -7198,67 +7206,67 @@
       </c>
       <c r="B11" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G16,FALSE)</f>
-        <v>Quarter 2</v>
+        <v>Quarter 3</v>
       </c>
       <c r="C11" s="82">
         <f ca="1">INDIRECT(Calculation!I16,FALSE)</f>
-        <v>2629.4319999999998</v>
+        <v>1540.1765</v>
       </c>
       <c r="D11" s="63">
         <f ca="1">INDIRECT(Calculation!J16,FALSE)</f>
-        <v>339.34800000000001</v>
+        <v>977.74300000000005</v>
       </c>
       <c r="E11" s="83">
         <f ca="1">INDIRECT(Calculation!K16,FALSE)</f>
-        <v>2290.0839999999998</v>
+        <v>562.43349999999998</v>
       </c>
       <c r="F11" s="82">
         <f ca="1">INDIRECT(Calculation!L16,FALSE)</f>
-        <v>71.491699999999994</v>
+        <v>89.250299999999996</v>
       </c>
       <c r="G11" s="63">
         <f ca="1">INDIRECT(Calculation!M16,FALSE)</f>
-        <v>267.9117</v>
+        <v>228.09030000000001</v>
       </c>
       <c r="H11" s="83">
         <f ca="1">INDIRECT(Calculation!N16,FALSE)</f>
-        <v>-196.42</v>
+        <v>-138.84</v>
       </c>
       <c r="I11" s="82">
         <f ca="1">INDIRECT(Calculation!O16,FALSE)</f>
-        <v>1166.3019999999999</v>
+        <v>981.45699999999999</v>
       </c>
       <c r="J11" s="63">
         <f ca="1">INDIRECT(Calculation!P16,FALSE)</f>
-        <v>220.34350000000001</v>
+        <v>131.8845</v>
       </c>
       <c r="K11" s="83">
         <f ca="1">INDIRECT(Calculation!Q16,FALSE)</f>
-        <v>945.95849999999996</v>
+        <v>849.57249999999999</v>
       </c>
       <c r="L11" s="82">
         <f ca="1">INDIRECT(Calculation!R16,FALSE)</f>
-        <v>345.06700000000001</v>
+        <v>395.8125</v>
       </c>
       <c r="M11" s="63">
         <f ca="1">INDIRECT(Calculation!S16,FALSE)</f>
-        <v>165.04750000000001</v>
+        <v>107.5415</v>
       </c>
       <c r="N11" s="83">
         <f ca="1">INDIRECT(Calculation!T16,FALSE)</f>
-        <v>180.01949999999999</v>
+        <v>288.27100000000002</v>
       </c>
       <c r="O11" s="82">
         <f ca="1">INDIRECT(Calculation!U16,FALSE)</f>
-        <v>1361.577</v>
+        <v>986.23649999999998</v>
       </c>
       <c r="P11" s="63">
         <f ca="1">INDIRECT(Calculation!V16,FALSE)</f>
-        <v>120.124</v>
+        <v>208.12950000000001</v>
       </c>
       <c r="Q11" s="83">
         <f ca="1">INDIRECT(Calculation!W16,FALSE)</f>
-        <v>1241.453</v>
+        <v>778.10699999999997</v>
       </c>
       <c r="R11" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X16,FALSE)</f>
@@ -7274,39 +7282,39 @@
       </c>
       <c r="U11" s="82">
         <f ca="1">INDIRECT(Calculation!AA16,FALSE)</f>
-        <v>5573.8697000000002</v>
+        <v>3992.9328</v>
       </c>
       <c r="V11" s="63">
         <f ca="1">INDIRECT(Calculation!AB16,FALSE)</f>
-        <v>1112.7746999999999</v>
+        <v>1653.3887999999999</v>
       </c>
       <c r="W11" s="83">
         <f ca="1">INDIRECT(Calculation!AC16,FALSE)</f>
-        <v>4461.0950000000003</v>
+        <v>2339.5439999999999</v>
       </c>
       <c r="X11" s="82">
         <f ca="1">INDIRECT(Calculation!AD16,FALSE)</f>
-        <v>2894.3054999999999</v>
+        <v>4065.2809999999999</v>
       </c>
       <c r="Y11" s="63">
         <f ca="1">INDIRECT(Calculation!AE16,FALSE)</f>
-        <v>197.851</v>
+        <v>73.322500000000005</v>
       </c>
       <c r="Z11" s="83">
         <f ca="1">INDIRECT(Calculation!AF16,FALSE)</f>
-        <v>2696.4544999999998</v>
+        <v>3991.9585000000002</v>
       </c>
       <c r="AA11" s="82">
         <f ca="1">INDIRECT(Calculation!AG16,FALSE)</f>
-        <v>279.51100000000002</v>
+        <v>210.90799999999999</v>
       </c>
       <c r="AB11" s="63">
         <f ca="1">INDIRECT(Calculation!AH16,FALSE)</f>
-        <v>207.3415</v>
+        <v>241.3665</v>
       </c>
       <c r="AC11" s="63">
         <f ca="1">INDIRECT(Calculation!AI16,FALSE)</f>
-        <v>72.169499999999999</v>
+        <v>-30.458500000000001</v>
       </c>
       <c r="AD11" s="41"/>
       <c r="AE11" s="41"/>
@@ -7332,67 +7340,67 @@
       </c>
       <c r="B12" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G17,FALSE)</f>
-        <v>Quarter 3</v>
+        <v>Quarter 4</v>
       </c>
       <c r="C12" s="82">
         <f ca="1">INDIRECT(Calculation!I17,FALSE)</f>
-        <v>1540.1765</v>
+        <v>2997.1680000000001</v>
       </c>
       <c r="D12" s="63">
         <f ca="1">INDIRECT(Calculation!J17,FALSE)</f>
-        <v>977.74300000000005</v>
+        <v>199.7895</v>
       </c>
       <c r="E12" s="83">
         <f ca="1">INDIRECT(Calculation!K17,FALSE)</f>
-        <v>562.43349999999998</v>
+        <v>2797.3784999999998</v>
       </c>
       <c r="F12" s="82">
         <f ca="1">INDIRECT(Calculation!L17,FALSE)</f>
-        <v>89.250299999999996</v>
+        <v>104.8493</v>
       </c>
       <c r="G12" s="63">
         <f ca="1">INDIRECT(Calculation!M17,FALSE)</f>
-        <v>228.09030000000001</v>
+        <v>257.19760000000002</v>
       </c>
       <c r="H12" s="83">
         <f ca="1">INDIRECT(Calculation!N17,FALSE)</f>
-        <v>-138.84</v>
+        <v>-152.3484</v>
       </c>
       <c r="I12" s="82">
         <f ca="1">INDIRECT(Calculation!O17,FALSE)</f>
-        <v>981.45699999999999</v>
+        <v>1089.345</v>
       </c>
       <c r="J12" s="63">
         <f ca="1">INDIRECT(Calculation!P17,FALSE)</f>
-        <v>131.8845</v>
+        <v>86.965999999999994</v>
       </c>
       <c r="K12" s="83">
         <f ca="1">INDIRECT(Calculation!Q17,FALSE)</f>
-        <v>849.57249999999999</v>
+        <v>1002.379</v>
       </c>
       <c r="L12" s="82">
         <f ca="1">INDIRECT(Calculation!R17,FALSE)</f>
-        <v>395.8125</v>
+        <v>420.17849999999999</v>
       </c>
       <c r="M12" s="63">
         <f ca="1">INDIRECT(Calculation!S17,FALSE)</f>
-        <v>107.5415</v>
+        <v>212.49850000000001</v>
       </c>
       <c r="N12" s="83">
         <f ca="1">INDIRECT(Calculation!T17,FALSE)</f>
-        <v>288.27100000000002</v>
+        <v>207.68</v>
       </c>
       <c r="O12" s="82">
         <f ca="1">INDIRECT(Calculation!U17,FALSE)</f>
-        <v>986.23649999999998</v>
+        <v>1532.0605</v>
       </c>
       <c r="P12" s="63">
         <f ca="1">INDIRECT(Calculation!V17,FALSE)</f>
-        <v>208.12950000000001</v>
+        <v>79.578500000000005</v>
       </c>
       <c r="Q12" s="83">
         <f ca="1">INDIRECT(Calculation!W17,FALSE)</f>
-        <v>778.10699999999997</v>
+        <v>1452.482</v>
       </c>
       <c r="R12" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X17,FALSE)</f>
@@ -7408,39 +7416,39 @@
       </c>
       <c r="U12" s="82">
         <f ca="1">INDIRECT(Calculation!AA17,FALSE)</f>
-        <v>3992.9328</v>
+        <v>6143.6013000000003</v>
       </c>
       <c r="V12" s="63">
         <f ca="1">INDIRECT(Calculation!AB17,FALSE)</f>
-        <v>1653.3887999999999</v>
+        <v>836.03020000000004</v>
       </c>
       <c r="W12" s="83">
         <f ca="1">INDIRECT(Calculation!AC17,FALSE)</f>
-        <v>2339.5439999999999</v>
+        <v>5307.5711000000001</v>
       </c>
       <c r="X12" s="82">
         <f ca="1">INDIRECT(Calculation!AD17,FALSE)</f>
-        <v>4065.2809999999999</v>
+        <v>5867.1719999999996</v>
       </c>
       <c r="Y12" s="63">
         <f ca="1">INDIRECT(Calculation!AE17,FALSE)</f>
-        <v>73.322500000000005</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="Z12" s="83">
         <f ca="1">INDIRECT(Calculation!AF17,FALSE)</f>
-        <v>3991.9585000000002</v>
+        <v>5863.1570000000002</v>
       </c>
       <c r="AA12" s="82">
         <f ca="1">INDIRECT(Calculation!AG17,FALSE)</f>
-        <v>210.90799999999999</v>
+        <v>278.6585</v>
       </c>
       <c r="AB12" s="63">
         <f ca="1">INDIRECT(Calculation!AH17,FALSE)</f>
-        <v>241.3665</v>
+        <v>223.2705</v>
       </c>
       <c r="AC12" s="63">
         <f ca="1">INDIRECT(Calculation!AI17,FALSE)</f>
-        <v>-30.458500000000001</v>
+        <v>55.387999999999998</v>
       </c>
       <c r="AD12" s="41"/>
       <c r="AE12" s="41"/>
@@ -7462,71 +7470,71 @@
     <row r="13" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <f ca="1">INDIRECT(Calculation!F18,FALSE)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G18,FALSE)</f>
-        <v>Quarter 4</v>
+        <v>Quarter 1</v>
       </c>
       <c r="C13" s="82">
         <f ca="1">INDIRECT(Calculation!I18,FALSE)</f>
-        <v>2997.1680000000001</v>
+        <v>4353.9110000000001</v>
       </c>
       <c r="D13" s="63">
         <f ca="1">INDIRECT(Calculation!J18,FALSE)</f>
-        <v>199.7895</v>
+        <v>190.80850000000001</v>
       </c>
       <c r="E13" s="83">
         <f ca="1">INDIRECT(Calculation!K18,FALSE)</f>
-        <v>2797.3784999999998</v>
+        <v>4163.1025</v>
       </c>
       <c r="F13" s="82">
         <f ca="1">INDIRECT(Calculation!L18,FALSE)</f>
-        <v>104.8493</v>
+        <v>80.331299999999999</v>
       </c>
       <c r="G13" s="63">
         <f ca="1">INDIRECT(Calculation!M18,FALSE)</f>
-        <v>257.19760000000002</v>
+        <v>278.47989999999999</v>
       </c>
       <c r="H13" s="83">
         <f ca="1">INDIRECT(Calculation!N18,FALSE)</f>
-        <v>-152.3484</v>
+        <v>-198.14859999999999</v>
       </c>
       <c r="I13" s="82">
         <f ca="1">INDIRECT(Calculation!O18,FALSE)</f>
-        <v>1089.345</v>
+        <v>571.5915</v>
       </c>
       <c r="J13" s="63">
         <f ca="1">INDIRECT(Calculation!P18,FALSE)</f>
-        <v>86.965999999999994</v>
+        <v>7.47</v>
       </c>
       <c r="K13" s="83">
         <f ca="1">INDIRECT(Calculation!Q18,FALSE)</f>
-        <v>1002.379</v>
+        <v>564.12149999999997</v>
       </c>
       <c r="L13" s="82">
         <f ca="1">INDIRECT(Calculation!R18,FALSE)</f>
-        <v>420.17849999999999</v>
+        <v>231.971</v>
       </c>
       <c r="M13" s="63">
         <f ca="1">INDIRECT(Calculation!S18,FALSE)</f>
-        <v>212.49850000000001</v>
+        <v>199.79599999999999</v>
       </c>
       <c r="N13" s="83">
         <f ca="1">INDIRECT(Calculation!T18,FALSE)</f>
-        <v>207.68</v>
+        <v>32.174999999999997</v>
       </c>
       <c r="O13" s="82">
         <f ca="1">INDIRECT(Calculation!U18,FALSE)</f>
-        <v>1532.0605</v>
+        <v>1774.4359999999999</v>
       </c>
       <c r="P13" s="63">
         <f ca="1">INDIRECT(Calculation!V18,FALSE)</f>
-        <v>79.578500000000005</v>
+        <v>24.411000000000001</v>
       </c>
       <c r="Q13" s="83">
         <f ca="1">INDIRECT(Calculation!W18,FALSE)</f>
-        <v>1452.482</v>
+        <v>1750.0250000000001</v>
       </c>
       <c r="R13" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X18,FALSE)</f>
@@ -7542,39 +7550,39 @@
       </c>
       <c r="U13" s="82">
         <f ca="1">INDIRECT(Calculation!AA18,FALSE)</f>
-        <v>6143.6013000000003</v>
+        <v>7012.2407999999996</v>
       </c>
       <c r="V13" s="63">
         <f ca="1">INDIRECT(Calculation!AB18,FALSE)</f>
-        <v>836.03020000000004</v>
+        <v>700.96540000000005</v>
       </c>
       <c r="W13" s="83">
         <f ca="1">INDIRECT(Calculation!AC18,FALSE)</f>
-        <v>5307.5711000000001</v>
+        <v>6311.2754000000004</v>
       </c>
       <c r="X13" s="82">
         <f ca="1">INDIRECT(Calculation!AD18,FALSE)</f>
-        <v>5867.1719999999996</v>
+        <v>5312.1255000000001</v>
       </c>
       <c r="Y13" s="63">
         <f ca="1">INDIRECT(Calculation!AE18,FALSE)</f>
-        <v>4.0149999999999997</v>
+        <v>38.9925</v>
       </c>
       <c r="Z13" s="83">
         <f ca="1">INDIRECT(Calculation!AF18,FALSE)</f>
-        <v>5863.1570000000002</v>
+        <v>5273.1329999999998</v>
       </c>
       <c r="AA13" s="82">
         <f ca="1">INDIRECT(Calculation!AG18,FALSE)</f>
-        <v>278.6585</v>
+        <v>323.35050000000001</v>
       </c>
       <c r="AB13" s="63">
         <f ca="1">INDIRECT(Calculation!AH18,FALSE)</f>
-        <v>223.2705</v>
+        <v>271.24900000000002</v>
       </c>
       <c r="AC13" s="63">
         <f ca="1">INDIRECT(Calculation!AI18,FALSE)</f>
-        <v>55.387999999999998</v>
+        <v>52.101500000000001</v>
       </c>
       <c r="AD13" s="41"/>
       <c r="AE13" s="41"/>
@@ -7599,67 +7607,67 @@
       </c>
       <c r="B14" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G19,FALSE)</f>
-        <v>Quarter 1</v>
+        <v>Quarter 2</v>
       </c>
       <c r="C14" s="82">
         <f ca="1">INDIRECT(Calculation!I19,FALSE)</f>
-        <v>4353.9110000000001</v>
+        <v>4663.4660000000003</v>
       </c>
       <c r="D14" s="63">
         <f ca="1">INDIRECT(Calculation!J19,FALSE)</f>
-        <v>190.80850000000001</v>
+        <v>133.02850000000001</v>
       </c>
       <c r="E14" s="83">
         <f ca="1">INDIRECT(Calculation!K19,FALSE)</f>
-        <v>4163.1025</v>
+        <v>4530.4375</v>
       </c>
       <c r="F14" s="82">
         <f ca="1">INDIRECT(Calculation!L19,FALSE)</f>
-        <v>80.331299999999999</v>
+        <v>43.046900000000001</v>
       </c>
       <c r="G14" s="63">
         <f ca="1">INDIRECT(Calculation!M19,FALSE)</f>
-        <v>278.47989999999999</v>
+        <v>451.38279999999997</v>
       </c>
       <c r="H14" s="83">
         <f ca="1">INDIRECT(Calculation!N19,FALSE)</f>
-        <v>-198.14859999999999</v>
+        <v>-408.33589999999992</v>
       </c>
       <c r="I14" s="82">
         <f ca="1">INDIRECT(Calculation!O19,FALSE)</f>
-        <v>571.5915</v>
+        <v>369.88049999999998</v>
       </c>
       <c r="J14" s="63">
         <f ca="1">INDIRECT(Calculation!P19,FALSE)</f>
-        <v>7.47</v>
+        <v>6.9524999999999997</v>
       </c>
       <c r="K14" s="83">
         <f ca="1">INDIRECT(Calculation!Q19,FALSE)</f>
-        <v>564.12149999999997</v>
+        <v>362.928</v>
       </c>
       <c r="L14" s="82">
         <f ca="1">INDIRECT(Calculation!R19,FALSE)</f>
-        <v>231.971</v>
+        <v>59.203000000000003</v>
       </c>
       <c r="M14" s="63">
         <f ca="1">INDIRECT(Calculation!S19,FALSE)</f>
-        <v>199.79599999999999</v>
+        <v>336.63750000000005</v>
       </c>
       <c r="N14" s="83">
         <f ca="1">INDIRECT(Calculation!T19,FALSE)</f>
-        <v>32.174999999999997</v>
+        <v>-277.43450000000001</v>
       </c>
       <c r="O14" s="82">
         <f ca="1">INDIRECT(Calculation!U19,FALSE)</f>
-        <v>1774.4359999999999</v>
+        <v>1885.2265</v>
       </c>
       <c r="P14" s="63">
         <f ca="1">INDIRECT(Calculation!V19,FALSE)</f>
-        <v>24.411000000000001</v>
+        <v>5.5750000000000002</v>
       </c>
       <c r="Q14" s="83">
         <f ca="1">INDIRECT(Calculation!W19,FALSE)</f>
-        <v>1750.0250000000001</v>
+        <v>1879.6514999999999</v>
       </c>
       <c r="R14" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X19,FALSE)</f>
@@ -7675,39 +7683,39 @@
       </c>
       <c r="U14" s="82">
         <f ca="1">INDIRECT(Calculation!AA19,FALSE)</f>
-        <v>7012.2407999999996</v>
+        <v>7020.822900000001</v>
       </c>
       <c r="V14" s="63">
         <f ca="1">INDIRECT(Calculation!AB19,FALSE)</f>
-        <v>700.96540000000005</v>
+        <v>933.57629999999995</v>
       </c>
       <c r="W14" s="83">
         <f ca="1">INDIRECT(Calculation!AC19,FALSE)</f>
-        <v>6311.2754000000004</v>
+        <v>6087.2466000000004</v>
       </c>
       <c r="X14" s="82">
         <f ca="1">INDIRECT(Calculation!AD19,FALSE)</f>
-        <v>5312.1255000000001</v>
+        <v>2399.2465000000002</v>
       </c>
       <c r="Y14" s="63">
         <f ca="1">INDIRECT(Calculation!AE19,FALSE)</f>
-        <v>38.9925</v>
+        <v>562.20950000000005</v>
       </c>
       <c r="Z14" s="83">
         <f ca="1">INDIRECT(Calculation!AF19,FALSE)</f>
-        <v>5273.1329999999998</v>
+        <v>1837.0370000000003</v>
       </c>
       <c r="AA14" s="82">
         <f ca="1">INDIRECT(Calculation!AG19,FALSE)</f>
-        <v>323.35050000000001</v>
+        <v>522.00650000000007</v>
       </c>
       <c r="AB14" s="63">
         <f ca="1">INDIRECT(Calculation!AH19,FALSE)</f>
-        <v>271.24900000000002</v>
+        <v>121.43799999999999</v>
       </c>
       <c r="AC14" s="63">
         <f ca="1">INDIRECT(Calculation!AI19,FALSE)</f>
-        <v>52.101500000000001</v>
+        <v>400.56850000000009</v>
       </c>
       <c r="AD14" s="41"/>
       <c r="AE14" s="41"/>
@@ -7732,67 +7740,67 @@
       </c>
       <c r="B15" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G20,FALSE)</f>
-        <v>Quarter 2</v>
+        <v>Quarter 3</v>
       </c>
       <c r="C15" s="82">
         <f ca="1">INDIRECT(Calculation!I20,FALSE)</f>
-        <v>4663.4660000000003</v>
+        <v>4837.8305</v>
       </c>
       <c r="D15" s="63">
         <f ca="1">INDIRECT(Calculation!J20,FALSE)</f>
-        <v>133.02850000000001</v>
+        <v>9.7039999999999988</v>
       </c>
       <c r="E15" s="83">
         <f ca="1">INDIRECT(Calculation!K20,FALSE)</f>
-        <v>4530.4375</v>
+        <v>4828.1265000000003</v>
       </c>
       <c r="F15" s="82">
         <f ca="1">INDIRECT(Calculation!L20,FALSE)</f>
-        <v>43.046900000000001</v>
+        <v>48.182299999999998</v>
       </c>
       <c r="G15" s="63">
         <f ca="1">INDIRECT(Calculation!M20,FALSE)</f>
-        <v>451.38279999999997</v>
+        <v>455.9769</v>
       </c>
       <c r="H15" s="83">
         <f ca="1">INDIRECT(Calculation!N20,FALSE)</f>
-        <v>-408.33589999999992</v>
+        <v>-407.7946</v>
       </c>
       <c r="I15" s="82">
         <f ca="1">INDIRECT(Calculation!O20,FALSE)</f>
-        <v>369.88049999999998</v>
+        <v>1730.4259999999999</v>
       </c>
       <c r="J15" s="63">
         <f ca="1">INDIRECT(Calculation!P20,FALSE)</f>
-        <v>6.9524999999999997</v>
+        <v>14.4115</v>
       </c>
       <c r="K15" s="83">
         <f ca="1">INDIRECT(Calculation!Q20,FALSE)</f>
-        <v>362.928</v>
+        <v>1716.0145000000002</v>
       </c>
       <c r="L15" s="82">
         <f ca="1">INDIRECT(Calculation!R20,FALSE)</f>
-        <v>59.203000000000003</v>
+        <v>38.000999999999998</v>
       </c>
       <c r="M15" s="63">
         <f ca="1">INDIRECT(Calculation!S20,FALSE)</f>
-        <v>336.63750000000005</v>
+        <v>361.25349999999997</v>
       </c>
       <c r="N15" s="83">
         <f ca="1">INDIRECT(Calculation!T20,FALSE)</f>
-        <v>-277.43450000000001</v>
+        <v>-323.2525</v>
       </c>
       <c r="O15" s="82">
         <f ca="1">INDIRECT(Calculation!U20,FALSE)</f>
-        <v>1885.2265</v>
+        <v>1838.278</v>
       </c>
       <c r="P15" s="63">
         <f ca="1">INDIRECT(Calculation!V20,FALSE)</f>
-        <v>5.5750000000000002</v>
+        <v>3.6035000000000004</v>
       </c>
       <c r="Q15" s="83">
         <f ca="1">INDIRECT(Calculation!W20,FALSE)</f>
-        <v>1879.6514999999999</v>
+        <v>1834.6745000000001</v>
       </c>
       <c r="R15" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X20,FALSE)</f>
@@ -7808,39 +7816,39 @@
       </c>
       <c r="U15" s="82">
         <f ca="1">INDIRECT(Calculation!AA20,FALSE)</f>
-        <v>7020.822900000001</v>
+        <v>8492.7178000000004</v>
       </c>
       <c r="V15" s="63">
         <f ca="1">INDIRECT(Calculation!AB20,FALSE)</f>
-        <v>933.57629999999995</v>
+        <v>844.94939999999997</v>
       </c>
       <c r="W15" s="83">
         <f ca="1">INDIRECT(Calculation!AC20,FALSE)</f>
-        <v>6087.2466000000004</v>
+        <v>7647.768399999999</v>
       </c>
       <c r="X15" s="82">
         <f ca="1">INDIRECT(Calculation!AD20,FALSE)</f>
-        <v>2399.2465000000002</v>
+        <v>2218.6675</v>
       </c>
       <c r="Y15" s="63">
         <f ca="1">INDIRECT(Calculation!AE20,FALSE)</f>
-        <v>562.20950000000005</v>
+        <v>218.39599999999999</v>
       </c>
       <c r="Z15" s="83">
         <f ca="1">INDIRECT(Calculation!AF20,FALSE)</f>
-        <v>1837.0370000000003</v>
+        <v>2000.2715000000001</v>
       </c>
       <c r="AA15" s="82">
         <f ca="1">INDIRECT(Calculation!AG20,FALSE)</f>
-        <v>522.00650000000007</v>
+        <v>507.78649999999999</v>
       </c>
       <c r="AB15" s="63">
         <f ca="1">INDIRECT(Calculation!AH20,FALSE)</f>
-        <v>121.43799999999999</v>
+        <v>80.441499999999991</v>
       </c>
       <c r="AC15" s="63">
         <f ca="1">INDIRECT(Calculation!AI20,FALSE)</f>
-        <v>400.56850000000009</v>
+        <v>427.34500000000003</v>
       </c>
       <c r="AD15" s="41"/>
       <c r="AE15" s="41"/>
@@ -7865,115 +7873,115 @@
       </c>
       <c r="B16" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G21,FALSE)</f>
-        <v>Quarter 3</v>
+        <v>Quarter 4</v>
       </c>
       <c r="C16" s="82">
         <f ca="1">INDIRECT(Calculation!I21,FALSE)</f>
-        <v>4837.8305</v>
+        <v>1296.8235</v>
       </c>
       <c r="D16" s="63">
         <f ca="1">INDIRECT(Calculation!J21,FALSE)</f>
-        <v>9.7039999999999988</v>
+        <v>1144.8905</v>
       </c>
       <c r="E16" s="83">
         <f ca="1">INDIRECT(Calculation!K21,FALSE)</f>
-        <v>4828.1265000000003</v>
+        <v>151.93299999999999</v>
       </c>
       <c r="F16" s="82">
         <f ca="1">INDIRECT(Calculation!L21,FALSE)</f>
-        <v>48.182299999999998</v>
+        <v>153.08510000000001</v>
       </c>
       <c r="G16" s="63">
         <f ca="1">INDIRECT(Calculation!M21,FALSE)</f>
-        <v>455.9769</v>
+        <v>231.1609</v>
       </c>
       <c r="H16" s="83">
         <f ca="1">INDIRECT(Calculation!N21,FALSE)</f>
-        <v>-407.7946</v>
+        <v>-78.075800000000001</v>
       </c>
       <c r="I16" s="82">
         <f ca="1">INDIRECT(Calculation!O21,FALSE)</f>
-        <v>1730.4259999999999</v>
+        <v>1668.7085</v>
       </c>
       <c r="J16" s="63">
         <f ca="1">INDIRECT(Calculation!P21,FALSE)</f>
-        <v>14.4115</v>
+        <v>48.460499999999996</v>
       </c>
       <c r="K16" s="83">
         <f ca="1">INDIRECT(Calculation!Q21,FALSE)</f>
-        <v>1716.0145000000002</v>
+        <v>1620.2479999999998</v>
       </c>
       <c r="L16" s="82">
         <f ca="1">INDIRECT(Calculation!R21,FALSE)</f>
-        <v>38.000999999999998</v>
+        <v>208.52249999999998</v>
       </c>
       <c r="M16" s="63">
         <f ca="1">INDIRECT(Calculation!S21,FALSE)</f>
-        <v>361.25349999999997</v>
+        <v>137.22800000000001</v>
       </c>
       <c r="N16" s="83">
         <f ca="1">INDIRECT(Calculation!T21,FALSE)</f>
-        <v>-323.2525</v>
+        <v>71.294499999999999</v>
       </c>
       <c r="O16" s="82">
         <f ca="1">INDIRECT(Calculation!U21,FALSE)</f>
-        <v>1838.278</v>
+        <v>1497.0729999999999</v>
       </c>
       <c r="P16" s="63">
         <f ca="1">INDIRECT(Calculation!V21,FALSE)</f>
-        <v>3.6035000000000004</v>
+        <v>104.122</v>
       </c>
       <c r="Q16" s="83">
         <f ca="1">INDIRECT(Calculation!W21,FALSE)</f>
-        <v>1834.6745000000001</v>
-      </c>
-      <c r="R16" s="82" t="str">
+        <v>1392.951</v>
+      </c>
+      <c r="R16" s="82">
         <f ca="1">INDIRECT(Calculation!X21,FALSE)</f>
-        <v>[x]</v>
-      </c>
-      <c r="S16" s="63" t="str">
+        <v>1392.924</v>
+      </c>
+      <c r="S16" s="63">
         <f ca="1">INDIRECT(Calculation!Y21,FALSE)</f>
-        <v>[x]</v>
-      </c>
-      <c r="T16" s="83" t="str">
+        <v>20.194000000000003</v>
+      </c>
+      <c r="T16" s="83">
         <f ca="1">INDIRECT(Calculation!Z21,FALSE)</f>
-        <v>[x]</v>
+        <v>1372.73</v>
       </c>
       <c r="U16" s="82">
         <f ca="1">INDIRECT(Calculation!AA21,FALSE)</f>
-        <v>8492.7178000000004</v>
+        <v>6217.1365999999998</v>
       </c>
       <c r="V16" s="63">
         <f ca="1">INDIRECT(Calculation!AB21,FALSE)</f>
-        <v>844.94939999999997</v>
+        <v>1686.0559000000003</v>
       </c>
       <c r="W16" s="83">
         <f ca="1">INDIRECT(Calculation!AC21,FALSE)</f>
-        <v>7647.768399999999</v>
+        <v>4531.0806999999995</v>
       </c>
       <c r="X16" s="82">
         <f ca="1">INDIRECT(Calculation!AD21,FALSE)</f>
-        <v>2218.6675</v>
+        <v>6104.4944999999998</v>
       </c>
       <c r="Y16" s="63">
         <f ca="1">INDIRECT(Calculation!AE21,FALSE)</f>
-        <v>218.39599999999999</v>
+        <v>52.718999999999994</v>
       </c>
       <c r="Z16" s="83">
         <f ca="1">INDIRECT(Calculation!AF21,FALSE)</f>
-        <v>2000.2715000000001</v>
+        <v>6051.7754999999997</v>
       </c>
       <c r="AA16" s="82">
         <f ca="1">INDIRECT(Calculation!AG21,FALSE)</f>
-        <v>507.78649999999999</v>
+        <v>284.13150000000002</v>
       </c>
       <c r="AB16" s="63">
         <f ca="1">INDIRECT(Calculation!AH21,FALSE)</f>
-        <v>80.441499999999991</v>
+        <v>298.72699999999998</v>
       </c>
       <c r="AC16" s="63">
         <f ca="1">INDIRECT(Calculation!AI21,FALSE)</f>
-        <v>427.34500000000003</v>
+        <v>-14.595499999999959</v>
       </c>
       <c r="AD16" s="41"/>
       <c r="AE16" s="41"/>
@@ -7998,115 +8006,115 @@
       </c>
       <c r="B17" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G22,FALSE)</f>
-        <v>Quarter 4</v>
+        <v>Quarter 1</v>
       </c>
       <c r="C17" s="82">
         <f ca="1">INDIRECT(Calculation!I22,FALSE)</f>
-        <v>1296.8235</v>
+        <v>1297.5630000000001</v>
       </c>
       <c r="D17" s="63">
         <f ca="1">INDIRECT(Calculation!J22,FALSE)</f>
-        <v>1144.8905</v>
+        <v>1061.5350000000001</v>
       </c>
       <c r="E17" s="83">
         <f ca="1">INDIRECT(Calculation!K22,FALSE)</f>
-        <v>151.93299999999999</v>
+        <v>236.02800000000002</v>
       </c>
       <c r="F17" s="82">
         <f ca="1">INDIRECT(Calculation!L22,FALSE)</f>
-        <v>153.08510000000001</v>
+        <v>89.094600000000014</v>
       </c>
       <c r="G17" s="63">
         <f ca="1">INDIRECT(Calculation!M22,FALSE)</f>
-        <v>231.1609</v>
+        <v>285.02659999999997</v>
       </c>
       <c r="H17" s="83">
         <f ca="1">INDIRECT(Calculation!N22,FALSE)</f>
-        <v>-78.075800000000001</v>
+        <v>-195.93199999999999</v>
       </c>
       <c r="I17" s="82">
         <f ca="1">INDIRECT(Calculation!O22,FALSE)</f>
-        <v>1668.7085</v>
+        <v>1597.5819999999999</v>
       </c>
       <c r="J17" s="63">
         <f ca="1">INDIRECT(Calculation!P22,FALSE)</f>
-        <v>48.460499999999996</v>
+        <v>72.165000000000006</v>
       </c>
       <c r="K17" s="83">
         <f ca="1">INDIRECT(Calculation!Q22,FALSE)</f>
-        <v>1620.2479999999998</v>
+        <v>1525.4169999999999</v>
       </c>
       <c r="L17" s="82">
         <f ca="1">INDIRECT(Calculation!R22,FALSE)</f>
-        <v>208.52249999999998</v>
+        <v>265.5795</v>
       </c>
       <c r="M17" s="63">
         <f ca="1">INDIRECT(Calculation!S22,FALSE)</f>
-        <v>137.22800000000001</v>
+        <v>66.197500000000005</v>
       </c>
       <c r="N17" s="83">
         <f ca="1">INDIRECT(Calculation!T22,FALSE)</f>
-        <v>71.294499999999999</v>
+        <v>199.38200000000001</v>
       </c>
       <c r="O17" s="82">
         <f ca="1">INDIRECT(Calculation!U22,FALSE)</f>
-        <v>1497.0729999999999</v>
+        <v>1536.0509999999999</v>
       </c>
       <c r="P17" s="63">
         <f ca="1">INDIRECT(Calculation!V22,FALSE)</f>
-        <v>104.122</v>
+        <v>88.140999999999991</v>
       </c>
       <c r="Q17" s="83">
         <f ca="1">INDIRECT(Calculation!W22,FALSE)</f>
-        <v>1392.951</v>
+        <v>1447.91</v>
       </c>
       <c r="R17" s="82">
         <f ca="1">INDIRECT(Calculation!X22,FALSE)</f>
-        <v>1392.924</v>
+        <v>1781.2945</v>
       </c>
       <c r="S17" s="63">
         <f ca="1">INDIRECT(Calculation!Y22,FALSE)</f>
-        <v>20.194000000000003</v>
+        <v>50.663000000000004</v>
       </c>
       <c r="T17" s="83">
         <f ca="1">INDIRECT(Calculation!Z22,FALSE)</f>
-        <v>1372.73</v>
+        <v>1730.6315</v>
       </c>
       <c r="U17" s="82">
         <f ca="1">INDIRECT(Calculation!AA22,FALSE)</f>
-        <v>6217.1365999999998</v>
+        <v>6567.1646000000001</v>
       </c>
       <c r="V17" s="63">
         <f ca="1">INDIRECT(Calculation!AB22,FALSE)</f>
-        <v>1686.0559000000003</v>
+        <v>1623.7281000000003</v>
       </c>
       <c r="W17" s="83">
         <f ca="1">INDIRECT(Calculation!AC22,FALSE)</f>
-        <v>4531.0806999999995</v>
+        <v>4943.4364999999998</v>
       </c>
       <c r="X17" s="82">
         <f ca="1">INDIRECT(Calculation!AD22,FALSE)</f>
-        <v>6104.4944999999998</v>
+        <v>6002.8145000000004</v>
       </c>
       <c r="Y17" s="63">
         <f ca="1">INDIRECT(Calculation!AE22,FALSE)</f>
-        <v>52.718999999999994</v>
+        <v>91.09</v>
       </c>
       <c r="Z17" s="83">
         <f ca="1">INDIRECT(Calculation!AF22,FALSE)</f>
-        <v>6051.7754999999997</v>
+        <v>5911.7245000000003</v>
       </c>
       <c r="AA17" s="82">
         <f ca="1">INDIRECT(Calculation!AG22,FALSE)</f>
-        <v>284.13150000000002</v>
+        <v>229.94800000000001</v>
       </c>
       <c r="AB17" s="63">
         <f ca="1">INDIRECT(Calculation!AH22,FALSE)</f>
-        <v>298.72699999999998</v>
+        <v>304.14549999999997</v>
       </c>
       <c r="AC17" s="63">
         <f ca="1">INDIRECT(Calculation!AI22,FALSE)</f>
-        <v>-14.595499999999959</v>
+        <v>-74.197499999999962</v>
       </c>
       <c r="AD17" s="41"/>
       <c r="AE17" s="41"/>
@@ -8131,115 +8139,115 @@
       </c>
       <c r="B18" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G23,FALSE)</f>
-        <v>Quarter 1</v>
+        <v>Quarter 2</v>
       </c>
       <c r="C18" s="82">
         <f ca="1">INDIRECT(Calculation!I23,FALSE)</f>
-        <v>1297.5630000000001</v>
+        <v>229.625</v>
       </c>
       <c r="D18" s="63">
         <f ca="1">INDIRECT(Calculation!J23,FALSE)</f>
-        <v>1061.5350000000001</v>
+        <v>3604.3805000000002</v>
       </c>
       <c r="E18" s="83">
         <f ca="1">INDIRECT(Calculation!K23,FALSE)</f>
-        <v>236.02800000000002</v>
+        <v>-3374.7555000000002</v>
       </c>
       <c r="F18" s="82">
         <f ca="1">INDIRECT(Calculation!L23,FALSE)</f>
-        <v>89.094600000000014</v>
+        <v>53.469200000000001</v>
       </c>
       <c r="G18" s="63">
         <f ca="1">INDIRECT(Calculation!M23,FALSE)</f>
-        <v>285.02659999999997</v>
+        <v>335.50319999999999</v>
       </c>
       <c r="H18" s="83">
         <f ca="1">INDIRECT(Calculation!N23,FALSE)</f>
-        <v>-195.93199999999999</v>
+        <v>-282.03399999999999</v>
       </c>
       <c r="I18" s="82">
         <f ca="1">INDIRECT(Calculation!O23,FALSE)</f>
-        <v>1597.5819999999999</v>
+        <v>608.04999999999995</v>
       </c>
       <c r="J18" s="63">
         <f ca="1">INDIRECT(Calculation!P23,FALSE)</f>
-        <v>72.165000000000006</v>
+        <v>788.21250000000009</v>
       </c>
       <c r="K18" s="83">
         <f ca="1">INDIRECT(Calculation!Q23,FALSE)</f>
-        <v>1525.4169999999999</v>
+        <v>-180.16250000000005</v>
       </c>
       <c r="L18" s="82">
         <f ca="1">INDIRECT(Calculation!R23,FALSE)</f>
-        <v>265.5795</v>
+        <v>135.21949999999998</v>
       </c>
       <c r="M18" s="63">
         <f ca="1">INDIRECT(Calculation!S23,FALSE)</f>
-        <v>66.197500000000005</v>
+        <v>74.24799999999999</v>
       </c>
       <c r="N18" s="83">
         <f ca="1">INDIRECT(Calculation!T23,FALSE)</f>
-        <v>199.38200000000001</v>
+        <v>60.971499999999999</v>
       </c>
       <c r="O18" s="82">
         <f ca="1">INDIRECT(Calculation!U23,FALSE)</f>
-        <v>1536.0509999999999</v>
+        <v>581.73249999999996</v>
       </c>
       <c r="P18" s="63">
         <f ca="1">INDIRECT(Calculation!V23,FALSE)</f>
-        <v>88.140999999999991</v>
+        <v>987.44849999999997</v>
       </c>
       <c r="Q18" s="83">
         <f ca="1">INDIRECT(Calculation!W23,FALSE)</f>
-        <v>1447.91</v>
+        <v>-405.71599999999995</v>
       </c>
       <c r="R18" s="82">
         <f ca="1">INDIRECT(Calculation!X23,FALSE)</f>
-        <v>1781.2945</v>
+        <v>662.50900000000001</v>
       </c>
       <c r="S18" s="63">
         <f ca="1">INDIRECT(Calculation!Y23,FALSE)</f>
-        <v>50.663000000000004</v>
+        <v>443.2645</v>
       </c>
       <c r="T18" s="83">
         <f ca="1">INDIRECT(Calculation!Z23,FALSE)</f>
-        <v>1730.6315</v>
+        <v>219.24449999999999</v>
       </c>
       <c r="U18" s="82">
         <f ca="1">INDIRECT(Calculation!AA23,FALSE)</f>
-        <v>6567.1646000000001</v>
+        <v>2270.6052</v>
       </c>
       <c r="V18" s="63">
         <f ca="1">INDIRECT(Calculation!AB23,FALSE)</f>
-        <v>1623.7281000000003</v>
+        <v>6233.0571999999993</v>
       </c>
       <c r="W18" s="83">
         <f ca="1">INDIRECT(Calculation!AC23,FALSE)</f>
-        <v>4943.4364999999998</v>
+        <v>-3962.4519999999993</v>
       </c>
       <c r="X18" s="82">
         <f ca="1">INDIRECT(Calculation!AD23,FALSE)</f>
-        <v>6002.8145000000004</v>
+        <v>4050.567</v>
       </c>
       <c r="Y18" s="63">
         <f ca="1">INDIRECT(Calculation!AE23,FALSE)</f>
-        <v>91.09</v>
+        <v>142.88999999999999</v>
       </c>
       <c r="Z18" s="83">
         <f ca="1">INDIRECT(Calculation!AF23,FALSE)</f>
-        <v>5911.7245000000003</v>
+        <v>3907.6770000000001</v>
       </c>
       <c r="AA18" s="82">
         <f ca="1">INDIRECT(Calculation!AG23,FALSE)</f>
-        <v>229.94800000000001</v>
+        <v>222.53250000000003</v>
       </c>
       <c r="AB18" s="63">
         <f ca="1">INDIRECT(Calculation!AH23,FALSE)</f>
-        <v>304.14549999999997</v>
+        <v>252.84900000000002</v>
       </c>
       <c r="AC18" s="63">
         <f ca="1">INDIRECT(Calculation!AI23,FALSE)</f>
-        <v>-74.197499999999962</v>
+        <v>-30.316499999999991</v>
       </c>
       <c r="AD18" s="41"/>
       <c r="AE18" s="41"/>
@@ -8264,115 +8272,115 @@
       </c>
       <c r="B19" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G24,FALSE)</f>
-        <v>Quarter 2 [provisional]</v>
+        <v>Quarter 3 [provisional]</v>
       </c>
       <c r="C19" s="82">
         <f ca="1">INDIRECT(Calculation!I24,FALSE)</f>
-        <v>229.625</v>
+        <v>190.483</v>
       </c>
       <c r="D19" s="63">
         <f ca="1">INDIRECT(Calculation!J24,FALSE)</f>
-        <v>3604.3805000000002</v>
+        <v>4615.8085000000001</v>
       </c>
       <c r="E19" s="83">
         <f ca="1">INDIRECT(Calculation!K24,FALSE)</f>
-        <v>-3374.7555000000002</v>
+        <v>-4425.3254999999999</v>
       </c>
       <c r="F19" s="82">
         <f ca="1">INDIRECT(Calculation!L24,FALSE)</f>
-        <v>53.469200000000001</v>
+        <v>65.0364</v>
       </c>
       <c r="G19" s="63">
         <f ca="1">INDIRECT(Calculation!M24,FALSE)</f>
-        <v>335.50319999999999</v>
+        <v>271.25139999999999</v>
       </c>
       <c r="H19" s="83">
         <f ca="1">INDIRECT(Calculation!N24,FALSE)</f>
-        <v>-282.03399999999999</v>
+        <v>-206.21499999999997</v>
       </c>
       <c r="I19" s="82">
         <f ca="1">INDIRECT(Calculation!O24,FALSE)</f>
-        <v>608.04999999999995</v>
+        <v>682.28250000000003</v>
       </c>
       <c r="J19" s="63">
         <f ca="1">INDIRECT(Calculation!P24,FALSE)</f>
-        <v>788.21250000000009</v>
+        <v>679.62299999999993</v>
       </c>
       <c r="K19" s="83">
         <f ca="1">INDIRECT(Calculation!Q24,FALSE)</f>
-        <v>-180.16250000000005</v>
+        <v>2.6595000000000084</v>
       </c>
       <c r="L19" s="82">
         <f ca="1">INDIRECT(Calculation!R24,FALSE)</f>
-        <v>135.21949999999998</v>
+        <v>301.01550000000003</v>
       </c>
       <c r="M19" s="63">
         <f ca="1">INDIRECT(Calculation!S24,FALSE)</f>
-        <v>74.24799999999999</v>
+        <v>122.65299999999999</v>
       </c>
       <c r="N19" s="83">
         <f ca="1">INDIRECT(Calculation!T24,FALSE)</f>
-        <v>60.971499999999999</v>
+        <v>178.36250000000001</v>
       </c>
       <c r="O19" s="82">
         <f ca="1">INDIRECT(Calculation!U24,FALSE)</f>
-        <v>581.73249999999996</v>
+        <v>494.98250000000002</v>
       </c>
       <c r="P19" s="63">
         <f ca="1">INDIRECT(Calculation!V24,FALSE)</f>
-        <v>987.44849999999997</v>
+        <v>829.74649999999997</v>
       </c>
       <c r="Q19" s="83">
         <f ca="1">INDIRECT(Calculation!W24,FALSE)</f>
-        <v>-405.71599999999995</v>
+        <v>-334.76400000000001</v>
       </c>
       <c r="R19" s="82">
         <f ca="1">INDIRECT(Calculation!X24,FALSE)</f>
-        <v>662.50900000000001</v>
+        <v>769.66449999999998</v>
       </c>
       <c r="S19" s="63">
         <f ca="1">INDIRECT(Calculation!Y24,FALSE)</f>
-        <v>443.2645</v>
+        <v>837.45</v>
       </c>
       <c r="T19" s="83">
         <f ca="1">INDIRECT(Calculation!Z24,FALSE)</f>
-        <v>219.24449999999999</v>
+        <v>-67.785500000000013</v>
       </c>
       <c r="U19" s="82">
         <f ca="1">INDIRECT(Calculation!AA24,FALSE)</f>
-        <v>2270.6052</v>
+        <v>2503.4643999999998</v>
       </c>
       <c r="V19" s="63">
         <f ca="1">INDIRECT(Calculation!AB24,FALSE)</f>
-        <v>6233.0571999999993</v>
+        <v>7356.5324000000001</v>
       </c>
       <c r="W19" s="83">
         <f ca="1">INDIRECT(Calculation!AC24,FALSE)</f>
-        <v>-3962.4519999999993</v>
+        <v>-4853.0680000000002</v>
       </c>
       <c r="X19" s="82">
         <f ca="1">INDIRECT(Calculation!AD24,FALSE)</f>
-        <v>4050.567</v>
+        <v>3203.0070000000001</v>
       </c>
       <c r="Y19" s="63">
         <f ca="1">INDIRECT(Calculation!AE24,FALSE)</f>
-        <v>142.88999999999999</v>
+        <v>167.61149999999998</v>
       </c>
       <c r="Z19" s="83">
         <f ca="1">INDIRECT(Calculation!AF24,FALSE)</f>
-        <v>3907.6770000000001</v>
+        <v>3035.3955000000001</v>
       </c>
       <c r="AA19" s="82">
         <f ca="1">INDIRECT(Calculation!AG24,FALSE)</f>
-        <v>222.53250000000003</v>
+        <v>99.600999999999999</v>
       </c>
       <c r="AB19" s="63">
         <f ca="1">INDIRECT(Calculation!AH24,FALSE)</f>
-        <v>252.84900000000002</v>
+        <v>149.4135</v>
       </c>
       <c r="AC19" s="63">
         <f ca="1">INDIRECT(Calculation!AI24,FALSE)</f>
-        <v>-30.316499999999991</v>
+        <v>-49.8125</v>
       </c>
       <c r="AD19" s="41"/>
       <c r="AE19" s="41"/>
@@ -8400,7 +8408,7 @@
       </c>
       <c r="C20" s="84">
         <f ca="1">IF(((C19-C15)/C15)*100&gt;100,"(+)  ",IF(((C19-C15)/C15)*100&lt;-100,"(-)  ",IF(ROUND((((C19-C15)/C15)*100),1)=0,"-  ",((C19-C15)/C15)*100)))</f>
-        <v>-95.076087184939269</v>
+        <v>-96.062635927405879</v>
       </c>
       <c r="D20" s="68" t="str">
         <f ca="1">IF(((D19-D15)/D15)*100&gt;100,"(+)  ",IF(((D19-D15)/D15)*100&lt;-100,"(-)  ",IF(ROUND((((D19-D15)/D15)*100),1)=0,"-  ",((D19-D15)/D15)*100)))</f>
@@ -8412,27 +8420,27 @@
       </c>
       <c r="F20" s="84">
         <f t="shared" ref="F20:AA20" ca="1" si="1">IF(((F19-F15)/F15)*100&gt;100,"(+)  ",IF(((F19-F15)/F15)*100&lt;-100,"(-)  ",IF(ROUND((((F19-F15)/F15)*100),1)=0,"-  ",((F19-F15)/F15)*100)))</f>
-        <v>24.211499550490277</v>
+        <v>34.97985774859233</v>
       </c>
       <c r="G20" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.672134605040331</v>
+        <v>-40.512030324343186</v>
       </c>
       <c r="H20" s="85">
         <f ca="1">IF(((H19-H15)/H15)*100&gt;100,"(+)  ",IF(((H19-H15)/H15)*100&lt;-100,"(-)  ",IF(ROUND((((H19-H15)/H15)*100),1)=0,"-  ",((H19-H15)/H15)*100)))</f>
-        <v>-30.930883128326446</v>
+        <v>-49.431650149364415</v>
       </c>
       <c r="I20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>64.390931665767724</v>
+        <v>-60.571414206675115</v>
       </c>
       <c r="J20" s="68" t="str">
         <f t="shared" ca="1" si="1"/>
         <v xml:space="preserve">(+)  </v>
       </c>
-      <c r="K20" s="85" t="str">
+      <c r="K20" s="85">
         <f ca="1">IF(((K19-K15)/K15)*100&gt;100,"(+)  ",IF(((K19-K15)/K15)*100&lt;-100,"(-)  ",IF(ROUND((((K19-K15)/K15)*100),1)=0,"-  ",((K19-K15)/K15)*100)))</f>
-        <v xml:space="preserve">(-)  </v>
+        <v>-99.845018792090627</v>
       </c>
       <c r="L20" s="84" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8440,7 +8448,7 @@
       </c>
       <c r="M20" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>-77.944227841520927</v>
+        <v>-66.047941404027924</v>
       </c>
       <c r="N20" s="85" t="str">
         <f ca="1">IF(((N19-N15)/N15)*100&gt;100,"(+)  ",IF(((N19-N15)/N15)*100&lt;-100,"(-)  ",IF(ROUND((((N19-N15)/N15)*100),1)=0,"-  ",((N19-N15)/N15)*100)))</f>
@@ -8448,7 +8456,7 @@
       </c>
       <c r="O20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>-69.142567219376559</v>
+        <v>-73.073577554646249</v>
       </c>
       <c r="P20" s="68" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8472,7 +8480,7 @@
       </c>
       <c r="U20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>-67.658987666531232</v>
+        <v>-70.52222316865398</v>
       </c>
       <c r="V20" s="68" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8484,23 +8492,23 @@
       </c>
       <c r="X20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>68.826629527228647</v>
+        <v>44.36624685762964</v>
       </c>
       <c r="Y20" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>-74.584207488489625</v>
-      </c>
-      <c r="Z20" s="85" t="str">
+        <v>-23.253402076961123</v>
+      </c>
+      <c r="Z20" s="85">
         <f ca="1">IF(((Z19-Z15)/Z15)*100&gt;100,"(+)  ",IF(((Z19-Z15)/Z15)*100&lt;-100,"(-)  ",IF(ROUND((((Z19-Z15)/Z15)*100),1)=0,"-  ",((Z19-Z15)/Z15)*100)))</f>
-        <v xml:space="preserve">(+)  </v>
+        <v>51.749175049487029</v>
       </c>
       <c r="AA20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>-57.369783709589825</v>
-      </c>
-      <c r="AB20" s="68" t="str">
+        <v>-80.385260340714055</v>
+      </c>
+      <c r="AB20" s="68">
         <f ca="1">IF(((AB19-AB15)/AB15)*100&gt;100,"(+)  ",IF(((AB19-AB15)/AB15)*100&lt;-100,"(-)  ",IF(ROUND((((AB19-AB15)/AB15)*100),1)=0,"-  ",((AB19-AB15)/AB15)*100)))</f>
-        <v xml:space="preserve">(+)  </v>
+        <v>85.741812372966706</v>
       </c>
       <c r="AC20" s="68" t="s">
         <v>135</v>
@@ -8571,10 +8579,10 @@
       <c r="H23" s="52"/>
       <c r="I23" s="140"/>
       <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="140"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
+      <c r="N23" s="140"/>
       <c r="O23" s="140"/>
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
@@ -8600,7 +8608,7 @@
       <c r="H24" s="52"/>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="140"/>
       <c r="L24" s="53"/>
       <c r="M24" s="53"/>
       <c r="N24" s="52"/>
@@ -8629,7 +8637,7 @@
       <c r="H25" s="52"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="K25" s="52"/>
+      <c r="K25" s="149"/>
       <c r="L25" s="53"/>
       <c r="M25" s="53"/>
       <c r="N25" s="52"/>
@@ -8658,7 +8666,7 @@
       <c r="H26" s="52"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="140"/>
       <c r="L26" s="53"/>
       <c r="M26" s="53"/>
       <c r="N26" s="52"/>
@@ -8687,7 +8695,7 @@
       <c r="H27" s="52"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="K27" s="52"/>
+      <c r="K27" s="140"/>
       <c r="L27" s="53"/>
       <c r="M27" s="53"/>
       <c r="N27" s="52"/>
@@ -9015,9 +9023,7 @@
   </sheetPr>
   <dimension ref="A1:AB213"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:AB30"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9027,7 +9033,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9114,7 +9120,7 @@
       <c r="Y5" s="112"/>
       <c r="Z5" s="70"/>
       <c r="AA5" s="71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AB5" s="111"/>
     </row>
@@ -15713,10 +15719,10 @@
   <dimension ref="A1:AJ228"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W104" sqref="W104"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15734,7 +15740,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -15822,7 +15828,7 @@
       <c r="Z5" s="112"/>
       <c r="AA5" s="70"/>
       <c r="AB5" s="71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AC5" s="111"/>
     </row>
@@ -24668,7 +24674,7 @@
         <v>2022</v>
       </c>
       <c r="B104" s="125" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C104" s="119">
         <v>229.625</v>
@@ -24752,28 +24758,94 @@
         <v>-30.316499999999991</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A105" s="127"/>
-      <c r="B105" s="128"/>
-      <c r="C105" s="126"/>
-      <c r="D105" s="126"/>
-      <c r="E105" s="126"/>
-      <c r="F105" s="126"/>
-      <c r="G105" s="126"/>
-      <c r="H105" s="126"/>
-      <c r="I105" s="101"/>
-      <c r="J105" s="126"/>
-      <c r="K105" s="126"/>
-      <c r="L105" s="126"/>
-      <c r="M105" s="126"/>
-      <c r="N105" s="126"/>
-      <c r="O105" s="126"/>
-      <c r="P105" s="126"/>
-      <c r="Q105" s="126"/>
-      <c r="R105" s="126"/>
-      <c r="S105" s="126"/>
-      <c r="T105" s="126"/>
-      <c r="U105" s="126"/>
+    <row r="105" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="118">
+        <v>2022</v>
+      </c>
+      <c r="B105" s="125" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="119">
+        <v>190.483</v>
+      </c>
+      <c r="D105" s="119">
+        <v>4615.8085000000001</v>
+      </c>
+      <c r="E105" s="119">
+        <v>-4425.3254999999999</v>
+      </c>
+      <c r="F105" s="119">
+        <v>65.0364</v>
+      </c>
+      <c r="G105" s="119">
+        <v>271.25139999999999</v>
+      </c>
+      <c r="H105" s="119">
+        <v>-206.21499999999997</v>
+      </c>
+      <c r="I105" s="148">
+        <v>682.28250000000003</v>
+      </c>
+      <c r="J105" s="119">
+        <v>679.62299999999993</v>
+      </c>
+      <c r="K105" s="119">
+        <v>2.6595000000000084</v>
+      </c>
+      <c r="L105" s="119">
+        <v>301.01550000000003</v>
+      </c>
+      <c r="M105" s="119">
+        <v>122.65299999999999</v>
+      </c>
+      <c r="N105" s="119">
+        <v>178.36250000000001</v>
+      </c>
+      <c r="O105" s="119">
+        <v>494.98250000000002</v>
+      </c>
+      <c r="P105" s="119">
+        <v>829.74649999999997</v>
+      </c>
+      <c r="Q105" s="119">
+        <v>-334.76400000000001</v>
+      </c>
+      <c r="R105" s="119">
+        <v>769.66449999999998</v>
+      </c>
+      <c r="S105" s="119">
+        <v>837.45</v>
+      </c>
+      <c r="T105" s="119">
+        <v>-67.785500000000013</v>
+      </c>
+      <c r="U105" s="119">
+        <v>2503.4643999999998</v>
+      </c>
+      <c r="V105" s="119">
+        <v>7356.5324000000001</v>
+      </c>
+      <c r="W105" s="119">
+        <v>-4853.0680000000002</v>
+      </c>
+      <c r="X105" s="119">
+        <v>3203.0070000000001</v>
+      </c>
+      <c r="Y105" s="119">
+        <v>167.61149999999998</v>
+      </c>
+      <c r="Z105" s="119">
+        <v>3035.3955000000001</v>
+      </c>
+      <c r="AA105" s="119">
+        <v>99.600999999999999</v>
+      </c>
+      <c r="AB105" s="119">
+        <v>149.4135</v>
+      </c>
+      <c r="AC105" s="119">
+        <v>-49.8125</v>
+      </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="127"/>
@@ -27644,96 +27716,96 @@
         <v>2022</v>
       </c>
       <c r="C4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="I6" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="151"/>
+      <c r="X6" s="151"/>
+      <c r="Y6" s="151"/>
+      <c r="Z6" s="151"/>
+      <c r="AA6" s="151"/>
+      <c r="AB6" s="151"/>
+      <c r="AC6" s="151"/>
+      <c r="AD6" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="151"/>
+      <c r="AF6" s="151"/>
+      <c r="AG6" s="151"/>
+      <c r="AH6" s="151"/>
+      <c r="AI6" s="151"/>
+    </row>
+    <row r="7" spans="2:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="I6" s="150" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="150"/>
-      <c r="AA6" s="150"/>
-      <c r="AB6" s="150"/>
-      <c r="AC6" s="150"/>
-      <c r="AD6" s="150" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="150"/>
-      <c r="AF6" s="150"/>
-      <c r="AG6" s="150"/>
-      <c r="AH6" s="150"/>
-      <c r="AI6" s="150"/>
-    </row>
-    <row r="7" spans="2:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I7" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150" t="s">
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150" t="s">
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150" t="s">
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150" t="s">
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="149" t="s">
+      <c r="AB7" s="151"/>
+      <c r="AC7" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="AD7" s="149" t="s">
+      <c r="AD7" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="AE7" s="149" t="s">
+      <c r="AE7" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="AF7" s="149" t="s">
+      <c r="AF7" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="149" t="s">
+      <c r="AG7" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="AH7" s="149" t="s">
+      <c r="AH7" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="AI7" s="149" t="s">
+      <c r="AI7" s="150" t="s">
         <v>22</v>
       </c>
     </row>
@@ -27798,13 +27870,13 @@
       <c r="AB8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="149"/>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="149"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="150"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.2">
       <c r="D9" s="9"/>
@@ -28296,123 +28368,123 @@
       </c>
       <c r="D15" s="18">
         <f>($B$4-1998)*4+$C$4-3</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" ref="F15:F27" si="2">$C$15&amp;"r"&amp;D15&amp;"c"&amp;$F$13</f>
-        <v>Quarter!r95c1</v>
+        <v>Quarter!r96c1</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$15&amp;"c"&amp;G13</f>
-        <v>Quarter!r95c2</v>
+        <v>Quarter!r96c2</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" ref="I15:AI15" si="3">$C$15&amp;"r"&amp;$D$15&amp;"c"&amp;I13</f>
-        <v>Quarter!r95c3</v>
+        <v>Quarter!r96c3</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c4</v>
+        <v>Quarter!r96c4</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c5</v>
+        <v>Quarter!r96c5</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c6</v>
+        <v>Quarter!r96c6</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c7</v>
+        <v>Quarter!r96c7</v>
       </c>
       <c r="N15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c8</v>
+        <v>Quarter!r96c8</v>
       </c>
       <c r="O15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c9</v>
+        <v>Quarter!r96c9</v>
       </c>
       <c r="P15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c10</v>
+        <v>Quarter!r96c10</v>
       </c>
       <c r="Q15" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$15&amp;"c"&amp;Q13</f>
-        <v>Quarter!r95c11</v>
+        <v>Quarter!r96c11</v>
       </c>
       <c r="R15" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$15&amp;"c"&amp;R13</f>
-        <v>Quarter!r95c12</v>
+        <v>Quarter!r96c12</v>
       </c>
       <c r="S15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c13</v>
+        <v>Quarter!r96c13</v>
       </c>
       <c r="T15" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c14</v>
+        <v>Quarter!r96c14</v>
       </c>
       <c r="U15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c15</v>
+        <v>Quarter!r96c15</v>
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c16</v>
+        <v>Quarter!r96c16</v>
       </c>
       <c r="W15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c17</v>
+        <v>Quarter!r96c17</v>
       </c>
       <c r="X15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c18</v>
+        <v>Quarter!r96c18</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c19</v>
+        <v>Quarter!r96c19</v>
       </c>
       <c r="Z15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c20</v>
+        <v>Quarter!r96c20</v>
       </c>
       <c r="AA15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c21</v>
+        <v>Quarter!r96c21</v>
       </c>
       <c r="AB15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c22</v>
+        <v>Quarter!r96c22</v>
       </c>
       <c r="AC15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c23</v>
+        <v>Quarter!r96c23</v>
       </c>
       <c r="AD15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c24</v>
+        <v>Quarter!r96c24</v>
       </c>
       <c r="AE15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c25</v>
+        <v>Quarter!r96c25</v>
       </c>
       <c r="AF15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c26</v>
+        <v>Quarter!r96c26</v>
       </c>
       <c r="AG15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c27</v>
+        <v>Quarter!r96c27</v>
       </c>
       <c r="AH15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c28</v>
+        <v>Quarter!r96c28</v>
       </c>
       <c r="AI15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r95c29</v>
+        <v>Quarter!r96c29</v>
       </c>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.2">
@@ -28420,123 +28492,123 @@
       <c r="C16" s="2"/>
       <c r="D16" s="4">
         <f>D15+1</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r96c1</v>
+        <v>Quarter!r97c1</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$16&amp;"c"&amp;G13</f>
-        <v>Quarter!r96c2</v>
+        <v>Quarter!r97c2</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" ref="I16:AI16" si="4">$C$15&amp;"r"&amp;$D$16&amp;"c"&amp;I13</f>
-        <v>Quarter!r96c3</v>
+        <v>Quarter!r97c3</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c4</v>
+        <v>Quarter!r97c4</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c5</v>
+        <v>Quarter!r97c5</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c6</v>
+        <v>Quarter!r97c6</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c7</v>
+        <v>Quarter!r97c7</v>
       </c>
       <c r="N16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c8</v>
+        <v>Quarter!r97c8</v>
       </c>
       <c r="O16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c9</v>
+        <v>Quarter!r97c9</v>
       </c>
       <c r="P16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c10</v>
+        <v>Quarter!r97c10</v>
       </c>
       <c r="Q16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c11</v>
+        <v>Quarter!r97c11</v>
       </c>
       <c r="R16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c12</v>
+        <v>Quarter!r97c12</v>
       </c>
       <c r="S16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c13</v>
+        <v>Quarter!r97c13</v>
       </c>
       <c r="T16" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c14</v>
+        <v>Quarter!r97c14</v>
       </c>
       <c r="U16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c15</v>
+        <v>Quarter!r97c15</v>
       </c>
       <c r="V16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c16</v>
+        <v>Quarter!r97c16</v>
       </c>
       <c r="W16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c17</v>
+        <v>Quarter!r97c17</v>
       </c>
       <c r="X16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c18</v>
+        <v>Quarter!r97c18</v>
       </c>
       <c r="Y16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c19</v>
+        <v>Quarter!r97c19</v>
       </c>
       <c r="Z16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c20</v>
+        <v>Quarter!r97c20</v>
       </c>
       <c r="AA16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c21</v>
+        <v>Quarter!r97c21</v>
       </c>
       <c r="AB16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c22</v>
+        <v>Quarter!r97c22</v>
       </c>
       <c r="AC16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c23</v>
+        <v>Quarter!r97c23</v>
       </c>
       <c r="AD16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c24</v>
+        <v>Quarter!r97c24</v>
       </c>
       <c r="AE16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c25</v>
+        <v>Quarter!r97c25</v>
       </c>
       <c r="AF16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c26</v>
+        <v>Quarter!r97c26</v>
       </c>
       <c r="AG16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c27</v>
+        <v>Quarter!r97c27</v>
       </c>
       <c r="AH16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c28</v>
+        <v>Quarter!r97c28</v>
       </c>
       <c r="AI16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r96c29</v>
+        <v>Quarter!r97c29</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.2">
@@ -28544,123 +28616,123 @@
       <c r="C17" s="2"/>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D27" si="5">D16+1</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r97c1</v>
+        <v>Quarter!r98c1</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$17&amp;"c"&amp;G13</f>
-        <v>Quarter!r97c2</v>
+        <v>Quarter!r98c2</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" ref="I17:AI17" si="6">$C$15&amp;"r"&amp;$D$17&amp;"c"&amp;I13</f>
-        <v>Quarter!r97c3</v>
+        <v>Quarter!r98c3</v>
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c4</v>
+        <v>Quarter!r98c4</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c5</v>
+        <v>Quarter!r98c5</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c6</v>
+        <v>Quarter!r98c6</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c7</v>
+        <v>Quarter!r98c7</v>
       </c>
       <c r="N17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c8</v>
+        <v>Quarter!r98c8</v>
       </c>
       <c r="O17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c9</v>
+        <v>Quarter!r98c9</v>
       </c>
       <c r="P17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c10</v>
+        <v>Quarter!r98c10</v>
       </c>
       <c r="Q17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c11</v>
+        <v>Quarter!r98c11</v>
       </c>
       <c r="R17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c12</v>
+        <v>Quarter!r98c12</v>
       </c>
       <c r="S17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c13</v>
+        <v>Quarter!r98c13</v>
       </c>
       <c r="T17" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c14</v>
+        <v>Quarter!r98c14</v>
       </c>
       <c r="U17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c15</v>
+        <v>Quarter!r98c15</v>
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c16</v>
+        <v>Quarter!r98c16</v>
       </c>
       <c r="W17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c17</v>
+        <v>Quarter!r98c17</v>
       </c>
       <c r="X17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c18</v>
+        <v>Quarter!r98c18</v>
       </c>
       <c r="Y17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c19</v>
+        <v>Quarter!r98c19</v>
       </c>
       <c r="Z17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c20</v>
+        <v>Quarter!r98c20</v>
       </c>
       <c r="AA17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c21</v>
+        <v>Quarter!r98c21</v>
       </c>
       <c r="AB17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c22</v>
+        <v>Quarter!r98c22</v>
       </c>
       <c r="AC17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c23</v>
+        <v>Quarter!r98c23</v>
       </c>
       <c r="AD17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c24</v>
+        <v>Quarter!r98c24</v>
       </c>
       <c r="AE17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c25</v>
+        <v>Quarter!r98c25</v>
       </c>
       <c r="AF17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c26</v>
+        <v>Quarter!r98c26</v>
       </c>
       <c r="AG17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c27</v>
+        <v>Quarter!r98c27</v>
       </c>
       <c r="AH17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c28</v>
+        <v>Quarter!r98c28</v>
       </c>
       <c r="AI17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r97c29</v>
+        <v>Quarter!r98c29</v>
       </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.2">
@@ -28668,123 +28740,123 @@
       <c r="C18" s="2"/>
       <c r="D18" s="4">
         <f t="shared" si="5"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r98c1</v>
+        <v>Quarter!r99c1</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$18&amp;"c"&amp;G13</f>
-        <v>Quarter!r98c2</v>
+        <v>Quarter!r99c2</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" ref="I18:AI18" si="7">$C$15&amp;"r"&amp;$D$18&amp;"c"&amp;I13</f>
-        <v>Quarter!r98c3</v>
+        <v>Quarter!r99c3</v>
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c4</v>
+        <v>Quarter!r99c4</v>
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c5</v>
+        <v>Quarter!r99c5</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c6</v>
+        <v>Quarter!r99c6</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c7</v>
+        <v>Quarter!r99c7</v>
       </c>
       <c r="N18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c8</v>
+        <v>Quarter!r99c8</v>
       </c>
       <c r="O18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c9</v>
+        <v>Quarter!r99c9</v>
       </c>
       <c r="P18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c10</v>
+        <v>Quarter!r99c10</v>
       </c>
       <c r="Q18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c11</v>
+        <v>Quarter!r99c11</v>
       </c>
       <c r="R18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c12</v>
+        <v>Quarter!r99c12</v>
       </c>
       <c r="S18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c13</v>
+        <v>Quarter!r99c13</v>
       </c>
       <c r="T18" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c14</v>
+        <v>Quarter!r99c14</v>
       </c>
       <c r="U18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c15</v>
+        <v>Quarter!r99c15</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c16</v>
+        <v>Quarter!r99c16</v>
       </c>
       <c r="W18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c17</v>
+        <v>Quarter!r99c17</v>
       </c>
       <c r="X18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c18</v>
+        <v>Quarter!r99c18</v>
       </c>
       <c r="Y18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c19</v>
+        <v>Quarter!r99c19</v>
       </c>
       <c r="Z18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c20</v>
+        <v>Quarter!r99c20</v>
       </c>
       <c r="AA18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c21</v>
+        <v>Quarter!r99c21</v>
       </c>
       <c r="AB18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c22</v>
+        <v>Quarter!r99c22</v>
       </c>
       <c r="AC18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c23</v>
+        <v>Quarter!r99c23</v>
       </c>
       <c r="AD18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c24</v>
+        <v>Quarter!r99c24</v>
       </c>
       <c r="AE18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c25</v>
+        <v>Quarter!r99c25</v>
       </c>
       <c r="AF18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c26</v>
+        <v>Quarter!r99c26</v>
       </c>
       <c r="AG18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c27</v>
+        <v>Quarter!r99c27</v>
       </c>
       <c r="AH18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c28</v>
+        <v>Quarter!r99c28</v>
       </c>
       <c r="AI18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r98c29</v>
+        <v>Quarter!r99c29</v>
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.2">
@@ -28792,123 +28864,123 @@
       <c r="C19" s="2"/>
       <c r="D19" s="4">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r99c1</v>
+        <v>Quarter!r100c1</v>
       </c>
       <c r="G19" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$19&amp;"c"&amp;G13</f>
-        <v>Quarter!r99c2</v>
+        <v>Quarter!r100c2</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" ref="I19:AI19" si="8">$C$15&amp;"r"&amp;$D$19&amp;"c"&amp;I13</f>
-        <v>Quarter!r99c3</v>
+        <v>Quarter!r100c3</v>
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c4</v>
+        <v>Quarter!r100c4</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c5</v>
+        <v>Quarter!r100c5</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c6</v>
+        <v>Quarter!r100c6</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c7</v>
+        <v>Quarter!r100c7</v>
       </c>
       <c r="N19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c8</v>
+        <v>Quarter!r100c8</v>
       </c>
       <c r="O19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c9</v>
+        <v>Quarter!r100c9</v>
       </c>
       <c r="P19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c10</v>
+        <v>Quarter!r100c10</v>
       </c>
       <c r="Q19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c11</v>
+        <v>Quarter!r100c11</v>
       </c>
       <c r="R19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c12</v>
+        <v>Quarter!r100c12</v>
       </c>
       <c r="S19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c13</v>
+        <v>Quarter!r100c13</v>
       </c>
       <c r="T19" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c14</v>
+        <v>Quarter!r100c14</v>
       </c>
       <c r="U19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c15</v>
+        <v>Quarter!r100c15</v>
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c16</v>
+        <v>Quarter!r100c16</v>
       </c>
       <c r="W19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c17</v>
+        <v>Quarter!r100c17</v>
       </c>
       <c r="X19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c18</v>
+        <v>Quarter!r100c18</v>
       </c>
       <c r="Y19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c19</v>
+        <v>Quarter!r100c19</v>
       </c>
       <c r="Z19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c20</v>
+        <v>Quarter!r100c20</v>
       </c>
       <c r="AA19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c21</v>
+        <v>Quarter!r100c21</v>
       </c>
       <c r="AB19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c22</v>
+        <v>Quarter!r100c22</v>
       </c>
       <c r="AC19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c23</v>
+        <v>Quarter!r100c23</v>
       </c>
       <c r="AD19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c24</v>
+        <v>Quarter!r100c24</v>
       </c>
       <c r="AE19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c25</v>
+        <v>Quarter!r100c25</v>
       </c>
       <c r="AF19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c26</v>
+        <v>Quarter!r100c26</v>
       </c>
       <c r="AG19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c27</v>
+        <v>Quarter!r100c27</v>
       </c>
       <c r="AH19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c28</v>
+        <v>Quarter!r100c28</v>
       </c>
       <c r="AI19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r99c29</v>
+        <v>Quarter!r100c29</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.2">
@@ -28916,369 +28988,369 @@
       <c r="C20" s="2"/>
       <c r="D20" s="4">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>$C$15&amp;"r"&amp;D20&amp;"c"&amp;$F$13</f>
-        <v>Quarter!r100c1</v>
+        <v>Quarter!r101c1</v>
       </c>
       <c r="G20" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$20&amp;"c"&amp;G13</f>
-        <v>Quarter!r100c2</v>
+        <v>Quarter!r101c2</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" ref="I20:AI20" si="9">$C$15&amp;"r"&amp;$D$20&amp;"c"&amp;I13</f>
-        <v>Quarter!r100c3</v>
+        <v>Quarter!r101c3</v>
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c4</v>
+        <v>Quarter!r101c4</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c5</v>
+        <v>Quarter!r101c5</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c6</v>
+        <v>Quarter!r101c6</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c7</v>
+        <v>Quarter!r101c7</v>
       </c>
       <c r="N20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c8</v>
+        <v>Quarter!r101c8</v>
       </c>
       <c r="O20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c9</v>
+        <v>Quarter!r101c9</v>
       </c>
       <c r="P20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c10</v>
+        <v>Quarter!r101c10</v>
       </c>
       <c r="Q20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c11</v>
+        <v>Quarter!r101c11</v>
       </c>
       <c r="R20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c12</v>
+        <v>Quarter!r101c12</v>
       </c>
       <c r="S20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c13</v>
+        <v>Quarter!r101c13</v>
       </c>
       <c r="T20" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c14</v>
+        <v>Quarter!r101c14</v>
       </c>
       <c r="U20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c15</v>
+        <v>Quarter!r101c15</v>
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c16</v>
+        <v>Quarter!r101c16</v>
       </c>
       <c r="W20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c17</v>
+        <v>Quarter!r101c17</v>
       </c>
       <c r="X20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c18</v>
+        <v>Quarter!r101c18</v>
       </c>
       <c r="Y20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c19</v>
+        <v>Quarter!r101c19</v>
       </c>
       <c r="Z20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c20</v>
+        <v>Quarter!r101c20</v>
       </c>
       <c r="AA20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c21</v>
+        <v>Quarter!r101c21</v>
       </c>
       <c r="AB20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c22</v>
+        <v>Quarter!r101c22</v>
       </c>
       <c r="AC20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c23</v>
+        <v>Quarter!r101c23</v>
       </c>
       <c r="AD20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c24</v>
+        <v>Quarter!r101c24</v>
       </c>
       <c r="AE20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c25</v>
+        <v>Quarter!r101c25</v>
       </c>
       <c r="AF20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c26</v>
+        <v>Quarter!r101c26</v>
       </c>
       <c r="AG20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c27</v>
+        <v>Quarter!r101c27</v>
       </c>
       <c r="AH20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c28</v>
+        <v>Quarter!r101c28</v>
       </c>
       <c r="AI20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r100c29</v>
+        <v>Quarter!r101c29</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="D21" s="4">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r101c1</v>
+        <v>Quarter!r102c1</v>
       </c>
       <c r="G21" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$21&amp;"c"&amp;G13</f>
-        <v>Quarter!r101c2</v>
+        <v>Quarter!r102c2</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" ref="I21:AI21" si="10">$C$15&amp;"r"&amp;$D$21&amp;"c"&amp;I13</f>
-        <v>Quarter!r101c3</v>
+        <v>Quarter!r102c3</v>
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c4</v>
+        <v>Quarter!r102c4</v>
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c5</v>
+        <v>Quarter!r102c5</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c6</v>
+        <v>Quarter!r102c6</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c7</v>
+        <v>Quarter!r102c7</v>
       </c>
       <c r="N21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c8</v>
+        <v>Quarter!r102c8</v>
       </c>
       <c r="O21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c9</v>
+        <v>Quarter!r102c9</v>
       </c>
       <c r="P21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c10</v>
+        <v>Quarter!r102c10</v>
       </c>
       <c r="Q21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c11</v>
+        <v>Quarter!r102c11</v>
       </c>
       <c r="R21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c12</v>
+        <v>Quarter!r102c12</v>
       </c>
       <c r="S21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c13</v>
+        <v>Quarter!r102c13</v>
       </c>
       <c r="T21" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c14</v>
+        <v>Quarter!r102c14</v>
       </c>
       <c r="U21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c15</v>
+        <v>Quarter!r102c15</v>
       </c>
       <c r="V21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c16</v>
+        <v>Quarter!r102c16</v>
       </c>
       <c r="W21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c17</v>
+        <v>Quarter!r102c17</v>
       </c>
       <c r="X21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c18</v>
+        <v>Quarter!r102c18</v>
       </c>
       <c r="Y21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c19</v>
+        <v>Quarter!r102c19</v>
       </c>
       <c r="Z21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c20</v>
+        <v>Quarter!r102c20</v>
       </c>
       <c r="AA21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c21</v>
+        <v>Quarter!r102c21</v>
       </c>
       <c r="AB21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c22</v>
+        <v>Quarter!r102c22</v>
       </c>
       <c r="AC21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c23</v>
+        <v>Quarter!r102c23</v>
       </c>
       <c r="AD21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c24</v>
+        <v>Quarter!r102c24</v>
       </c>
       <c r="AE21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c25</v>
+        <v>Quarter!r102c25</v>
       </c>
       <c r="AF21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c26</v>
+        <v>Quarter!r102c26</v>
       </c>
       <c r="AG21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c27</v>
+        <v>Quarter!r102c27</v>
       </c>
       <c r="AH21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c28</v>
+        <v>Quarter!r102c28</v>
       </c>
       <c r="AI21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r101c29</v>
+        <v>Quarter!r102c29</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="D22" s="4">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r102c1</v>
+        <v>Quarter!r103c1</v>
       </c>
       <c r="G22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;G13</f>
-        <v>Quarter!r102c2</v>
+        <v>Quarter!r103c2</v>
       </c>
       <c r="I22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;I13</f>
-        <v>Quarter!r102c3</v>
+        <v>Quarter!r103c3</v>
       </c>
       <c r="J22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;J13</f>
-        <v>Quarter!r102c4</v>
+        <v>Quarter!r103c4</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" ref="K22:AI22" si="11">$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;K13</f>
-        <v>Quarter!r102c5</v>
+        <v>Quarter!r103c5</v>
       </c>
       <c r="L22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;L13</f>
-        <v>Quarter!r102c6</v>
+        <v>Quarter!r103c6</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c7</v>
+        <v>Quarter!r103c7</v>
       </c>
       <c r="N22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;N13</f>
-        <v>Quarter!r102c8</v>
+        <v>Quarter!r103c8</v>
       </c>
       <c r="O22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c9</v>
+        <v>Quarter!r103c9</v>
       </c>
       <c r="P22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;P13</f>
-        <v>Quarter!r102c10</v>
+        <v>Quarter!r103c10</v>
       </c>
       <c r="Q22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;Q13</f>
-        <v>Quarter!r102c11</v>
+        <v>Quarter!r103c11</v>
       </c>
       <c r="R22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;R13</f>
-        <v>Quarter!r102c12</v>
+        <v>Quarter!r103c12</v>
       </c>
       <c r="S22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;S13</f>
-        <v>Quarter!r102c13</v>
+        <v>Quarter!r103c13</v>
       </c>
       <c r="T22" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c14</v>
+        <v>Quarter!r103c14</v>
       </c>
       <c r="U22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c15</v>
+        <v>Quarter!r103c15</v>
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c16</v>
+        <v>Quarter!r103c16</v>
       </c>
       <c r="W22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c17</v>
+        <v>Quarter!r103c17</v>
       </c>
       <c r="X22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c18</v>
+        <v>Quarter!r103c18</v>
       </c>
       <c r="Y22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c19</v>
+        <v>Quarter!r103c19</v>
       </c>
       <c r="Z22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c20</v>
+        <v>Quarter!r103c20</v>
       </c>
       <c r="AA22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c21</v>
+        <v>Quarter!r103c21</v>
       </c>
       <c r="AB22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c22</v>
+        <v>Quarter!r103c22</v>
       </c>
       <c r="AC22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c23</v>
+        <v>Quarter!r103c23</v>
       </c>
       <c r="AD22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c24</v>
+        <v>Quarter!r103c24</v>
       </c>
       <c r="AE22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c25</v>
+        <v>Quarter!r103c25</v>
       </c>
       <c r="AF22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c26</v>
+        <v>Quarter!r103c26</v>
       </c>
       <c r="AG22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c27</v>
+        <v>Quarter!r103c27</v>
       </c>
       <c r="AH22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c28</v>
+        <v>Quarter!r103c28</v>
       </c>
       <c r="AI22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r102c29</v>
+        <v>Quarter!r103c29</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.2">
@@ -29286,123 +29358,123 @@
       <c r="C23" s="2"/>
       <c r="D23" s="4">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r103c1</v>
+        <v>Quarter!r104c1</v>
       </c>
       <c r="G23" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$23&amp;"c"&amp;G13</f>
-        <v>Quarter!r103c2</v>
+        <v>Quarter!r104c2</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" ref="I23:AI23" si="12">$C$15&amp;"r"&amp;$D$23&amp;"c"&amp;I13</f>
-        <v>Quarter!r103c3</v>
+        <v>Quarter!r104c3</v>
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c4</v>
+        <v>Quarter!r104c4</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c5</v>
+        <v>Quarter!r104c5</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c6</v>
+        <v>Quarter!r104c6</v>
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c7</v>
+        <v>Quarter!r104c7</v>
       </c>
       <c r="N23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c8</v>
+        <v>Quarter!r104c8</v>
       </c>
       <c r="O23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c9</v>
+        <v>Quarter!r104c9</v>
       </c>
       <c r="P23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c10</v>
+        <v>Quarter!r104c10</v>
       </c>
       <c r="Q23" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$23&amp;"c"&amp;Q13</f>
-        <v>Quarter!r103c11</v>
+        <v>Quarter!r104c11</v>
       </c>
       <c r="R23" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$23&amp;"c"&amp;R13</f>
-        <v>Quarter!r103c12</v>
+        <v>Quarter!r104c12</v>
       </c>
       <c r="S23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c13</v>
+        <v>Quarter!r104c13</v>
       </c>
       <c r="T23" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c14</v>
+        <v>Quarter!r104c14</v>
       </c>
       <c r="U23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c15</v>
+        <v>Quarter!r104c15</v>
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c16</v>
+        <v>Quarter!r104c16</v>
       </c>
       <c r="W23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c17</v>
+        <v>Quarter!r104c17</v>
       </c>
       <c r="X23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c18</v>
+        <v>Quarter!r104c18</v>
       </c>
       <c r="Y23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c19</v>
+        <v>Quarter!r104c19</v>
       </c>
       <c r="Z23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c20</v>
+        <v>Quarter!r104c20</v>
       </c>
       <c r="AA23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c21</v>
+        <v>Quarter!r104c21</v>
       </c>
       <c r="AB23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c22</v>
+        <v>Quarter!r104c22</v>
       </c>
       <c r="AC23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c23</v>
+        <v>Quarter!r104c23</v>
       </c>
       <c r="AD23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c24</v>
+        <v>Quarter!r104c24</v>
       </c>
       <c r="AE23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c25</v>
+        <v>Quarter!r104c25</v>
       </c>
       <c r="AF23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c26</v>
+        <v>Quarter!r104c26</v>
       </c>
       <c r="AG23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c27</v>
+        <v>Quarter!r104c27</v>
       </c>
       <c r="AH23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c28</v>
+        <v>Quarter!r104c28</v>
       </c>
       <c r="AI23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r103c29</v>
+        <v>Quarter!r104c29</v>
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.2">
@@ -29410,123 +29482,123 @@
       <c r="C24" s="2"/>
       <c r="D24" s="4">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r104c1</v>
+        <v>Quarter!r105c1</v>
       </c>
       <c r="G24" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;G14</f>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="I24" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;I14</f>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" ref="J24:AI27" si="13">$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;J13</f>
-        <v>Quarter!r104c4</v>
+        <v>Quarter!r105c4</v>
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c5</v>
+        <v>Quarter!r105c5</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c6</v>
+        <v>Quarter!r105c6</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c7</v>
+        <v>Quarter!r105c7</v>
       </c>
       <c r="N24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c8</v>
+        <v>Quarter!r105c8</v>
       </c>
       <c r="O24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c9</v>
+        <v>Quarter!r105c9</v>
       </c>
       <c r="P24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c10</v>
+        <v>Quarter!r105c10</v>
       </c>
       <c r="Q24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c11</v>
+        <v>Quarter!r105c11</v>
       </c>
       <c r="R24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c12</v>
+        <v>Quarter!r105c12</v>
       </c>
       <c r="S24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c13</v>
+        <v>Quarter!r105c13</v>
       </c>
       <c r="T24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c14</v>
+        <v>Quarter!r105c14</v>
       </c>
       <c r="U24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c15</v>
+        <v>Quarter!r105c15</v>
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c16</v>
+        <v>Quarter!r105c16</v>
       </c>
       <c r="W24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c17</v>
+        <v>Quarter!r105c17</v>
       </c>
       <c r="X24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c18</v>
+        <v>Quarter!r105c18</v>
       </c>
       <c r="Y24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c19</v>
+        <v>Quarter!r105c19</v>
       </c>
       <c r="Z24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c20</v>
+        <v>Quarter!r105c20</v>
       </c>
       <c r="AA24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c21</v>
+        <v>Quarter!r105c21</v>
       </c>
       <c r="AB24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c22</v>
+        <v>Quarter!r105c22</v>
       </c>
       <c r="AC24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c23</v>
+        <v>Quarter!r105c23</v>
       </c>
       <c r="AD24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c24</v>
+        <v>Quarter!r105c24</v>
       </c>
       <c r="AE24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c25</v>
+        <v>Quarter!r105c25</v>
       </c>
       <c r="AF24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c26</v>
+        <v>Quarter!r105c26</v>
       </c>
       <c r="AG24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c27</v>
+        <v>Quarter!r105c27</v>
       </c>
       <c r="AH24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c28</v>
+        <v>Quarter!r105c28</v>
       </c>
       <c r="AI24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c29</v>
+        <v>Quarter!r105c29</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
@@ -29534,123 +29606,123 @@
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r105c1</v>
+        <v>Quarter!r106c1</v>
       </c>
       <c r="G25" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;G15</f>
-        <v>Quarter!r104cQuarter!r95c2</v>
+        <v>Quarter!r105cQuarter!r96c2</v>
       </c>
       <c r="I25" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;I15</f>
-        <v>Quarter!r104cQuarter!r95c3</v>
+        <v>Quarter!r105cQuarter!r96c3</v>
       </c>
       <c r="J25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="N25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="O25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="P25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="Q25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="R25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="S25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="T25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="U25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="W25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="X25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="Y25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="Z25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AA25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AB25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AC25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AD25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AE25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AF25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AG25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AH25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
       <c r="AI25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104c</v>
+        <v>Quarter!r105c</v>
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
@@ -29658,123 +29730,123 @@
       <c r="C26" s="2"/>
       <c r="D26" s="4">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r106c1</v>
+        <v>Quarter!r107c1</v>
       </c>
       <c r="G26" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;G16</f>
-        <v>Quarter!r104cQuarter!r96c2</v>
+        <v>Quarter!r105cQuarter!r97c2</v>
       </c>
       <c r="I26" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;I16</f>
-        <v>Quarter!r104cQuarter!r96c3</v>
+        <v>Quarter!r105cQuarter!r97c3</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c4</v>
+        <v>Quarter!r105cQuarter!r96c4</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c5</v>
+        <v>Quarter!r105cQuarter!r96c5</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c6</v>
+        <v>Quarter!r105cQuarter!r96c6</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c7</v>
+        <v>Quarter!r105cQuarter!r96c7</v>
       </c>
       <c r="N26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c8</v>
+        <v>Quarter!r105cQuarter!r96c8</v>
       </c>
       <c r="O26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c9</v>
+        <v>Quarter!r105cQuarter!r96c9</v>
       </c>
       <c r="P26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c10</v>
+        <v>Quarter!r105cQuarter!r96c10</v>
       </c>
       <c r="Q26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c11</v>
+        <v>Quarter!r105cQuarter!r96c11</v>
       </c>
       <c r="R26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c12</v>
+        <v>Quarter!r105cQuarter!r96c12</v>
       </c>
       <c r="S26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c13</v>
+        <v>Quarter!r105cQuarter!r96c13</v>
       </c>
       <c r="T26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c14</v>
+        <v>Quarter!r105cQuarter!r96c14</v>
       </c>
       <c r="U26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c15</v>
+        <v>Quarter!r105cQuarter!r96c15</v>
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c16</v>
+        <v>Quarter!r105cQuarter!r96c16</v>
       </c>
       <c r="W26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c17</v>
+        <v>Quarter!r105cQuarter!r96c17</v>
       </c>
       <c r="X26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c18</v>
+        <v>Quarter!r105cQuarter!r96c18</v>
       </c>
       <c r="Y26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c19</v>
+        <v>Quarter!r105cQuarter!r96c19</v>
       </c>
       <c r="Z26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c20</v>
+        <v>Quarter!r105cQuarter!r96c20</v>
       </c>
       <c r="AA26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c21</v>
+        <v>Quarter!r105cQuarter!r96c21</v>
       </c>
       <c r="AB26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c22</v>
+        <v>Quarter!r105cQuarter!r96c22</v>
       </c>
       <c r="AC26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c23</v>
+        <v>Quarter!r105cQuarter!r96c23</v>
       </c>
       <c r="AD26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c24</v>
+        <v>Quarter!r105cQuarter!r96c24</v>
       </c>
       <c r="AE26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c25</v>
+        <v>Quarter!r105cQuarter!r96c25</v>
       </c>
       <c r="AF26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c26</v>
+        <v>Quarter!r105cQuarter!r96c26</v>
       </c>
       <c r="AG26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c27</v>
+        <v>Quarter!r105cQuarter!r96c27</v>
       </c>
       <c r="AH26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c28</v>
+        <v>Quarter!r105cQuarter!r96c28</v>
       </c>
       <c r="AI26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r95c29</v>
+        <v>Quarter!r105cQuarter!r96c29</v>
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.2">
@@ -29782,123 +29854,123 @@
       <c r="C27" s="2"/>
       <c r="D27" s="4">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r107c1</v>
+        <v>Quarter!r108c1</v>
       </c>
       <c r="G27" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;G17</f>
-        <v>Quarter!r104cQuarter!r97c2</v>
+        <v>Quarter!r105cQuarter!r98c2</v>
       </c>
       <c r="I27" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;I17</f>
-        <v>Quarter!r104cQuarter!r97c3</v>
+        <v>Quarter!r105cQuarter!r98c3</v>
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c4</v>
+        <v>Quarter!r105cQuarter!r97c4</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c5</v>
+        <v>Quarter!r105cQuarter!r97c5</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c6</v>
+        <v>Quarter!r105cQuarter!r97c6</v>
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c7</v>
+        <v>Quarter!r105cQuarter!r97c7</v>
       </c>
       <c r="N27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c8</v>
+        <v>Quarter!r105cQuarter!r97c8</v>
       </c>
       <c r="O27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c9</v>
+        <v>Quarter!r105cQuarter!r97c9</v>
       </c>
       <c r="P27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c10</v>
+        <v>Quarter!r105cQuarter!r97c10</v>
       </c>
       <c r="Q27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c11</v>
+        <v>Quarter!r105cQuarter!r97c11</v>
       </c>
       <c r="R27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c12</v>
+        <v>Quarter!r105cQuarter!r97c12</v>
       </c>
       <c r="S27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c13</v>
+        <v>Quarter!r105cQuarter!r97c13</v>
       </c>
       <c r="T27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c14</v>
+        <v>Quarter!r105cQuarter!r97c14</v>
       </c>
       <c r="U27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c15</v>
+        <v>Quarter!r105cQuarter!r97c15</v>
       </c>
       <c r="V27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c16</v>
+        <v>Quarter!r105cQuarter!r97c16</v>
       </c>
       <c r="W27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c17</v>
+        <v>Quarter!r105cQuarter!r97c17</v>
       </c>
       <c r="X27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c18</v>
+        <v>Quarter!r105cQuarter!r97c18</v>
       </c>
       <c r="Y27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c19</v>
+        <v>Quarter!r105cQuarter!r97c19</v>
       </c>
       <c r="Z27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c20</v>
+        <v>Quarter!r105cQuarter!r97c20</v>
       </c>
       <c r="AA27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c21</v>
+        <v>Quarter!r105cQuarter!r97c21</v>
       </c>
       <c r="AB27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c22</v>
+        <v>Quarter!r105cQuarter!r97c22</v>
       </c>
       <c r="AC27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c23</v>
+        <v>Quarter!r105cQuarter!r97c23</v>
       </c>
       <c r="AD27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c24</v>
+        <v>Quarter!r105cQuarter!r97c24</v>
       </c>
       <c r="AE27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c25</v>
+        <v>Quarter!r105cQuarter!r97c25</v>
       </c>
       <c r="AF27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c26</v>
+        <v>Quarter!r105cQuarter!r97c26</v>
       </c>
       <c r="AG27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c27</v>
+        <v>Quarter!r105cQuarter!r97c27</v>
       </c>
       <c r="AH27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c28</v>
+        <v>Quarter!r105cQuarter!r97c28</v>
       </c>
       <c r="AI27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r104cQuarter!r96c29</v>
+        <v>Quarter!r105cQuarter!r97c29</v>
       </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.2">

--- a/Data Sources/Imports Exports/ET_5.6.xlsx
+++ b/Data Sources/Imports Exports/ET_5.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Statistics\Publications\Energy Trends\Tables\Electricity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B0D94-1A93-474D-8F76-7DC9839264F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126670F7-9CD6-47FC-AFFB-6FA16AE32FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="18465" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="9" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="161">
   <si>
     <t>France-UK</t>
   </si>
@@ -446,10 +446,6 @@
     <t>This row refers to the percentage change between the most recent quarter and the same quarter a year earlier; the symbol '(+)' represents a positive percentage change greater than 100%.</t>
   </si>
   <si>
-    <t xml:space="preserve">This spreadsheet forms part of the National Statistics publication Energy Trends produced by the Department for Business, Energy and Industrial Strategy (BEIS). 
-The data presented is on UK imports, exports and transfers of electricity; monthly data are published a quarter in arrears in GWh. </t>
-  </si>
-  <si>
     <t>Imports 
 (France to UK) [note 2]</t>
   </si>
@@ -531,23 +527,17 @@
     <t>The data for France is the sum of imports, exports and net imports across the three interconnectors with France. IFA2 interconnector became operational in quarter 1 2021 and ElecLink in Q2 2022.</t>
   </si>
   <si>
-    <t>Quarter 3 [provisional]</t>
-  </si>
-  <si>
-    <t>Continued high exports in Quarter 3 made the UK a net exporter of electricity for the second successive quarter</t>
-  </si>
-  <si>
     <t>Net exports from the UK to France, Belgium and Norway with low net imports for other interconnectors</t>
   </si>
   <si>
-    <t>Between Quarter 3 2021 and 2022, net electricity transfers from Scotland to England increased by 52 per cent to 3.0 TWh. This is linked to higher output from wind generation compared to Quarter 3 2021, as Scotland has a high proportion of the UK’s wind generation capacity.  Meanwhile, net electricity transfers from Scotland to Northern Ireland decreased to -0.05 TWh.</t>
+    <t>Quarter 4 [provisional]</t>
   </si>
   <si>
-    <t xml:space="preserve">The UK continued to be a net exporter to France and Belgium in Quarter 3 2022 for the second successive quarter, while in Quarter 3 2022 the UK was also a net exporter to Norway for the first time since the interconnector came into operation. Exports to France were 4.6 TWh in Quarter 3 2022, four hundred times higher than the same period a year ago and the fourth successive quarter of unusually high exports. At the same time, imports from France fell by 96 per cent to 0.2 TWh. This considerable rise in net exports to France comes from the continued reduction in French electricity production from nuclear outages, resulting in less electricity available in France to export to the UK and a greater demand for imports. French interconnector capacity also remained restricted, as the IFA interconnector continued operating at half capacity (1 GW). 
-The UK was also a net exporter of electricity to Belgium and Norway in Quarter 3 2022.  The rise in exports may reflect lower availability of electricity in European markets as a result of France’s lower nuclear production. The interconnector between Ireland and Northern Ireland also continued to be a net exporter, with net exports of 0.2 TWh in Quarter 3 2022. The UK’s other interconnectors had relatively low levels of net imports during Quarter 3 2022. The interconnector with the Netherlands had negligible net imports while net imports from Ireland to Wales totalled 0.2 TWh over the same time period, in contrast to the net exports of 0.3 TWh in Quarter 3 2021.  </t>
+    <t xml:space="preserve">This spreadsheet forms part of the National Statistics publication Energy Trends produced by the Department for Energy Security &amp; Net Zero (DESNZ). 
+The data presented is on UK imports, exports and transfers of electricity; monthly data are published a quarter in arrears in GWh. </t>
   </si>
   <si>
-    <t xml:space="preserve">The UK was a net exporter of electricity in Quarter 3 2022 for the second successive quarter. Net exports were 4.9 TWh, the largest value on the published data series as exports reached 7.4 TWh, seven times higher than in Quarter 3 2021 and above the previous record in Quarter 2 2022.  Imports were 2.5 TWh in Quarter 3 2022, 70 per cent lower than the same period the previous year.  The continuing high levels of exports are a result of increased demand in France due to reduced nuclear output there. </t>
+    <t>In the latest year</t>
   </si>
   <si>
     <r>
@@ -562,7 +552,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday 22nd December 2022</t>
+      <t>Thursday 30th March 2023</t>
     </r>
     <r>
       <rPr>
@@ -584,7 +574,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday 30th March 2023</t>
+      <t>Thursday 29th June 2023</t>
     </r>
   </si>
   <si>
@@ -600,7 +590,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>new data for quarter 3 2022</t>
+      <t>new data for quarter 4 2022</t>
     </r>
     <r>
       <rPr>
@@ -610,7 +600,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (July to September)</t>
+      <t xml:space="preserve"> (October to December)</t>
     </r>
   </si>
   <si>
@@ -626,7 +616,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>for quarters 1 and 2 2022 (January to June)</t>
+      <t>for all of 2021 and 2022</t>
     </r>
     <r>
       <rPr>
@@ -641,7 +631,35 @@
     </r>
   </si>
   <si>
-    <t>Transfers between Scotland and England doubled whilst transfers between Scotland and Northern Ireland decreased</t>
+    <t>Net electricity exports for the first time in more than forty years, with record exports to France</t>
+  </si>
+  <si>
+    <t>Increased transfers from Scotland to England because of higher renewable generation</t>
+  </si>
+  <si>
+    <t>Continued high exports in Quarter 4 made the UK a net exporter of electricity for the third successive quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UK was a net exporter of electricity in Quarter 4 2022 for the third successive quarter, but with a lower net export value of 1.5 TWh. Exports were 5.8 TWh TWh, three times higher than in Quarter 4 2021 but lower than the record exports in Quarter 3 2022.  Imports were 4.1 TWh in Quarter 4 2022, 34 per cent lower than the same period the previous year.  The continuing high levels of exports are a result of increased demand in France due to reduced nuclear output there. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UK continued to be a net exporter to France and Belgium in Quarter 4 2022 for the third successive quarter, as well as being a net exporter to Ireland. Exports to France were 3.5 TWh in Quarter 3 2022, three higher than the same period a year ago and the fifth successive quarter of unusually high exports. At the same time, imports from France fell by 21 per cent to 1.0 TWh. This considerable rise in net exports to France comes from the continued reduction in French electricity production from nuclear outages, resulting in less electricity available in France to export to the UK and a greater demand for imports. 
+ The UK’s other interconnectors had relatively low levels of net imports during Quarter 4 2022. The interconnector with the Netherlands had net imports of 0.1 TWh while net imports from Ireland to Wales totalled 0.2 TWh over the same time period. Quarter 4 2022 also marked a year since the start of operations for the interconnector with Norway, which had net imports of 0.9 TWh in Quarter 4 2022, 34 per cent lower than the same period in 2021.  </t>
+  </si>
+  <si>
+    <t>Higher net transfers from Scotland to England but lower transfers to Northern Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between Quarter 4 2021 and 2022, net electricity transfers from Scotland to England increased by 2 per cent to 6.2 TWh. This is linked to higher output from wind generation compared to Quarter 4 2021, as Scotland has a high proportion of the UK’s wind generation capacity.  Meanwhile, net electricity transfers from Scotland to Northern Ireland decreased to -0.1 TWh, with a 23 per cent increase in transfers from Northern Ireland to Scotland. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2022, the UK was a net exporter of electricity for the first time in more than forty years, with net exports of a record 5.3 TWh. This is in contrast to 2021 where the UK had record net electricity imports of 24.6 TWh. Electricity imports fell by 46 per cent to 15.5 TWh, while electricity exports were five times higher than in 2021 at 20.8 TWh. The substantial rise in electricity exports was driven by increased demand in France as a result of nuclear outages there. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net electricity transfers from Scotland to England increased by 25 per cent between 2021 and 2022, with transfers from Scotland to England increasing by 21 per cent, while transfers from England to Scotland fell by 50 per cent. A higher proportion of Scotland's capacity comes from renewable generation than the rest of the UK, particularly generation from wind and this increased substantially in 2022. </t>
+  </si>
+  <si>
+    <t>The UK was a net exporter of electricity to France during 2022 for the first time on the published data series and continued to be a net exporter to the Republic of Ireland (ROI). The other interconnectors were net importers of electricity.  Net electricity exports to France were 10.0 TWh, with imports down 82 per cent to 2.7 TWh and exports of 12.8 TWh, more than 8 times higher than in 2021.  Net electricity imports through the UK-Belgium interconnector fell by 90 per cent to 0.7 TWh while net imports between the UK and the Netherlands fell by 66 per cent to 1.5 TWh. These decreases likely reflect a reduction in electricity generation in Europe as a result of the nuclear outages in France. 2022 also saw the first full year of operation for the 1.4 GW North-Sea Link interconnector between the UK and Norway, which had net imports of 2.8 TWh across the year.</t>
   </si>
 </sst>
 </file>
@@ -664,7 +682,7 @@
     <numFmt numFmtId="175" formatCode="\+0.0;\-0.0;0.0"/>
     <numFmt numFmtId="176" formatCode="#,##0.0\ ;\-#,##0.0\ ;&quot;[x]&quot;\ "/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,14 +929,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
@@ -1127,7 +1137,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -1439,14 +1449,8 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="8" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="14" applyFill="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="14" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
@@ -1456,6 +1460,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3727,7 +3737,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3936,7 +3946,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6C3CE0AC-85E0-4107-9564-C4EE282D1A0C}" name="Table5.6_imports_exports_and_transfers_of_electricity_1998_to_2020_GWh" displayName="Table5.6_imports_exports_and_transfers_of_electricity_1998_to_2020_GWh" ref="A6:AB30" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6C3CE0AC-85E0-4107-9564-C4EE282D1A0C}" name="Table5.6_imports_exports_and_transfers_of_electricity_1998_to_2020_GWh" displayName="Table5.6_imports_exports_and_transfers_of_electricity_1998_to_2020_GWh" ref="A6:AB31" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62">
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{93ED49C0-43E7-4599-8B6F-CCA29458F6D1}" name="Year" dataDxfId="60"/>
     <tableColumn id="2" xr3:uid="{97722B9A-51FC-4366-8C87-355C32E272D7}" name="Imports _x000a_(France to UK) [note 2]" dataDxfId="59"/>
@@ -3972,8 +3982,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD9E6058-927B-4BAC-8484-800365389141}" name="Table5.6_imports_exports_and_transfers_of_electricity_quarter_1_1998_to_quarter_2_2021_GWh" displayName="Table5.6_imports_exports_and_transfers_of_electricity_quarter_1_1998_to_quarter_2_2021_GWh" ref="A6:AC105" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
-  <autoFilter ref="A6:AC105" xr:uid="{AD9E6058-927B-4BAC-8484-800365389141}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD9E6058-927B-4BAC-8484-800365389141}" name="Table5.6_imports_exports_and_transfers_of_electricity_quarter_1_1998_to_quarter_2_2021_GWh" displayName="Table5.6_imports_exports_and_transfers_of_electricity_quarter_1_1998_to_quarter_2_2021_GWh" ref="A6:AC106" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
+  <autoFilter ref="A6:AC106" xr:uid="{AD9E6058-927B-4BAC-8484-800365389141}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4632,9 +4642,9 @@
       <c r="IV1" s="21"/>
       <c r="IW1" s="21"/>
     </row>
-    <row r="2" spans="1:257" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:257" s="22" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:257" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4900,7 +4910,7 @@
     </row>
     <row r="4" spans="1:257" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:257" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5166,7 +5176,7 @@
     </row>
     <row r="6" spans="1:257" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:257" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5432,7 +5442,7 @@
     </row>
     <row r="8" spans="1:257" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:257" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5997,8 +6007,8 @@
       <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:257" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="147" t="s">
-        <v>142</v>
+      <c r="A18" s="145" t="s">
+        <v>141</v>
       </c>
       <c r="E18" s="34"/>
     </row>
@@ -6292,8 +6302,8 @@
       </c>
     </row>
     <row r="23" spans="1:257" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="146" t="s">
-        <v>141</v>
+      <c r="A23" s="144" t="s">
+        <v>140</v>
       </c>
       <c r="B23" s="37"/>
     </row>
@@ -6413,7 +6423,7 @@
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>66</v>
@@ -6490,7 +6500,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6506,7 +6516,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6536,7 +6546,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4264606-DE84-4E1F-832B-FB3B95BF51EB}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6552,37 +6562,67 @@
     </row>
     <row r="2" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="143" t="s">
+      <c r="A3" s="148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="149" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="149" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="148" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="149" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
-        <v>148</v>
+    <row r="11" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="149" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="149" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6599,8 +6639,8 @@
   <dimension ref="A1:AS40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -6708,7 +6748,7 @@
       <c r="Z6" s="93"/>
       <c r="AA6" s="70"/>
       <c r="AB6" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC6" s="73"/>
     </row>
@@ -6804,118 +6844,118 @@
     <row r="8" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <f ca="1">INDIRECT(Calculation!F11,FALSE)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="82">
         <f ca="1">INDIRECT(Calculation!I11,FALSE)</f>
-        <v>10412.014499999999</v>
+        <v>15152.031000000001</v>
       </c>
       <c r="D8" s="63">
         <f ca="1">INDIRECT(Calculation!J11,FALSE)</f>
-        <v>1679.7215000000001</v>
+        <v>1478.4314999999999</v>
       </c>
       <c r="E8" s="83">
         <f ca="1">INDIRECT(Calculation!K11,FALSE)</f>
-        <v>8732.2929999999997</v>
+        <v>13673.5995</v>
       </c>
       <c r="F8" s="82">
         <f ca="1">INDIRECT(Calculation!L11,FALSE)</f>
-        <v>321.21439999999996</v>
+        <v>324.6456</v>
       </c>
       <c r="G8" s="63">
         <f ca="1">INDIRECT(Calculation!M11,FALSE)</f>
-        <v>1074.0260000000001</v>
+        <v>1417.0004999999999</v>
       </c>
       <c r="H8" s="83">
         <f ca="1">INDIRECT(Calculation!N11,FALSE)</f>
-        <v>-752.81169999999997</v>
+        <v>-1092.3549</v>
       </c>
       <c r="I8" s="82">
         <f ca="1">INDIRECT(Calculation!O11,FALSE)</f>
-        <v>4673.67</v>
+        <v>4340.6064999999999</v>
       </c>
       <c r="J8" s="63">
         <f ca="1">INDIRECT(Calculation!P11,FALSE)</f>
-        <v>547.06700000000001</v>
+        <v>77.294499999999999</v>
       </c>
       <c r="K8" s="83">
         <f ca="1">INDIRECT(Calculation!Q11,FALSE)</f>
-        <v>4126.6030000000001</v>
+        <v>4263.3119999999999</v>
       </c>
       <c r="L8" s="82">
         <f ca="1">INDIRECT(Calculation!R11,FALSE)</f>
-        <v>1599.8040000000001</v>
+        <v>537.69749999999999</v>
       </c>
       <c r="M8" s="63">
         <f ca="1">INDIRECT(Calculation!S11,FALSE)</f>
-        <v>688.83349999999996</v>
+        <v>1034.9150000000002</v>
       </c>
       <c r="N8" s="83">
         <f ca="1">INDIRECT(Calculation!T11,FALSE)</f>
-        <v>910.97050000000013</v>
+        <v>-497.21749999999997</v>
       </c>
       <c r="O8" s="82">
         <f ca="1">INDIRECT(Calculation!U11,FALSE)</f>
-        <v>5384.0215000000007</v>
+        <v>6995.0134999999991</v>
       </c>
       <c r="P8" s="63">
         <f ca="1">INDIRECT(Calculation!V11,FALSE)</f>
-        <v>491.19450000000001</v>
+        <v>137.7115</v>
       </c>
       <c r="Q8" s="83">
         <f ca="1">INDIRECT(Calculation!W11,FALSE)</f>
-        <v>4892.8270000000002</v>
-      </c>
-      <c r="R8" s="87" t="str">
+        <v>6857.3020000000006</v>
+      </c>
+      <c r="R8" s="87">
         <f ca="1">INDIRECT(Calculation!X11,FALSE)</f>
-        <v>[x]</v>
-      </c>
-      <c r="S8" s="63" t="str">
+        <v>1392.924</v>
+      </c>
+      <c r="S8" s="63">
         <f ca="1">INDIRECT(Calculation!Y11,FALSE)</f>
-        <v>[x]</v>
-      </c>
-      <c r="T8" s="83" t="str">
+        <v>20.194000000000003</v>
+      </c>
+      <c r="T8" s="83">
         <f ca="1">INDIRECT(Calculation!Z11,FALSE)</f>
-        <v>[x]</v>
+        <v>1372.73</v>
       </c>
       <c r="U8" s="82">
         <f ca="1">INDIRECT(Calculation!AA11,FALSE)</f>
-        <v>22390.724399999999</v>
+        <v>28742.918100000003</v>
       </c>
       <c r="V8" s="63">
         <f ca="1">INDIRECT(Calculation!AB11,FALSE)</f>
-        <v>4480.8425999999999</v>
+        <v>4165.5470000000005</v>
       </c>
       <c r="W8" s="83">
         <f ca="1">INDIRECT(Calculation!AC11,FALSE)</f>
-        <v>17909.881799999999</v>
+        <v>24577.371099999997</v>
       </c>
       <c r="X8" s="82">
         <f ca="1">INDIRECT(Calculation!AD11,FALSE)</f>
-        <v>19360.351999999999</v>
+        <v>16034.534</v>
       </c>
       <c r="Y8" s="63">
         <f ca="1">INDIRECT(Calculation!AE11,FALSE)</f>
-        <v>310.0505</v>
+        <v>872.31700000000001</v>
       </c>
       <c r="Z8" s="83">
         <f ca="1">INDIRECT(Calculation!AF11,FALSE)</f>
-        <v>19050.301500000001</v>
+        <v>15162.217000000001</v>
       </c>
       <c r="AA8" s="91">
         <f ca="1">INDIRECT(Calculation!AG11,FALSE)</f>
-        <v>1063.1154999999999</v>
+        <v>1637.2750000000001</v>
       </c>
       <c r="AB8" s="92">
         <f ca="1">INDIRECT(Calculation!AH11,FALSE)</f>
-        <v>766.70749999999998</v>
+        <v>771.85550000000001</v>
       </c>
       <c r="AC8" s="92">
         <f ca="1">INDIRECT(Calculation!AI11,FALSE)</f>
-        <v>296.40799999999996</v>
+        <v>865.4195000000002</v>
       </c>
       <c r="AD8" s="41"/>
       <c r="AE8" s="41"/>
@@ -6937,118 +6977,118 @@
     <row r="9" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <f ca="1">INDIRECT(Calculation!F12,FALSE)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="82">
         <f ca="1">INDIRECT(Calculation!I12,FALSE)</f>
-        <v>15152.031000000001</v>
+        <v>2736.5605</v>
       </c>
       <c r="D9" s="63">
         <f ca="1">INDIRECT(Calculation!J12,FALSE)</f>
-        <v>1478.4314999999999</v>
+        <v>12752.901000000002</v>
       </c>
       <c r="E9" s="83">
         <f ca="1">INDIRECT(Calculation!K12,FALSE)</f>
-        <v>13673.5995</v>
+        <v>-10016.3405</v>
       </c>
       <c r="F9" s="82">
         <f ca="1">INDIRECT(Calculation!L12,FALSE)</f>
-        <v>324.6456</v>
+        <v>336.29340000000002</v>
       </c>
       <c r="G9" s="63">
         <f ca="1">INDIRECT(Calculation!M12,FALSE)</f>
-        <v>1417.0004999999999</v>
+        <v>1168.8388</v>
       </c>
       <c r="H9" s="83">
         <f ca="1">INDIRECT(Calculation!N12,FALSE)</f>
-        <v>-1092.3549</v>
+        <v>-832.54539999999997</v>
       </c>
       <c r="I9" s="82">
         <f ca="1">INDIRECT(Calculation!O12,FALSE)</f>
-        <v>4340.6064999999999</v>
+        <v>3610.1674999999996</v>
       </c>
       <c r="J9" s="63">
         <f ca="1">INDIRECT(Calculation!P12,FALSE)</f>
-        <v>77.294499999999999</v>
+        <v>2157.6605</v>
       </c>
       <c r="K9" s="83">
         <f ca="1">INDIRECT(Calculation!Q12,FALSE)</f>
-        <v>4263.3119999999999</v>
+        <v>1452.5069999999998</v>
       </c>
       <c r="L9" s="82">
         <f ca="1">INDIRECT(Calculation!R12,FALSE)</f>
-        <v>537.69749999999999</v>
+        <v>990.10149999999999</v>
       </c>
       <c r="M9" s="63">
         <f ca="1">INDIRECT(Calculation!S12,FALSE)</f>
-        <v>1034.9150000000002</v>
+        <v>383.76299999999992</v>
       </c>
       <c r="N9" s="83">
         <f ca="1">INDIRECT(Calculation!T12,FALSE)</f>
-        <v>-497.21749999999997</v>
+        <v>606.33850000000007</v>
       </c>
       <c r="O9" s="82">
         <f ca="1">INDIRECT(Calculation!U12,FALSE)</f>
-        <v>6995.0134999999991</v>
+        <v>3230.4425000000001</v>
       </c>
       <c r="P9" s="63">
         <f ca="1">INDIRECT(Calculation!V12,FALSE)</f>
-        <v>137.7115</v>
+        <v>2568.0315000000001</v>
       </c>
       <c r="Q9" s="83">
         <f ca="1">INDIRECT(Calculation!W12,FALSE)</f>
-        <v>6857.3020000000006</v>
+        <v>662.41100000000029</v>
       </c>
       <c r="R9" s="87">
         <f ca="1">INDIRECT(Calculation!X12,FALSE)</f>
-        <v>1392.924</v>
+        <v>4546.9755000000005</v>
       </c>
       <c r="S9" s="63">
         <f ca="1">INDIRECT(Calculation!Y12,FALSE)</f>
-        <v>20.194000000000003</v>
+        <v>1761.6735000000001</v>
       </c>
       <c r="T9" s="83">
         <f ca="1">INDIRECT(Calculation!Z12,FALSE)</f>
-        <v>1372.73</v>
+        <v>2785.3020000000001</v>
       </c>
       <c r="U9" s="82">
         <f ca="1">INDIRECT(Calculation!AA12,FALSE)</f>
-        <v>28742.918100000003</v>
+        <v>15450.5409</v>
       </c>
       <c r="V9" s="63">
         <f ca="1">INDIRECT(Calculation!AB12,FALSE)</f>
-        <v>4165.5470000000005</v>
+        <v>20792.868300000002</v>
       </c>
       <c r="W9" s="83">
         <f ca="1">INDIRECT(Calculation!AC12,FALSE)</f>
-        <v>24577.371099999997</v>
+        <v>-5342.3273999999992</v>
       </c>
       <c r="X9" s="82">
         <f ca="1">INDIRECT(Calculation!AD12,FALSE)</f>
-        <v>16034.534</v>
+        <v>19463.951000000001</v>
       </c>
       <c r="Y9" s="63">
         <f ca="1">INDIRECT(Calculation!AE12,FALSE)</f>
-        <v>872.31700000000001</v>
+        <v>438.02</v>
       </c>
       <c r="Z9" s="83">
         <f ca="1">INDIRECT(Calculation!AF12,FALSE)</f>
-        <v>15162.217000000001</v>
+        <v>19025.931</v>
       </c>
       <c r="AA9" s="82">
         <f ca="1">INDIRECT(Calculation!AG12,FALSE)</f>
-        <v>1637.2750000000001</v>
+        <v>796.6105</v>
       </c>
       <c r="AB9" s="63">
         <f ca="1">INDIRECT(Calculation!AH12,FALSE)</f>
-        <v>771.85550000000001</v>
+        <v>1073.6635000000001</v>
       </c>
       <c r="AC9" s="63">
         <f ca="1">INDIRECT(Calculation!AI12,FALSE)</f>
-        <v>865.4195000000002</v>
+        <v>-277.053</v>
       </c>
       <c r="AD9" s="41"/>
       <c r="AE9" s="41"/>
@@ -7076,47 +7116,47 @@
       </c>
       <c r="C10" s="84">
         <f t="shared" ref="C10:AB10" ca="1" si="0">IF(((C9-C8)/C8)*100&gt;100,"(+)  ",IF(((C9-C8)/C8)*100&lt;-100,"(-)  ",IF(ROUND((((C9-C8)/C8)*100),1)=0,"-  ",((C9-C8)/C8)*100)))</f>
-        <v>45.524490001430578</v>
-      </c>
-      <c r="D10" s="68">
+        <v>-81.939315594061284</v>
+      </c>
+      <c r="D10" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.983534175159406</v>
-      </c>
-      <c r="E10" s="85">
+        <v xml:space="preserve">(+)  </v>
+      </c>
+      <c r="E10" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>56.586586134936155</v>
+        <v xml:space="preserve">(-)  </v>
       </c>
       <c r="F10" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0681961954383263</v>
+        <v>3.5878508749233067</v>
       </c>
       <c r="G10" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>31.933537921800752</v>
+        <v>-17.51316954369458</v>
       </c>
       <c r="H10" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>45.10333726215999</v>
+        <v>-23.784348841205368</v>
       </c>
       <c r="I10" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1263803392195042</v>
-      </c>
-      <c r="J10" s="68">
+        <v>-16.828040044634324</v>
+      </c>
+      <c r="J10" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>-85.871109023209229</v>
+        <v xml:space="preserve">(+)  </v>
       </c>
       <c r="K10" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3128701743298259</v>
+        <v>-65.9300797126741</v>
       </c>
       <c r="L10" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-66.389788999152401</v>
+        <v>84.137270491307845</v>
       </c>
       <c r="M10" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>50.241676689650006</v>
+        <v>-62.918403926892566</v>
       </c>
       <c r="N10" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7124,15 +7164,15 @@
       </c>
       <c r="O10" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>29.921723009464174</v>
-      </c>
-      <c r="P10" s="68">
+        <v>-53.817923296359602</v>
+      </c>
+      <c r="P10" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>-71.963957251150006</v>
+        <v xml:space="preserve">(+)  </v>
       </c>
       <c r="Q10" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>40.150101362668252</v>
+        <v>-90.34006377435324</v>
       </c>
       <c r="R10" s="84" t="str">
         <f>"-"</f>
@@ -7148,39 +7188,39 @@
       </c>
       <c r="U10" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>28.369755200952785</v>
-      </c>
-      <c r="V10" s="68">
+        <v>-46.24574705238436</v>
+      </c>
+      <c r="V10" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.0365247821916235</v>
-      </c>
-      <c r="W10" s="85">
+        <v xml:space="preserve">(+)  </v>
+      </c>
+      <c r="W10" s="85" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>37.227991644255283</v>
+        <v xml:space="preserve">(-)  </v>
       </c>
       <c r="X10" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.178499647113853</v>
-      </c>
-      <c r="Y10" s="68" t="str">
+        <v>21.387693586854482</v>
+      </c>
+      <c r="Y10" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">(+)  </v>
+        <v>-49.786602806089988</v>
       </c>
       <c r="Z10" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.409569370857465</v>
+        <v>25.482513540071349</v>
       </c>
       <c r="AA10" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>54.00725509128597</v>
+        <v>-51.345345161930645</v>
       </c>
       <c r="AB10" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67144249925819488</v>
+        <v>39.101619409332464</v>
       </c>
       <c r="AC10" s="68" t="str">
         <f ca="1">IF(((AC9-AC8)/AC8)*100&gt;100,"(+)  ",IF(((AC9-AC8)/AC8)*100&lt;-100,"(-)  ",IF(ROUND((((AC9-AC8)/AC8)*100),1)=0,"-  ",((AC9-AC8)/AC8)*100)))</f>
-        <v xml:space="preserve">(+)  </v>
+        <v xml:space="preserve">(-)  </v>
       </c>
       <c r="AD10" s="41"/>
       <c r="AE10" s="41"/>
@@ -7206,67 +7246,67 @@
       </c>
       <c r="B11" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G16,FALSE)</f>
-        <v>Quarter 3</v>
+        <v>Quarter 4</v>
       </c>
       <c r="C11" s="82">
         <f ca="1">INDIRECT(Calculation!I16,FALSE)</f>
-        <v>1540.1765</v>
+        <v>2997.1680000000001</v>
       </c>
       <c r="D11" s="63">
         <f ca="1">INDIRECT(Calculation!J16,FALSE)</f>
-        <v>977.74300000000005</v>
+        <v>199.7895</v>
       </c>
       <c r="E11" s="83">
         <f ca="1">INDIRECT(Calculation!K16,FALSE)</f>
-        <v>562.43349999999998</v>
+        <v>2797.3784999999998</v>
       </c>
       <c r="F11" s="82">
         <f ca="1">INDIRECT(Calculation!L16,FALSE)</f>
-        <v>89.250299999999996</v>
+        <v>104.8493</v>
       </c>
       <c r="G11" s="63">
         <f ca="1">INDIRECT(Calculation!M16,FALSE)</f>
-        <v>228.09030000000001</v>
+        <v>257.19760000000002</v>
       </c>
       <c r="H11" s="83">
         <f ca="1">INDIRECT(Calculation!N16,FALSE)</f>
-        <v>-138.84</v>
+        <v>-152.3484</v>
       </c>
       <c r="I11" s="82">
         <f ca="1">INDIRECT(Calculation!O16,FALSE)</f>
-        <v>981.45699999999999</v>
+        <v>1089.345</v>
       </c>
       <c r="J11" s="63">
         <f ca="1">INDIRECT(Calculation!P16,FALSE)</f>
-        <v>131.8845</v>
+        <v>86.965999999999994</v>
       </c>
       <c r="K11" s="83">
         <f ca="1">INDIRECT(Calculation!Q16,FALSE)</f>
-        <v>849.57249999999999</v>
+        <v>1002.379</v>
       </c>
       <c r="L11" s="82">
         <f ca="1">INDIRECT(Calculation!R16,FALSE)</f>
-        <v>395.8125</v>
+        <v>420.17849999999999</v>
       </c>
       <c r="M11" s="63">
         <f ca="1">INDIRECT(Calculation!S16,FALSE)</f>
-        <v>107.5415</v>
+        <v>212.49850000000001</v>
       </c>
       <c r="N11" s="83">
         <f ca="1">INDIRECT(Calculation!T16,FALSE)</f>
-        <v>288.27100000000002</v>
+        <v>207.68</v>
       </c>
       <c r="O11" s="82">
         <f ca="1">INDIRECT(Calculation!U16,FALSE)</f>
-        <v>986.23649999999998</v>
+        <v>1532.0605</v>
       </c>
       <c r="P11" s="63">
         <f ca="1">INDIRECT(Calculation!V16,FALSE)</f>
-        <v>208.12950000000001</v>
+        <v>79.578500000000005</v>
       </c>
       <c r="Q11" s="83">
         <f ca="1">INDIRECT(Calculation!W16,FALSE)</f>
-        <v>778.10699999999997</v>
+        <v>1452.482</v>
       </c>
       <c r="R11" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X16,FALSE)</f>
@@ -7282,39 +7322,39 @@
       </c>
       <c r="U11" s="82">
         <f ca="1">INDIRECT(Calculation!AA16,FALSE)</f>
-        <v>3992.9328</v>
+        <v>6143.6013000000003</v>
       </c>
       <c r="V11" s="63">
         <f ca="1">INDIRECT(Calculation!AB16,FALSE)</f>
-        <v>1653.3887999999999</v>
+        <v>836.03020000000004</v>
       </c>
       <c r="W11" s="83">
         <f ca="1">INDIRECT(Calculation!AC16,FALSE)</f>
-        <v>2339.5439999999999</v>
+        <v>5307.5711000000001</v>
       </c>
       <c r="X11" s="82">
         <f ca="1">INDIRECT(Calculation!AD16,FALSE)</f>
-        <v>4065.2809999999999</v>
+        <v>5867.1719999999996</v>
       </c>
       <c r="Y11" s="63">
         <f ca="1">INDIRECT(Calculation!AE16,FALSE)</f>
-        <v>73.322500000000005</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="Z11" s="83">
         <f ca="1">INDIRECT(Calculation!AF16,FALSE)</f>
-        <v>3991.9585000000002</v>
+        <v>5863.1570000000002</v>
       </c>
       <c r="AA11" s="82">
         <f ca="1">INDIRECT(Calculation!AG16,FALSE)</f>
-        <v>210.90799999999999</v>
+        <v>278.6585</v>
       </c>
       <c r="AB11" s="63">
         <f ca="1">INDIRECT(Calculation!AH16,FALSE)</f>
-        <v>241.3665</v>
+        <v>223.2705</v>
       </c>
       <c r="AC11" s="63">
         <f ca="1">INDIRECT(Calculation!AI16,FALSE)</f>
-        <v>-30.458500000000001</v>
+        <v>55.387999999999998</v>
       </c>
       <c r="AD11" s="41"/>
       <c r="AE11" s="41"/>
@@ -7336,71 +7376,71 @@
     <row r="12" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <f ca="1">INDIRECT(Calculation!F17,FALSE)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G17,FALSE)</f>
-        <v>Quarter 4</v>
+        <v>Quarter 1</v>
       </c>
       <c r="C12" s="82">
         <f ca="1">INDIRECT(Calculation!I17,FALSE)</f>
-        <v>2997.1680000000001</v>
+        <v>4353.9110000000001</v>
       </c>
       <c r="D12" s="63">
         <f ca="1">INDIRECT(Calculation!J17,FALSE)</f>
-        <v>199.7895</v>
+        <v>190.80850000000001</v>
       </c>
       <c r="E12" s="83">
         <f ca="1">INDIRECT(Calculation!K17,FALSE)</f>
-        <v>2797.3784999999998</v>
+        <v>4163.1025</v>
       </c>
       <c r="F12" s="82">
         <f ca="1">INDIRECT(Calculation!L17,FALSE)</f>
-        <v>104.8493</v>
+        <v>80.331299999999999</v>
       </c>
       <c r="G12" s="63">
         <f ca="1">INDIRECT(Calculation!M17,FALSE)</f>
-        <v>257.19760000000002</v>
+        <v>278.47989999999999</v>
       </c>
       <c r="H12" s="83">
         <f ca="1">INDIRECT(Calculation!N17,FALSE)</f>
-        <v>-152.3484</v>
+        <v>-198.14859999999999</v>
       </c>
       <c r="I12" s="82">
         <f ca="1">INDIRECT(Calculation!O17,FALSE)</f>
-        <v>1089.345</v>
+        <v>571.5915</v>
       </c>
       <c r="J12" s="63">
         <f ca="1">INDIRECT(Calculation!P17,FALSE)</f>
-        <v>86.965999999999994</v>
+        <v>7.47</v>
       </c>
       <c r="K12" s="83">
         <f ca="1">INDIRECT(Calculation!Q17,FALSE)</f>
-        <v>1002.379</v>
+        <v>564.12149999999997</v>
       </c>
       <c r="L12" s="82">
         <f ca="1">INDIRECT(Calculation!R17,FALSE)</f>
-        <v>420.17849999999999</v>
+        <v>231.971</v>
       </c>
       <c r="M12" s="63">
         <f ca="1">INDIRECT(Calculation!S17,FALSE)</f>
-        <v>212.49850000000001</v>
+        <v>199.79599999999999</v>
       </c>
       <c r="N12" s="83">
         <f ca="1">INDIRECT(Calculation!T17,FALSE)</f>
-        <v>207.68</v>
+        <v>32.174999999999997</v>
       </c>
       <c r="O12" s="82">
         <f ca="1">INDIRECT(Calculation!U17,FALSE)</f>
-        <v>1532.0605</v>
+        <v>1774.4359999999999</v>
       </c>
       <c r="P12" s="63">
         <f ca="1">INDIRECT(Calculation!V17,FALSE)</f>
-        <v>79.578500000000005</v>
+        <v>24.411000000000001</v>
       </c>
       <c r="Q12" s="83">
         <f ca="1">INDIRECT(Calculation!W17,FALSE)</f>
-        <v>1452.482</v>
+        <v>1750.0250000000001</v>
       </c>
       <c r="R12" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X17,FALSE)</f>
@@ -7416,39 +7456,39 @@
       </c>
       <c r="U12" s="82">
         <f ca="1">INDIRECT(Calculation!AA17,FALSE)</f>
-        <v>6143.6013000000003</v>
+        <v>7012.2407999999996</v>
       </c>
       <c r="V12" s="63">
         <f ca="1">INDIRECT(Calculation!AB17,FALSE)</f>
-        <v>836.03020000000004</v>
+        <v>700.96540000000005</v>
       </c>
       <c r="W12" s="83">
         <f ca="1">INDIRECT(Calculation!AC17,FALSE)</f>
-        <v>5307.5711000000001</v>
+        <v>6311.2754000000004</v>
       </c>
       <c r="X12" s="82">
         <f ca="1">INDIRECT(Calculation!AD17,FALSE)</f>
-        <v>5867.1719999999996</v>
+        <v>5312.1255000000001</v>
       </c>
       <c r="Y12" s="63">
         <f ca="1">INDIRECT(Calculation!AE17,FALSE)</f>
-        <v>4.0149999999999997</v>
+        <v>38.9925</v>
       </c>
       <c r="Z12" s="83">
         <f ca="1">INDIRECT(Calculation!AF17,FALSE)</f>
-        <v>5863.1570000000002</v>
+        <v>5273.1329999999998</v>
       </c>
       <c r="AA12" s="82">
         <f ca="1">INDIRECT(Calculation!AG17,FALSE)</f>
-        <v>278.6585</v>
+        <v>323.35050000000001</v>
       </c>
       <c r="AB12" s="63">
         <f ca="1">INDIRECT(Calculation!AH17,FALSE)</f>
-        <v>223.2705</v>
+        <v>271.24900000000002</v>
       </c>
       <c r="AC12" s="63">
         <f ca="1">INDIRECT(Calculation!AI17,FALSE)</f>
-        <v>55.387999999999998</v>
+        <v>52.101500000000001</v>
       </c>
       <c r="AD12" s="41"/>
       <c r="AE12" s="41"/>
@@ -7474,67 +7514,67 @@
       </c>
       <c r="B13" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G18,FALSE)</f>
-        <v>Quarter 1</v>
+        <v>Quarter 2</v>
       </c>
       <c r="C13" s="82">
         <f ca="1">INDIRECT(Calculation!I18,FALSE)</f>
-        <v>4353.9110000000001</v>
+        <v>4663.4660000000003</v>
       </c>
       <c r="D13" s="63">
         <f ca="1">INDIRECT(Calculation!J18,FALSE)</f>
-        <v>190.80850000000001</v>
+        <v>133.02850000000001</v>
       </c>
       <c r="E13" s="83">
         <f ca="1">INDIRECT(Calculation!K18,FALSE)</f>
-        <v>4163.1025</v>
+        <v>4530.4375</v>
       </c>
       <c r="F13" s="82">
         <f ca="1">INDIRECT(Calculation!L18,FALSE)</f>
-        <v>80.331299999999999</v>
+        <v>43.046900000000001</v>
       </c>
       <c r="G13" s="63">
         <f ca="1">INDIRECT(Calculation!M18,FALSE)</f>
-        <v>278.47989999999999</v>
+        <v>451.38279999999997</v>
       </c>
       <c r="H13" s="83">
         <f ca="1">INDIRECT(Calculation!N18,FALSE)</f>
-        <v>-198.14859999999999</v>
+        <v>-408.33589999999992</v>
       </c>
       <c r="I13" s="82">
         <f ca="1">INDIRECT(Calculation!O18,FALSE)</f>
-        <v>571.5915</v>
+        <v>369.88049999999998</v>
       </c>
       <c r="J13" s="63">
         <f ca="1">INDIRECT(Calculation!P18,FALSE)</f>
-        <v>7.47</v>
+        <v>6.9524999999999997</v>
       </c>
       <c r="K13" s="83">
         <f ca="1">INDIRECT(Calculation!Q18,FALSE)</f>
-        <v>564.12149999999997</v>
+        <v>362.928</v>
       </c>
       <c r="L13" s="82">
         <f ca="1">INDIRECT(Calculation!R18,FALSE)</f>
-        <v>231.971</v>
+        <v>59.203000000000003</v>
       </c>
       <c r="M13" s="63">
         <f ca="1">INDIRECT(Calculation!S18,FALSE)</f>
-        <v>199.79599999999999</v>
+        <v>336.63750000000005</v>
       </c>
       <c r="N13" s="83">
         <f ca="1">INDIRECT(Calculation!T18,FALSE)</f>
-        <v>32.174999999999997</v>
+        <v>-277.43450000000001</v>
       </c>
       <c r="O13" s="82">
         <f ca="1">INDIRECT(Calculation!U18,FALSE)</f>
-        <v>1774.4359999999999</v>
+        <v>1885.2265</v>
       </c>
       <c r="P13" s="63">
         <f ca="1">INDIRECT(Calculation!V18,FALSE)</f>
-        <v>24.411000000000001</v>
+        <v>5.5750000000000002</v>
       </c>
       <c r="Q13" s="83">
         <f ca="1">INDIRECT(Calculation!W18,FALSE)</f>
-        <v>1750.0250000000001</v>
+        <v>1879.6514999999999</v>
       </c>
       <c r="R13" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X18,FALSE)</f>
@@ -7550,39 +7590,39 @@
       </c>
       <c r="U13" s="82">
         <f ca="1">INDIRECT(Calculation!AA18,FALSE)</f>
-        <v>7012.2407999999996</v>
+        <v>7020.822900000001</v>
       </c>
       <c r="V13" s="63">
         <f ca="1">INDIRECT(Calculation!AB18,FALSE)</f>
-        <v>700.96540000000005</v>
+        <v>933.57629999999995</v>
       </c>
       <c r="W13" s="83">
         <f ca="1">INDIRECT(Calculation!AC18,FALSE)</f>
-        <v>6311.2754000000004</v>
+        <v>6087.2466000000004</v>
       </c>
       <c r="X13" s="82">
         <f ca="1">INDIRECT(Calculation!AD18,FALSE)</f>
-        <v>5312.1255000000001</v>
+        <v>2399.2465000000002</v>
       </c>
       <c r="Y13" s="63">
         <f ca="1">INDIRECT(Calculation!AE18,FALSE)</f>
-        <v>38.9925</v>
+        <v>562.20950000000005</v>
       </c>
       <c r="Z13" s="83">
         <f ca="1">INDIRECT(Calculation!AF18,FALSE)</f>
-        <v>5273.1329999999998</v>
+        <v>1837.0370000000003</v>
       </c>
       <c r="AA13" s="82">
         <f ca="1">INDIRECT(Calculation!AG18,FALSE)</f>
-        <v>323.35050000000001</v>
+        <v>522.00650000000007</v>
       </c>
       <c r="AB13" s="63">
         <f ca="1">INDIRECT(Calculation!AH18,FALSE)</f>
-        <v>271.24900000000002</v>
+        <v>121.43799999999999</v>
       </c>
       <c r="AC13" s="63">
         <f ca="1">INDIRECT(Calculation!AI18,FALSE)</f>
-        <v>52.101500000000001</v>
+        <v>400.56850000000009</v>
       </c>
       <c r="AD13" s="41"/>
       <c r="AE13" s="41"/>
@@ -7607,67 +7647,67 @@
       </c>
       <c r="B14" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G19,FALSE)</f>
-        <v>Quarter 2</v>
+        <v>Quarter 3</v>
       </c>
       <c r="C14" s="82">
         <f ca="1">INDIRECT(Calculation!I19,FALSE)</f>
-        <v>4663.4660000000003</v>
+        <v>4837.8305</v>
       </c>
       <c r="D14" s="63">
         <f ca="1">INDIRECT(Calculation!J19,FALSE)</f>
-        <v>133.02850000000001</v>
+        <v>9.7039999999999988</v>
       </c>
       <c r="E14" s="83">
         <f ca="1">INDIRECT(Calculation!K19,FALSE)</f>
-        <v>4530.4375</v>
+        <v>4828.1265000000003</v>
       </c>
       <c r="F14" s="82">
         <f ca="1">INDIRECT(Calculation!L19,FALSE)</f>
-        <v>43.046900000000001</v>
+        <v>48.182299999999998</v>
       </c>
       <c r="G14" s="63">
         <f ca="1">INDIRECT(Calculation!M19,FALSE)</f>
-        <v>451.38279999999997</v>
+        <v>455.9769</v>
       </c>
       <c r="H14" s="83">
         <f ca="1">INDIRECT(Calculation!N19,FALSE)</f>
-        <v>-408.33589999999992</v>
+        <v>-407.7946</v>
       </c>
       <c r="I14" s="82">
         <f ca="1">INDIRECT(Calculation!O19,FALSE)</f>
-        <v>369.88049999999998</v>
+        <v>1730.4259999999999</v>
       </c>
       <c r="J14" s="63">
         <f ca="1">INDIRECT(Calculation!P19,FALSE)</f>
-        <v>6.9524999999999997</v>
+        <v>14.4115</v>
       </c>
       <c r="K14" s="83">
         <f ca="1">INDIRECT(Calculation!Q19,FALSE)</f>
-        <v>362.928</v>
+        <v>1716.0145000000002</v>
       </c>
       <c r="L14" s="82">
         <f ca="1">INDIRECT(Calculation!R19,FALSE)</f>
-        <v>59.203000000000003</v>
+        <v>38.000999999999998</v>
       </c>
       <c r="M14" s="63">
         <f ca="1">INDIRECT(Calculation!S19,FALSE)</f>
-        <v>336.63750000000005</v>
+        <v>361.25349999999997</v>
       </c>
       <c r="N14" s="83">
         <f ca="1">INDIRECT(Calculation!T19,FALSE)</f>
-        <v>-277.43450000000001</v>
+        <v>-323.2525</v>
       </c>
       <c r="O14" s="82">
         <f ca="1">INDIRECT(Calculation!U19,FALSE)</f>
-        <v>1885.2265</v>
+        <v>1838.278</v>
       </c>
       <c r="P14" s="63">
         <f ca="1">INDIRECT(Calculation!V19,FALSE)</f>
-        <v>5.5750000000000002</v>
+        <v>3.6035000000000004</v>
       </c>
       <c r="Q14" s="83">
         <f ca="1">INDIRECT(Calculation!W19,FALSE)</f>
-        <v>1879.6514999999999</v>
+        <v>1834.6745000000001</v>
       </c>
       <c r="R14" s="82" t="str">
         <f ca="1">INDIRECT(Calculation!X19,FALSE)</f>
@@ -7683,39 +7723,39 @@
       </c>
       <c r="U14" s="82">
         <f ca="1">INDIRECT(Calculation!AA19,FALSE)</f>
-        <v>7020.822900000001</v>
+        <v>8492.7178000000004</v>
       </c>
       <c r="V14" s="63">
         <f ca="1">INDIRECT(Calculation!AB19,FALSE)</f>
-        <v>933.57629999999995</v>
+        <v>844.94939999999997</v>
       </c>
       <c r="W14" s="83">
         <f ca="1">INDIRECT(Calculation!AC19,FALSE)</f>
-        <v>6087.2466000000004</v>
+        <v>7647.768399999999</v>
       </c>
       <c r="X14" s="82">
         <f ca="1">INDIRECT(Calculation!AD19,FALSE)</f>
-        <v>2399.2465000000002</v>
+        <v>2218.6675</v>
       </c>
       <c r="Y14" s="63">
         <f ca="1">INDIRECT(Calculation!AE19,FALSE)</f>
-        <v>562.20950000000005</v>
+        <v>218.39599999999999</v>
       </c>
       <c r="Z14" s="83">
         <f ca="1">INDIRECT(Calculation!AF19,FALSE)</f>
-        <v>1837.0370000000003</v>
+        <v>2000.2715000000001</v>
       </c>
       <c r="AA14" s="82">
         <f ca="1">INDIRECT(Calculation!AG19,FALSE)</f>
-        <v>522.00650000000007</v>
+        <v>507.78649999999999</v>
       </c>
       <c r="AB14" s="63">
         <f ca="1">INDIRECT(Calculation!AH19,FALSE)</f>
-        <v>121.43799999999999</v>
+        <v>80.441499999999991</v>
       </c>
       <c r="AC14" s="63">
         <f ca="1">INDIRECT(Calculation!AI19,FALSE)</f>
-        <v>400.56850000000009</v>
+        <v>427.34500000000003</v>
       </c>
       <c r="AD14" s="41"/>
       <c r="AE14" s="41"/>
@@ -7740,115 +7780,115 @@
       </c>
       <c r="B15" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G20,FALSE)</f>
-        <v>Quarter 3</v>
+        <v>Quarter 4</v>
       </c>
       <c r="C15" s="82">
         <f ca="1">INDIRECT(Calculation!I20,FALSE)</f>
-        <v>4837.8305</v>
+        <v>1296.8235</v>
       </c>
       <c r="D15" s="63">
         <f ca="1">INDIRECT(Calculation!J20,FALSE)</f>
-        <v>9.7039999999999988</v>
+        <v>1144.8905</v>
       </c>
       <c r="E15" s="83">
         <f ca="1">INDIRECT(Calculation!K20,FALSE)</f>
-        <v>4828.1265000000003</v>
+        <v>151.93299999999999</v>
       </c>
       <c r="F15" s="82">
         <f ca="1">INDIRECT(Calculation!L20,FALSE)</f>
-        <v>48.182299999999998</v>
+        <v>153.08510000000001</v>
       </c>
       <c r="G15" s="63">
         <f ca="1">INDIRECT(Calculation!M20,FALSE)</f>
-        <v>455.9769</v>
+        <v>231.1609</v>
       </c>
       <c r="H15" s="83">
         <f ca="1">INDIRECT(Calculation!N20,FALSE)</f>
-        <v>-407.7946</v>
+        <v>-78.075800000000001</v>
       </c>
       <c r="I15" s="82">
         <f ca="1">INDIRECT(Calculation!O20,FALSE)</f>
-        <v>1730.4259999999999</v>
+        <v>1668.7085</v>
       </c>
       <c r="J15" s="63">
         <f ca="1">INDIRECT(Calculation!P20,FALSE)</f>
-        <v>14.4115</v>
+        <v>48.460499999999996</v>
       </c>
       <c r="K15" s="83">
         <f ca="1">INDIRECT(Calculation!Q20,FALSE)</f>
-        <v>1716.0145000000002</v>
+        <v>1620.2479999999998</v>
       </c>
       <c r="L15" s="82">
         <f ca="1">INDIRECT(Calculation!R20,FALSE)</f>
-        <v>38.000999999999998</v>
+        <v>208.52249999999998</v>
       </c>
       <c r="M15" s="63">
         <f ca="1">INDIRECT(Calculation!S20,FALSE)</f>
-        <v>361.25349999999997</v>
+        <v>137.22800000000001</v>
       </c>
       <c r="N15" s="83">
         <f ca="1">INDIRECT(Calculation!T20,FALSE)</f>
-        <v>-323.2525</v>
+        <v>71.294499999999999</v>
       </c>
       <c r="O15" s="82">
         <f ca="1">INDIRECT(Calculation!U20,FALSE)</f>
-        <v>1838.278</v>
+        <v>1497.0729999999999</v>
       </c>
       <c r="P15" s="63">
         <f ca="1">INDIRECT(Calculation!V20,FALSE)</f>
-        <v>3.6035000000000004</v>
+        <v>104.122</v>
       </c>
       <c r="Q15" s="83">
         <f ca="1">INDIRECT(Calculation!W20,FALSE)</f>
-        <v>1834.6745000000001</v>
-      </c>
-      <c r="R15" s="82" t="str">
+        <v>1392.951</v>
+      </c>
+      <c r="R15" s="82">
         <f ca="1">INDIRECT(Calculation!X20,FALSE)</f>
-        <v>[x]</v>
-      </c>
-      <c r="S15" s="63" t="str">
+        <v>1392.924</v>
+      </c>
+      <c r="S15" s="63">
         <f ca="1">INDIRECT(Calculation!Y20,FALSE)</f>
-        <v>[x]</v>
-      </c>
-      <c r="T15" s="83" t="str">
+        <v>20.194000000000003</v>
+      </c>
+      <c r="T15" s="83">
         <f ca="1">INDIRECT(Calculation!Z20,FALSE)</f>
-        <v>[x]</v>
+        <v>1372.73</v>
       </c>
       <c r="U15" s="82">
         <f ca="1">INDIRECT(Calculation!AA20,FALSE)</f>
-        <v>8492.7178000000004</v>
+        <v>6217.1365999999998</v>
       </c>
       <c r="V15" s="63">
         <f ca="1">INDIRECT(Calculation!AB20,FALSE)</f>
-        <v>844.94939999999997</v>
+        <v>1686.0559000000003</v>
       </c>
       <c r="W15" s="83">
         <f ca="1">INDIRECT(Calculation!AC20,FALSE)</f>
-        <v>7647.768399999999</v>
+        <v>4531.0806999999995</v>
       </c>
       <c r="X15" s="82">
         <f ca="1">INDIRECT(Calculation!AD20,FALSE)</f>
-        <v>2218.6675</v>
+        <v>6104.4944999999998</v>
       </c>
       <c r="Y15" s="63">
         <f ca="1">INDIRECT(Calculation!AE20,FALSE)</f>
-        <v>218.39599999999999</v>
+        <v>52.718999999999994</v>
       </c>
       <c r="Z15" s="83">
         <f ca="1">INDIRECT(Calculation!AF20,FALSE)</f>
-        <v>2000.2715000000001</v>
+        <v>6051.7754999999997</v>
       </c>
       <c r="AA15" s="82">
         <f ca="1">INDIRECT(Calculation!AG20,FALSE)</f>
-        <v>507.78649999999999</v>
+        <v>284.13150000000002</v>
       </c>
       <c r="AB15" s="63">
         <f ca="1">INDIRECT(Calculation!AH20,FALSE)</f>
-        <v>80.441499999999991</v>
+        <v>298.72699999999998</v>
       </c>
       <c r="AC15" s="63">
         <f ca="1">INDIRECT(Calculation!AI20,FALSE)</f>
-        <v>427.34500000000003</v>
+        <v>-14.595499999999959</v>
       </c>
       <c r="AD15" s="41"/>
       <c r="AE15" s="41"/>
@@ -7873,115 +7913,115 @@
       </c>
       <c r="B16" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G21,FALSE)</f>
-        <v>Quarter 4</v>
+        <v>Quarter 1</v>
       </c>
       <c r="C16" s="82">
         <f ca="1">INDIRECT(Calculation!I21,FALSE)</f>
-        <v>1296.8235</v>
+        <v>1297.5630000000001</v>
       </c>
       <c r="D16" s="63">
         <f ca="1">INDIRECT(Calculation!J21,FALSE)</f>
-        <v>1144.8905</v>
+        <v>1061.5350000000001</v>
       </c>
       <c r="E16" s="83">
         <f ca="1">INDIRECT(Calculation!K21,FALSE)</f>
-        <v>151.93299999999999</v>
+        <v>236.02800000000002</v>
       </c>
       <c r="F16" s="82">
         <f ca="1">INDIRECT(Calculation!L21,FALSE)</f>
-        <v>153.08510000000001</v>
+        <v>89.094600000000014</v>
       </c>
       <c r="G16" s="63">
         <f ca="1">INDIRECT(Calculation!M21,FALSE)</f>
-        <v>231.1609</v>
+        <v>285.02659999999997</v>
       </c>
       <c r="H16" s="83">
         <f ca="1">INDIRECT(Calculation!N21,FALSE)</f>
-        <v>-78.075800000000001</v>
+        <v>-195.93199999999999</v>
       </c>
       <c r="I16" s="82">
         <f ca="1">INDIRECT(Calculation!O21,FALSE)</f>
-        <v>1668.7085</v>
+        <v>1597.5819999999999</v>
       </c>
       <c r="J16" s="63">
         <f ca="1">INDIRECT(Calculation!P21,FALSE)</f>
-        <v>48.460499999999996</v>
+        <v>72.165000000000006</v>
       </c>
       <c r="K16" s="83">
         <f ca="1">INDIRECT(Calculation!Q21,FALSE)</f>
-        <v>1620.2479999999998</v>
+        <v>1525.4169999999999</v>
       </c>
       <c r="L16" s="82">
         <f ca="1">INDIRECT(Calculation!R21,FALSE)</f>
-        <v>208.52249999999998</v>
+        <v>265.5795</v>
       </c>
       <c r="M16" s="63">
         <f ca="1">INDIRECT(Calculation!S21,FALSE)</f>
-        <v>137.22800000000001</v>
+        <v>66.197500000000005</v>
       </c>
       <c r="N16" s="83">
         <f ca="1">INDIRECT(Calculation!T21,FALSE)</f>
-        <v>71.294499999999999</v>
+        <v>199.38200000000001</v>
       </c>
       <c r="O16" s="82">
         <f ca="1">INDIRECT(Calculation!U21,FALSE)</f>
-        <v>1497.0729999999999</v>
+        <v>1536.0509999999999</v>
       </c>
       <c r="P16" s="63">
         <f ca="1">INDIRECT(Calculation!V21,FALSE)</f>
-        <v>104.122</v>
+        <v>88.140999999999991</v>
       </c>
       <c r="Q16" s="83">
         <f ca="1">INDIRECT(Calculation!W21,FALSE)</f>
-        <v>1392.951</v>
+        <v>1447.91</v>
       </c>
       <c r="R16" s="82">
         <f ca="1">INDIRECT(Calculation!X21,FALSE)</f>
-        <v>1392.924</v>
+        <v>1781.2945</v>
       </c>
       <c r="S16" s="63">
         <f ca="1">INDIRECT(Calculation!Y21,FALSE)</f>
-        <v>20.194000000000003</v>
+        <v>50.663000000000004</v>
       </c>
       <c r="T16" s="83">
         <f ca="1">INDIRECT(Calculation!Z21,FALSE)</f>
-        <v>1372.73</v>
+        <v>1730.6315</v>
       </c>
       <c r="U16" s="82">
         <f ca="1">INDIRECT(Calculation!AA21,FALSE)</f>
-        <v>6217.1365999999998</v>
+        <v>6567.1646000000001</v>
       </c>
       <c r="V16" s="63">
         <f ca="1">INDIRECT(Calculation!AB21,FALSE)</f>
-        <v>1686.0559000000003</v>
+        <v>1623.7281000000003</v>
       </c>
       <c r="W16" s="83">
         <f ca="1">INDIRECT(Calculation!AC21,FALSE)</f>
-        <v>4531.0806999999995</v>
+        <v>4943.4364999999998</v>
       </c>
       <c r="X16" s="82">
         <f ca="1">INDIRECT(Calculation!AD21,FALSE)</f>
-        <v>6104.4944999999998</v>
+        <v>6002.8145000000004</v>
       </c>
       <c r="Y16" s="63">
         <f ca="1">INDIRECT(Calculation!AE21,FALSE)</f>
-        <v>52.718999999999994</v>
+        <v>91.09</v>
       </c>
       <c r="Z16" s="83">
         <f ca="1">INDIRECT(Calculation!AF21,FALSE)</f>
-        <v>6051.7754999999997</v>
+        <v>5911.7245000000003</v>
       </c>
       <c r="AA16" s="82">
         <f ca="1">INDIRECT(Calculation!AG21,FALSE)</f>
-        <v>284.13150000000002</v>
+        <v>229.94800000000001</v>
       </c>
       <c r="AB16" s="63">
         <f ca="1">INDIRECT(Calculation!AH21,FALSE)</f>
-        <v>298.72699999999998</v>
+        <v>304.14549999999997</v>
       </c>
       <c r="AC16" s="63">
         <f ca="1">INDIRECT(Calculation!AI21,FALSE)</f>
-        <v>-14.595499999999959</v>
+        <v>-74.197499999999962</v>
       </c>
       <c r="AD16" s="41"/>
       <c r="AE16" s="41"/>
@@ -8006,115 +8046,115 @@
       </c>
       <c r="B17" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G22,FALSE)</f>
-        <v>Quarter 1</v>
+        <v>Quarter 2</v>
       </c>
       <c r="C17" s="82">
         <f ca="1">INDIRECT(Calculation!I22,FALSE)</f>
-        <v>1297.5630000000001</v>
+        <v>229.625</v>
       </c>
       <c r="D17" s="63">
         <f ca="1">INDIRECT(Calculation!J22,FALSE)</f>
-        <v>1061.5350000000001</v>
+        <v>3604.3805000000002</v>
       </c>
       <c r="E17" s="83">
         <f ca="1">INDIRECT(Calculation!K22,FALSE)</f>
-        <v>236.02800000000002</v>
+        <v>-3374.7555000000002</v>
       </c>
       <c r="F17" s="82">
         <f ca="1">INDIRECT(Calculation!L22,FALSE)</f>
-        <v>89.094600000000014</v>
+        <v>53.469200000000001</v>
       </c>
       <c r="G17" s="63">
         <f ca="1">INDIRECT(Calculation!M22,FALSE)</f>
-        <v>285.02659999999997</v>
+        <v>335.50319999999999</v>
       </c>
       <c r="H17" s="83">
         <f ca="1">INDIRECT(Calculation!N22,FALSE)</f>
-        <v>-195.93199999999999</v>
+        <v>-282.03399999999999</v>
       </c>
       <c r="I17" s="82">
         <f ca="1">INDIRECT(Calculation!O22,FALSE)</f>
-        <v>1597.5819999999999</v>
+        <v>608.04999999999995</v>
       </c>
       <c r="J17" s="63">
         <f ca="1">INDIRECT(Calculation!P22,FALSE)</f>
-        <v>72.165000000000006</v>
+        <v>788.21250000000009</v>
       </c>
       <c r="K17" s="83">
         <f ca="1">INDIRECT(Calculation!Q22,FALSE)</f>
-        <v>1525.4169999999999</v>
+        <v>-180.16250000000005</v>
       </c>
       <c r="L17" s="82">
         <f ca="1">INDIRECT(Calculation!R22,FALSE)</f>
-        <v>265.5795</v>
+        <v>135.21949999999998</v>
       </c>
       <c r="M17" s="63">
         <f ca="1">INDIRECT(Calculation!S22,FALSE)</f>
-        <v>66.197500000000005</v>
+        <v>74.24799999999999</v>
       </c>
       <c r="N17" s="83">
         <f ca="1">INDIRECT(Calculation!T22,FALSE)</f>
-        <v>199.38200000000001</v>
+        <v>60.971499999999999</v>
       </c>
       <c r="O17" s="82">
         <f ca="1">INDIRECT(Calculation!U22,FALSE)</f>
-        <v>1536.0509999999999</v>
+        <v>581.73249999999996</v>
       </c>
       <c r="P17" s="63">
         <f ca="1">INDIRECT(Calculation!V22,FALSE)</f>
-        <v>88.140999999999991</v>
+        <v>987.44849999999997</v>
       </c>
       <c r="Q17" s="83">
         <f ca="1">INDIRECT(Calculation!W22,FALSE)</f>
-        <v>1447.91</v>
+        <v>-405.71599999999995</v>
       </c>
       <c r="R17" s="82">
         <f ca="1">INDIRECT(Calculation!X22,FALSE)</f>
-        <v>1781.2945</v>
+        <v>662.50900000000001</v>
       </c>
       <c r="S17" s="63">
         <f ca="1">INDIRECT(Calculation!Y22,FALSE)</f>
-        <v>50.663000000000004</v>
+        <v>443.2645</v>
       </c>
       <c r="T17" s="83">
         <f ca="1">INDIRECT(Calculation!Z22,FALSE)</f>
-        <v>1730.6315</v>
+        <v>219.24449999999999</v>
       </c>
       <c r="U17" s="82">
         <f ca="1">INDIRECT(Calculation!AA22,FALSE)</f>
-        <v>6567.1646000000001</v>
+        <v>2270.6052</v>
       </c>
       <c r="V17" s="63">
         <f ca="1">INDIRECT(Calculation!AB22,FALSE)</f>
-        <v>1623.7281000000003</v>
+        <v>6233.0571999999993</v>
       </c>
       <c r="W17" s="83">
         <f ca="1">INDIRECT(Calculation!AC22,FALSE)</f>
-        <v>4943.4364999999998</v>
+        <v>-3962.4519999999993</v>
       </c>
       <c r="X17" s="82">
         <f ca="1">INDIRECT(Calculation!AD22,FALSE)</f>
-        <v>6002.8145000000004</v>
+        <v>4050.567</v>
       </c>
       <c r="Y17" s="63">
         <f ca="1">INDIRECT(Calculation!AE22,FALSE)</f>
-        <v>91.09</v>
+        <v>142.88999999999999</v>
       </c>
       <c r="Z17" s="83">
         <f ca="1">INDIRECT(Calculation!AF22,FALSE)</f>
-        <v>5911.7245000000003</v>
+        <v>3907.6770000000001</v>
       </c>
       <c r="AA17" s="82">
         <f ca="1">INDIRECT(Calculation!AG22,FALSE)</f>
-        <v>229.94800000000001</v>
+        <v>222.53250000000003</v>
       </c>
       <c r="AB17" s="63">
         <f ca="1">INDIRECT(Calculation!AH22,FALSE)</f>
-        <v>304.14549999999997</v>
+        <v>252.84900000000002</v>
       </c>
       <c r="AC17" s="63">
         <f ca="1">INDIRECT(Calculation!AI22,FALSE)</f>
-        <v>-74.197499999999962</v>
+        <v>-30.316499999999991</v>
       </c>
       <c r="AD17" s="41"/>
       <c r="AE17" s="41"/>
@@ -8139,115 +8179,115 @@
       </c>
       <c r="B18" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G23,FALSE)</f>
-        <v>Quarter 2</v>
+        <v>Quarter 3</v>
       </c>
       <c r="C18" s="82">
         <f ca="1">INDIRECT(Calculation!I23,FALSE)</f>
-        <v>229.625</v>
+        <v>190.483</v>
       </c>
       <c r="D18" s="63">
         <f ca="1">INDIRECT(Calculation!J23,FALSE)</f>
-        <v>3604.3805000000002</v>
+        <v>4615.8085000000001</v>
       </c>
       <c r="E18" s="83">
         <f ca="1">INDIRECT(Calculation!K23,FALSE)</f>
-        <v>-3374.7555000000002</v>
+        <v>-4425.3254999999999</v>
       </c>
       <c r="F18" s="82">
         <f ca="1">INDIRECT(Calculation!L23,FALSE)</f>
-        <v>53.469200000000001</v>
+        <v>65.0364</v>
       </c>
       <c r="G18" s="63">
         <f ca="1">INDIRECT(Calculation!M23,FALSE)</f>
-        <v>335.50319999999999</v>
+        <v>271.25139999999999</v>
       </c>
       <c r="H18" s="83">
         <f ca="1">INDIRECT(Calculation!N23,FALSE)</f>
-        <v>-282.03399999999999</v>
+        <v>-206.21499999999997</v>
       </c>
       <c r="I18" s="82">
         <f ca="1">INDIRECT(Calculation!O23,FALSE)</f>
-        <v>608.04999999999995</v>
+        <v>682.28250000000003</v>
       </c>
       <c r="J18" s="63">
         <f ca="1">INDIRECT(Calculation!P23,FALSE)</f>
-        <v>788.21250000000009</v>
+        <v>679.62299999999993</v>
       </c>
       <c r="K18" s="83">
         <f ca="1">INDIRECT(Calculation!Q23,FALSE)</f>
-        <v>-180.16250000000005</v>
+        <v>2.6595000000000084</v>
       </c>
       <c r="L18" s="82">
         <f ca="1">INDIRECT(Calculation!R23,FALSE)</f>
-        <v>135.21949999999998</v>
+        <v>301.01550000000003</v>
       </c>
       <c r="M18" s="63">
         <f ca="1">INDIRECT(Calculation!S23,FALSE)</f>
-        <v>74.24799999999999</v>
+        <v>122.65299999999999</v>
       </c>
       <c r="N18" s="83">
         <f ca="1">INDIRECT(Calculation!T23,FALSE)</f>
-        <v>60.971499999999999</v>
+        <v>178.36250000000001</v>
       </c>
       <c r="O18" s="82">
         <f ca="1">INDIRECT(Calculation!U23,FALSE)</f>
-        <v>581.73249999999996</v>
+        <v>494.98250000000002</v>
       </c>
       <c r="P18" s="63">
         <f ca="1">INDIRECT(Calculation!V23,FALSE)</f>
-        <v>987.44849999999997</v>
+        <v>829.74649999999997</v>
       </c>
       <c r="Q18" s="83">
         <f ca="1">INDIRECT(Calculation!W23,FALSE)</f>
-        <v>-405.71599999999995</v>
+        <v>-334.76400000000001</v>
       </c>
       <c r="R18" s="82">
         <f ca="1">INDIRECT(Calculation!X23,FALSE)</f>
-        <v>662.50900000000001</v>
+        <v>769.66449999999998</v>
       </c>
       <c r="S18" s="63">
         <f ca="1">INDIRECT(Calculation!Y23,FALSE)</f>
-        <v>443.2645</v>
+        <v>837.45</v>
       </c>
       <c r="T18" s="83">
         <f ca="1">INDIRECT(Calculation!Z23,FALSE)</f>
-        <v>219.24449999999999</v>
+        <v>-67.785500000000013</v>
       </c>
       <c r="U18" s="82">
         <f ca="1">INDIRECT(Calculation!AA23,FALSE)</f>
-        <v>2270.6052</v>
+        <v>2503.4643999999998</v>
       </c>
       <c r="V18" s="63">
         <f ca="1">INDIRECT(Calculation!AB23,FALSE)</f>
-        <v>6233.0571999999993</v>
+        <v>7356.5324000000001</v>
       </c>
       <c r="W18" s="83">
         <f ca="1">INDIRECT(Calculation!AC23,FALSE)</f>
-        <v>-3962.4519999999993</v>
+        <v>-4853.0680000000002</v>
       </c>
       <c r="X18" s="82">
         <f ca="1">INDIRECT(Calculation!AD23,FALSE)</f>
-        <v>4050.567</v>
+        <v>3203.0070000000001</v>
       </c>
       <c r="Y18" s="63">
         <f ca="1">INDIRECT(Calculation!AE23,FALSE)</f>
-        <v>142.88999999999999</v>
+        <v>167.61149999999998</v>
       </c>
       <c r="Z18" s="83">
         <f ca="1">INDIRECT(Calculation!AF23,FALSE)</f>
-        <v>3907.6770000000001</v>
+        <v>3035.3955000000001</v>
       </c>
       <c r="AA18" s="82">
         <f ca="1">INDIRECT(Calculation!AG23,FALSE)</f>
-        <v>222.53250000000003</v>
+        <v>99.600999999999999</v>
       </c>
       <c r="AB18" s="63">
         <f ca="1">INDIRECT(Calculation!AH23,FALSE)</f>
-        <v>252.84900000000002</v>
+        <v>149.4135</v>
       </c>
       <c r="AC18" s="63">
         <f ca="1">INDIRECT(Calculation!AI23,FALSE)</f>
-        <v>-30.316499999999991</v>
+        <v>-49.8125</v>
       </c>
       <c r="AD18" s="41"/>
       <c r="AE18" s="41"/>
@@ -8272,115 +8312,115 @@
       </c>
       <c r="B19" s="66" t="str">
         <f ca="1">INDIRECT(Calculation!G24,FALSE)</f>
-        <v>Quarter 3 [provisional]</v>
+        <v>Quarter 4 [provisional]</v>
       </c>
       <c r="C19" s="82">
         <f ca="1">INDIRECT(Calculation!I24,FALSE)</f>
-        <v>190.483</v>
+        <v>1018.8895</v>
       </c>
       <c r="D19" s="63">
         <f ca="1">INDIRECT(Calculation!J24,FALSE)</f>
-        <v>4615.8085000000001</v>
+        <v>3471.1770000000006</v>
       </c>
       <c r="E19" s="83">
         <f ca="1">INDIRECT(Calculation!K24,FALSE)</f>
-        <v>-4425.3254999999999</v>
+        <v>-2452.2875000000004</v>
       </c>
       <c r="F19" s="82">
         <f ca="1">INDIRECT(Calculation!L24,FALSE)</f>
-        <v>65.0364</v>
+        <v>128.69319999999999</v>
       </c>
       <c r="G19" s="63">
         <f ca="1">INDIRECT(Calculation!M24,FALSE)</f>
-        <v>271.25139999999999</v>
+        <v>277.05759999999998</v>
       </c>
       <c r="H19" s="83">
         <f ca="1">INDIRECT(Calculation!N24,FALSE)</f>
-        <v>-206.21499999999997</v>
+        <v>-148.36439999999999</v>
       </c>
       <c r="I19" s="82">
         <f ca="1">INDIRECT(Calculation!O24,FALSE)</f>
-        <v>682.28250000000003</v>
+        <v>722.25299999999993</v>
       </c>
       <c r="J19" s="63">
         <f ca="1">INDIRECT(Calculation!P24,FALSE)</f>
-        <v>679.62299999999993</v>
+        <v>617.66</v>
       </c>
       <c r="K19" s="83">
         <f ca="1">INDIRECT(Calculation!Q24,FALSE)</f>
-        <v>2.6595000000000084</v>
+        <v>104.59300000000002</v>
       </c>
       <c r="L19" s="82">
         <f ca="1">INDIRECT(Calculation!R24,FALSE)</f>
-        <v>301.01550000000003</v>
+        <v>288.28699999999998</v>
       </c>
       <c r="M19" s="63">
         <f ca="1">INDIRECT(Calculation!S24,FALSE)</f>
-        <v>122.65299999999999</v>
+        <v>120.66449999999999</v>
       </c>
       <c r="N19" s="83">
         <f ca="1">INDIRECT(Calculation!T24,FALSE)</f>
-        <v>178.36250000000001</v>
+        <v>167.6225</v>
       </c>
       <c r="O19" s="82">
         <f ca="1">INDIRECT(Calculation!U24,FALSE)</f>
-        <v>494.98250000000002</v>
+        <v>617.67650000000003</v>
       </c>
       <c r="P19" s="63">
         <f ca="1">INDIRECT(Calculation!V24,FALSE)</f>
-        <v>829.74649999999997</v>
+        <v>662.69549999999992</v>
       </c>
       <c r="Q19" s="83">
         <f ca="1">INDIRECT(Calculation!W24,FALSE)</f>
-        <v>-334.76400000000001</v>
+        <v>-45.018999999999949</v>
       </c>
       <c r="R19" s="82">
         <f ca="1">INDIRECT(Calculation!X24,FALSE)</f>
-        <v>769.66449999999998</v>
+        <v>1333.5075000000002</v>
       </c>
       <c r="S19" s="63">
         <f ca="1">INDIRECT(Calculation!Y24,FALSE)</f>
-        <v>837.45</v>
+        <v>430.29599999999999</v>
       </c>
       <c r="T19" s="83">
         <f ca="1">INDIRECT(Calculation!Z24,FALSE)</f>
-        <v>-67.785500000000013</v>
+        <v>903.21150000000011</v>
       </c>
       <c r="U19" s="82">
         <f ca="1">INDIRECT(Calculation!AA24,FALSE)</f>
-        <v>2503.4643999999998</v>
+        <v>4109.3067000000001</v>
       </c>
       <c r="V19" s="63">
         <f ca="1">INDIRECT(Calculation!AB24,FALSE)</f>
-        <v>7356.5324000000001</v>
+        <v>5579.5506000000005</v>
       </c>
       <c r="W19" s="83">
         <f ca="1">INDIRECT(Calculation!AC24,FALSE)</f>
-        <v>-4853.0680000000002</v>
+        <v>-1470.2438999999995</v>
       </c>
       <c r="X19" s="82">
         <f ca="1">INDIRECT(Calculation!AD24,FALSE)</f>
-        <v>3203.0070000000001</v>
+        <v>6207.5625</v>
       </c>
       <c r="Y19" s="63">
         <f ca="1">INDIRECT(Calculation!AE24,FALSE)</f>
-        <v>167.61149999999998</v>
+        <v>36.4285</v>
       </c>
       <c r="Z19" s="83">
         <f ca="1">INDIRECT(Calculation!AF24,FALSE)</f>
-        <v>3035.3955000000001</v>
+        <v>6171.134</v>
       </c>
       <c r="AA19" s="82">
         <f ca="1">INDIRECT(Calculation!AG24,FALSE)</f>
-        <v>99.600999999999999</v>
+        <v>244.529</v>
       </c>
       <c r="AB19" s="63">
         <f ca="1">INDIRECT(Calculation!AH24,FALSE)</f>
-        <v>149.4135</v>
+        <v>367.25550000000004</v>
       </c>
       <c r="AC19" s="63">
         <f ca="1">INDIRECT(Calculation!AI24,FALSE)</f>
-        <v>-49.8125</v>
+        <v>-122.72650000000004</v>
       </c>
       <c r="AD19" s="41"/>
       <c r="AE19" s="41"/>
@@ -8408,7 +8448,7 @@
       </c>
       <c r="C20" s="84">
         <f ca="1">IF(((C19-C15)/C15)*100&gt;100,"(+)  ",IF(((C19-C15)/C15)*100&lt;-100,"(-)  ",IF(ROUND((((C19-C15)/C15)*100),1)=0,"-  ",((C19-C15)/C15)*100)))</f>
-        <v>-96.062635927405879</v>
+        <v>-21.431906500768992</v>
       </c>
       <c r="D20" s="68" t="str">
         <f ca="1">IF(((D19-D15)/D15)*100&gt;100,"(+)  ",IF(((D19-D15)/D15)*100&lt;-100,"(-)  ",IF(ROUND((((D19-D15)/D15)*100),1)=0,"-  ",((D19-D15)/D15)*100)))</f>
@@ -8420,19 +8460,19 @@
       </c>
       <c r="F20" s="84">
         <f t="shared" ref="F20:AA20" ca="1" si="1">IF(((F19-F15)/F15)*100&gt;100,"(+)  ",IF(((F19-F15)/F15)*100&lt;-100,"(-)  ",IF(ROUND((((F19-F15)/F15)*100),1)=0,"-  ",((F19-F15)/F15)*100)))</f>
-        <v>34.97985774859233</v>
+        <v>-15.933555911058633</v>
       </c>
       <c r="G20" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.512030324343186</v>
+        <v>19.854871650006544</v>
       </c>
       <c r="H20" s="85">
         <f ca="1">IF(((H19-H15)/H15)*100&gt;100,"(+)  ",IF(((H19-H15)/H15)*100&lt;-100,"(-)  ",IF(ROUND((((H19-H15)/H15)*100),1)=0,"-  ",((H19-H15)/H15)*100)))</f>
-        <v>-49.431650149364415</v>
+        <v>90.02610283852357</v>
       </c>
       <c r="I20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>-60.571414206675115</v>
+        <v>-56.717844968129548</v>
       </c>
       <c r="J20" s="68" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8440,23 +8480,23 @@
       </c>
       <c r="K20" s="85">
         <f ca="1">IF(((K19-K15)/K15)*100&gt;100,"(+)  ",IF(((K19-K15)/K15)*100&lt;-100,"(-)  ",IF(ROUND((((K19-K15)/K15)*100),1)=0,"-  ",((K19-K15)/K15)*100)))</f>
-        <v>-99.845018792090627</v>
-      </c>
-      <c r="L20" s="84" t="str">
+        <v>-93.544630204758775</v>
+      </c>
+      <c r="L20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">(+)  </v>
+        <v>38.252226977904066</v>
       </c>
       <c r="M20" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>-66.047941404027924</v>
+        <v>-12.070058588626241</v>
       </c>
       <c r="N20" s="85" t="str">
         <f ca="1">IF(((N19-N15)/N15)*100&gt;100,"(+)  ",IF(((N19-N15)/N15)*100&lt;-100,"(-)  ",IF(ROUND((((N19-N15)/N15)*100),1)=0,"-  ",((N19-N15)/N15)*100)))</f>
-        <v xml:space="preserve">(-)  </v>
+        <v xml:space="preserve">(+)  </v>
       </c>
       <c r="O20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>-73.073577554646249</v>
+        <v>-58.741056715337194</v>
       </c>
       <c r="P20" s="68" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8466,21 +8506,21 @@
         <f ca="1">IF(((Q19-Q15)/Q15)*100&gt;100,"(+)  ",IF(((Q19-Q15)/Q15)*100&lt;-100,"(-)  ",IF(ROUND((((Q19-Q15)/Q15)*100),1)=0,"-  ",((Q19-Q15)/Q15)*100)))</f>
         <v xml:space="preserve">(-)  </v>
       </c>
-      <c r="R20" s="84" t="str">
-        <f>"-"</f>
-        <v>-</v>
+      <c r="R20" s="84">
+        <f ca="1">IF(((R19-R15)/R15)*100&gt;100,"(+)  ",IF(((R19-R15)/R15)*100&lt;-100,"(-)  ",IF(ROUND((((R19-R15)/R15)*100),1)=0,"-  ",((R19-R15)/R15)*100)))</f>
+        <v>-4.2655952514279178</v>
       </c>
       <c r="S20" s="68" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="T20" s="85" t="str">
-        <f>"-"</f>
-        <v>-</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">(+)  </v>
+      </c>
+      <c r="T20" s="85">
+        <f ca="1">IF(((T19-T15)/T15)*100&gt;100,"(+)  ",IF(((T19-T15)/T15)*100&lt;-100,"(-)  ",IF(ROUND((((T19-T15)/T15)*100),1)=0,"-  ",((T19-T15)/T15)*100)))</f>
+        <v>-34.203266483576513</v>
       </c>
       <c r="U20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>-70.52222316865398</v>
+        <v>-33.903548138221701</v>
       </c>
       <c r="V20" s="68" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8492,26 +8532,26 @@
       </c>
       <c r="X20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>44.36624685762964</v>
+        <v>1.6883953290481337</v>
       </c>
       <c r="Y20" s="68">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.253402076961123</v>
+        <v>-30.900624063430637</v>
       </c>
       <c r="Z20" s="85">
         <f ca="1">IF(((Z19-Z15)/Z15)*100&gt;100,"(+)  ",IF(((Z19-Z15)/Z15)*100&lt;-100,"(-)  ",IF(ROUND((((Z19-Z15)/Z15)*100),1)=0,"-  ",((Z19-Z15)/Z15)*100)))</f>
-        <v>51.749175049487029</v>
+        <v>1.9722889588353085</v>
       </c>
       <c r="AA20" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>-80.385260340714055</v>
+        <v>-13.938088525911423</v>
       </c>
       <c r="AB20" s="68">
         <f ca="1">IF(((AB19-AB15)/AB15)*100&gt;100,"(+)  ",IF(((AB19-AB15)/AB15)*100&lt;-100,"(-)  ",IF(ROUND((((AB19-AB15)/AB15)*100),1)=0,"-  ",((AB19-AB15)/AB15)*100)))</f>
-        <v>85.741812372966706</v>
+        <v>22.94017614745238</v>
       </c>
       <c r="AC20" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD20" s="43"/>
       <c r="AE20" s="44"/>
@@ -8637,7 +8677,7 @@
       <c r="H25" s="52"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="K25" s="149"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="53"/>
       <c r="M25" s="53"/>
       <c r="N25" s="52"/>
@@ -8677,7 +8717,10 @@
       <c r="S26" s="53"/>
       <c r="T26" s="52"/>
       <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
+      <c r="V26" s="53">
+        <f ca="1">((W9-W8)/W8)*100</f>
+        <v>-121.73677314088324</v>
+      </c>
       <c r="W26" s="52"/>
       <c r="X26" s="53"/>
       <c r="Y26" s="53"/>
@@ -8717,7 +8760,7 @@
     </row>
     <row r="28" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="C28" s="53"/>
-      <c r="D28" s="145"/>
+      <c r="D28" s="143"/>
       <c r="E28" s="52"/>
       <c r="F28" s="53"/>
       <c r="G28" s="53"/>
@@ -8775,7 +8818,7 @@
     </row>
     <row r="30" spans="1:45" ht="18" x14ac:dyDescent="0.25">
       <c r="C30" s="53"/>
-      <c r="D30" s="145"/>
+      <c r="D30" s="143"/>
       <c r="E30" s="52"/>
       <c r="F30" s="53"/>
       <c r="G30" s="53"/>
@@ -9023,7 +9066,9 @@
   </sheetPr>
   <dimension ref="A1:AB213"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9033,7 +9078,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9120,7 +9165,7 @@
       <c r="Y5" s="112"/>
       <c r="Z5" s="70"/>
       <c r="AA5" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB5" s="111"/>
     </row>
@@ -9129,13 +9174,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="D6" s="116" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="116" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="116" t="s">
         <v>80</v>
@@ -9165,22 +9210,22 @@
         <v>94</v>
       </c>
       <c r="N6" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="116" t="s">
+      <c r="P6" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="P6" s="116" t="s">
+      <c r="Q6" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="Q6" s="116" t="s">
+      <c r="R6" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="R6" s="116" t="s">
+      <c r="S6" s="116" t="s">
         <v>129</v>
-      </c>
-      <c r="S6" s="116" t="s">
-        <v>130</v>
       </c>
       <c r="T6" s="116" t="s">
         <v>101</v>
@@ -9192,13 +9237,13 @@
         <v>103</v>
       </c>
       <c r="W6" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="X6" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="X6" s="75" t="s">
+      <c r="Y6" s="116" t="s">
         <v>132</v>
-      </c>
-      <c r="Y6" s="116" t="s">
-        <v>133</v>
       </c>
       <c r="Z6" s="75" t="s">
         <v>108</v>
@@ -11579,138 +11624,230 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="136">
+      <c r="A30" s="122">
         <v>2021</v>
       </c>
-      <c r="B30" s="137">
+      <c r="B30" s="135">
         <f>SUM(Quarter!C99:C102)</f>
         <v>15152.031000000001</v>
       </c>
-      <c r="C30" s="137">
+      <c r="C30" s="135">
         <f>SUM(Quarter!D99:D102)</f>
         <v>1478.4314999999999</v>
       </c>
-      <c r="D30" s="137">
+      <c r="D30" s="135">
         <f>SUM(Quarter!E99:E102)</f>
         <v>13673.5995</v>
       </c>
-      <c r="E30" s="137">
+      <c r="E30" s="135">
         <f>SUM(Quarter!F99:F102)</f>
         <v>324.6456</v>
       </c>
-      <c r="F30" s="137">
+      <c r="F30" s="135">
         <f>SUM(Quarter!G99:G102)</f>
         <v>1417.0004999999999</v>
       </c>
-      <c r="G30" s="137">
+      <c r="G30" s="135">
         <f>SUM(Quarter!H99:H102)</f>
         <v>-1092.3549</v>
       </c>
-      <c r="H30" s="137">
+      <c r="H30" s="135">
         <f>SUM(Quarter!I99:I102)</f>
         <v>4340.6064999999999</v>
       </c>
-      <c r="I30" s="137">
+      <c r="I30" s="135">
         <f>SUM(Quarter!J99:J102)</f>
         <v>77.294499999999999</v>
       </c>
-      <c r="J30" s="137">
+      <c r="J30" s="135">
         <f>SUM(Quarter!K99:K102)</f>
         <v>4263.3119999999999</v>
       </c>
-      <c r="K30" s="137">
+      <c r="K30" s="135">
         <f>SUM(Quarter!L99:L102)</f>
         <v>537.69749999999999</v>
       </c>
-      <c r="L30" s="137">
+      <c r="L30" s="135">
         <f>SUM(Quarter!M99:M102)</f>
         <v>1034.9150000000002</v>
       </c>
-      <c r="M30" s="137">
+      <c r="M30" s="135">
         <f>SUM(Quarter!N99:N102)</f>
         <v>-497.21749999999997</v>
       </c>
-      <c r="N30" s="137">
+      <c r="N30" s="135">
         <f>SUM(Quarter!O99:O102)</f>
         <v>6995.0134999999991</v>
       </c>
-      <c r="O30" s="137">
+      <c r="O30" s="135">
         <f>SUM(Quarter!P99:P102)</f>
         <v>137.7115</v>
       </c>
-      <c r="P30" s="137">
+      <c r="P30" s="135">
         <f>SUM(Quarter!Q99:Q102)</f>
         <v>6857.3020000000006</v>
       </c>
-      <c r="Q30" s="137">
+      <c r="Q30" s="135">
         <f>SUM(Quarter!R99:R102)</f>
         <v>1392.924</v>
       </c>
-      <c r="R30" s="137">
+      <c r="R30" s="135">
         <f>SUM(Quarter!S99:S102)</f>
         <v>20.194000000000003</v>
       </c>
-      <c r="S30" s="137">
+      <c r="S30" s="135">
         <f>SUM(Quarter!T99:T102)</f>
         <v>1372.73</v>
       </c>
-      <c r="T30" s="137">
+      <c r="T30" s="135">
         <f>SUM(Quarter!U99:U102)</f>
         <v>28742.918100000003</v>
       </c>
-      <c r="U30" s="137">
+      <c r="U30" s="135">
         <f>SUM(Quarter!V99:V102)</f>
         <v>4165.5470000000005</v>
       </c>
-      <c r="V30" s="137">
+      <c r="V30" s="135">
         <f>SUM(Quarter!W99:W102)</f>
         <v>24577.371099999997</v>
       </c>
-      <c r="W30" s="137">
+      <c r="W30" s="135">
         <f>SUM(Quarter!X99:X102)</f>
         <v>16034.534</v>
       </c>
-      <c r="X30" s="137">
+      <c r="X30" s="135">
         <f>SUM(Quarter!Y99:Y102)</f>
         <v>872.31700000000001</v>
       </c>
-      <c r="Y30" s="137">
+      <c r="Y30" s="135">
         <f>SUM(Quarter!Z99:Z102)</f>
         <v>15162.217000000001</v>
       </c>
-      <c r="Z30" s="137">
+      <c r="Z30" s="135">
         <f>SUM(Quarter!AA99:AA102)</f>
         <v>1637.2750000000001</v>
       </c>
-      <c r="AA30" s="137">
+      <c r="AA30" s="135">
         <f>SUM(Quarter!AB99:AB102)</f>
         <v>771.85550000000001</v>
       </c>
-      <c r="AB30" s="137">
+      <c r="AB30" s="135">
         <f>SUM(Quarter!AC99:AC102)</f>
         <v>865.4195000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="138"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
+    <row r="31" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="136">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="137">
+        <f>SUM(Quarter!C103:C106)</f>
+        <v>2736.5605</v>
+      </c>
+      <c r="C31" s="137">
+        <f>SUM(Quarter!D103:D106)</f>
+        <v>12752.901000000002</v>
+      </c>
+      <c r="D31" s="137">
+        <f>SUM(Quarter!E103:E106)</f>
+        <v>-10016.3405</v>
+      </c>
+      <c r="E31" s="137">
+        <f>SUM(Quarter!F103:F106)</f>
+        <v>336.29340000000002</v>
+      </c>
+      <c r="F31" s="137">
+        <f>SUM(Quarter!G103:G106)</f>
+        <v>1168.8388</v>
+      </c>
+      <c r="G31" s="137">
+        <f>SUM(Quarter!H103:H106)</f>
+        <v>-832.54539999999997</v>
+      </c>
+      <c r="H31" s="137">
+        <f>SUM(Quarter!I103:I106)</f>
+        <v>3610.1674999999996</v>
+      </c>
+      <c r="I31" s="137">
+        <f>SUM(Quarter!J103:J106)</f>
+        <v>2157.6605</v>
+      </c>
+      <c r="J31" s="137">
+        <f>SUM(Quarter!K103:K106)</f>
+        <v>1452.5069999999998</v>
+      </c>
+      <c r="K31" s="137">
+        <f>SUM(Quarter!L103:L106)</f>
+        <v>990.10149999999999</v>
+      </c>
+      <c r="L31" s="137">
+        <f>SUM(Quarter!M103:M106)</f>
+        <v>383.76299999999992</v>
+      </c>
+      <c r="M31" s="137">
+        <f>SUM(Quarter!N103:N106)</f>
+        <v>606.33850000000007</v>
+      </c>
+      <c r="N31" s="137">
+        <f>SUM(Quarter!O103:O106)</f>
+        <v>3230.4425000000001</v>
+      </c>
+      <c r="O31" s="137">
+        <f>SUM(Quarter!P103:P106)</f>
+        <v>2568.0315000000001</v>
+      </c>
+      <c r="P31" s="137">
+        <f>SUM(Quarter!Q103:Q106)</f>
+        <v>662.41100000000029</v>
+      </c>
+      <c r="Q31" s="137">
+        <f>SUM(Quarter!R103:R106)</f>
+        <v>4546.9755000000005</v>
+      </c>
+      <c r="R31" s="137">
+        <f>SUM(Quarter!S103:S106)</f>
+        <v>1761.6735000000001</v>
+      </c>
+      <c r="S31" s="137">
+        <f>SUM(Quarter!T103:T106)</f>
+        <v>2785.3020000000001</v>
+      </c>
+      <c r="T31" s="137">
+        <f>SUM(Quarter!U103:U106)</f>
+        <v>15450.5409</v>
+      </c>
+      <c r="U31" s="137">
+        <f>SUM(Quarter!V103:V106)</f>
+        <v>20792.868300000002</v>
+      </c>
+      <c r="V31" s="137">
+        <f>SUM(Quarter!W103:W106)</f>
+        <v>-5342.3273999999992</v>
+      </c>
+      <c r="W31" s="137">
+        <f>SUM(Quarter!X103:X106)</f>
+        <v>19463.951000000001</v>
+      </c>
+      <c r="X31" s="137">
+        <f>SUM(Quarter!Y103:Y106)</f>
+        <v>438.02</v>
+      </c>
+      <c r="Y31" s="137">
+        <f>SUM(Quarter!Z103:Z106)</f>
+        <v>19025.931</v>
+      </c>
+      <c r="Z31" s="137">
+        <f>SUM(Quarter!AA103:AA106)</f>
+        <v>796.6105</v>
+      </c>
+      <c r="AA31" s="137">
+        <f>SUM(Quarter!AB103:AB106)</f>
+        <v>1073.6635000000001</v>
+      </c>
+      <c r="AB31" s="137">
+        <f>SUM(Quarter!AC103:AC106)</f>
+        <v>-277.053</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="138"/>
@@ -11733,7 +11870,7 @@
       <c r="S32" s="95"/>
       <c r="T32" s="95"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="138"/>
       <c r="B33" s="94"/>
       <c r="C33" s="94"/>
@@ -11754,28 +11891,118 @@
       <c r="S33" s="95"/>
       <c r="T33" s="95"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="138"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="126"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="97">
+        <f t="shared" ref="B34:O34" si="0">(B31-B30)/B30</f>
+        <v>-0.81939315594061291</v>
+      </c>
+      <c r="C34" s="97">
+        <f t="shared" si="0"/>
+        <v>7.6259667762760746</v>
+      </c>
+      <c r="D34" s="97">
+        <f t="shared" si="0"/>
+        <v>-1.7325313645466947</v>
+      </c>
+      <c r="E34" s="97">
+        <f t="shared" si="0"/>
+        <v>3.5878508749233068E-2</v>
+      </c>
+      <c r="F34" s="97">
+        <f t="shared" si="0"/>
+        <v>-0.17513169543694579</v>
+      </c>
+      <c r="G34" s="97">
+        <f t="shared" si="0"/>
+        <v>-0.23784348841205369</v>
+      </c>
+      <c r="H34" s="97">
+        <f t="shared" si="0"/>
+        <v>-0.16828040044634324</v>
+      </c>
+      <c r="I34" s="97">
+        <f t="shared" si="0"/>
+        <v>26.914799888737232</v>
+      </c>
+      <c r="J34" s="97">
+        <f t="shared" si="0"/>
+        <v>-0.65930079712674095</v>
+      </c>
+      <c r="K34" s="97">
+        <f t="shared" si="0"/>
+        <v>0.84137270491307847</v>
+      </c>
+      <c r="L34" s="97">
+        <f t="shared" si="0"/>
+        <v>-0.62918403926892563</v>
+      </c>
+      <c r="M34" s="97">
+        <f t="shared" si="0"/>
+        <v>-2.2194633133387303</v>
+      </c>
+      <c r="N34" s="97">
+        <f t="shared" si="0"/>
+        <v>-0.53817923296359604</v>
+      </c>
+      <c r="O34" s="97">
+        <f t="shared" si="0"/>
+        <v>17.647908852928044</v>
+      </c>
+      <c r="P34" s="97">
+        <f>(P31-P30)/P30</f>
+        <v>-0.90340063774353241</v>
+      </c>
+      <c r="Q34" s="97">
+        <f t="shared" ref="Q34:AB34" si="1">(Q31-Q30)/Q30</f>
+        <v>2.2643385425191904</v>
+      </c>
+      <c r="R34" s="97">
+        <f t="shared" si="1"/>
+        <v>86.23747152619589</v>
+      </c>
+      <c r="S34" s="97">
+        <f t="shared" si="1"/>
+        <v>1.0290239158465249</v>
+      </c>
+      <c r="T34" s="97">
+        <f t="shared" si="1"/>
+        <v>-0.46245747052384362</v>
+      </c>
+      <c r="U34" s="97">
+        <f t="shared" si="1"/>
+        <v>3.9916297427444705</v>
+      </c>
+      <c r="V34" s="97">
+        <f t="shared" si="1"/>
+        <v>-1.2173677314088325</v>
+      </c>
+      <c r="W34" s="97">
+        <f t="shared" si="1"/>
+        <v>0.21387693586854481</v>
+      </c>
+      <c r="X34" s="97">
+        <f t="shared" si="1"/>
+        <v>-0.49786602806089991</v>
+      </c>
+      <c r="Y34" s="97">
+        <f t="shared" si="1"/>
+        <v>0.2548251354007135</v>
+      </c>
+      <c r="Z34" s="97">
+        <f t="shared" si="1"/>
+        <v>-0.51345345161930644</v>
+      </c>
+      <c r="AA34" s="97">
+        <f t="shared" si="1"/>
+        <v>0.39101619409332461</v>
+      </c>
+      <c r="AB34" s="97">
+        <f t="shared" si="1"/>
+        <v>-1.3201372282459547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="138"/>
       <c r="B35" s="94"/>
       <c r="C35" s="126"/>
@@ -11797,7 +12024,7 @@
       <c r="S35" s="94"/>
       <c r="T35" s="126"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="138"/>
       <c r="B36" s="98"/>
       <c r="C36" s="126"/>
@@ -11819,7 +12046,7 @@
       <c r="S36" s="94"/>
       <c r="T36" s="126"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="138"/>
       <c r="B37" s="126"/>
       <c r="C37" s="126"/>
@@ -11841,7 +12068,7 @@
       <c r="S37" s="126"/>
       <c r="T37" s="126"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="138"/>
       <c r="B38" s="95"/>
       <c r="C38" s="126"/>
@@ -11863,7 +12090,7 @@
       <c r="S38" s="126"/>
       <c r="T38" s="126"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="138"/>
       <c r="B39" s="95"/>
       <c r="C39" s="126"/>
@@ -11885,7 +12112,7 @@
       <c r="S39" s="126"/>
       <c r="T39" s="126"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="138"/>
       <c r="B40" s="126"/>
       <c r="C40" s="126"/>
@@ -11907,7 +12134,7 @@
       <c r="S40" s="126"/>
       <c r="T40" s="126"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="138"/>
       <c r="C41" s="126"/>
       <c r="D41" s="126"/>
@@ -11928,7 +12155,7 @@
       <c r="S41" s="126"/>
       <c r="T41" s="126"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="138"/>
       <c r="B42" s="126"/>
       <c r="C42" s="126"/>
@@ -11950,7 +12177,7 @@
       <c r="S42" s="126"/>
       <c r="T42" s="126"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="138"/>
       <c r="B43" s="126"/>
       <c r="C43" s="126"/>
@@ -11972,7 +12199,7 @@
       <c r="S43" s="126"/>
       <c r="T43" s="126"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="138"/>
       <c r="B44" s="126"/>
       <c r="C44" s="126"/>
@@ -11994,7 +12221,7 @@
       <c r="S44" s="126"/>
       <c r="T44" s="126"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="138"/>
       <c r="B45" s="126"/>
       <c r="C45" s="126"/>
@@ -12016,7 +12243,7 @@
       <c r="S45" s="126"/>
       <c r="T45" s="126"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="127"/>
       <c r="B46" s="126"/>
       <c r="C46" s="126"/>
@@ -12038,7 +12265,7 @@
       <c r="S46" s="126"/>
       <c r="T46" s="126"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="127"/>
       <c r="B47" s="126"/>
       <c r="C47" s="126"/>
@@ -12060,7 +12287,7 @@
       <c r="S47" s="126"/>
       <c r="T47" s="126"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="127"/>
       <c r="B48" s="126"/>
       <c r="C48" s="126"/>
@@ -15719,9 +15946,10 @@
   <dimension ref="A1:AJ228"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -15740,7 +15968,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -15828,7 +16056,7 @@
       <c r="Z5" s="112"/>
       <c r="AA5" s="70"/>
       <c r="AB5" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC5" s="111"/>
     </row>
@@ -15840,13 +16068,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="E6" s="116" t="s">
         <v>123</v>
-      </c>
-      <c r="E6" s="116" t="s">
-        <v>124</v>
       </c>
       <c r="F6" s="116" t="s">
         <v>80</v>
@@ -15876,22 +16104,22 @@
         <v>94</v>
       </c>
       <c r="O6" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="116" t="s">
+      <c r="Q6" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" s="116" t="s">
+      <c r="R6" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="R6" s="116" t="s">
+      <c r="S6" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="S6" s="116" t="s">
+      <c r="T6" s="116" t="s">
         <v>129</v>
-      </c>
-      <c r="T6" s="116" t="s">
-        <v>130</v>
       </c>
       <c r="U6" s="116" t="s">
         <v>101</v>
@@ -15903,13 +16131,13 @@
         <v>103</v>
       </c>
       <c r="X6" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y6" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="Y6" s="75" t="s">
+      <c r="Z6" s="116" t="s">
         <v>132</v>
-      </c>
-      <c r="Z6" s="116" t="s">
-        <v>133</v>
       </c>
       <c r="AA6" s="75" t="s">
         <v>108</v>
@@ -24694,7 +24922,7 @@
       <c r="H104" s="119">
         <v>-282.03399999999999</v>
       </c>
-      <c r="I104" s="148">
+      <c r="I104" s="146">
         <v>608.04999999999995</v>
       </c>
       <c r="J104" s="119">
@@ -24758,12 +24986,12 @@
         <v>-30.316499999999991</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="118">
         <v>2022</v>
       </c>
       <c r="B105" s="125" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C105" s="119">
         <v>190.483</v>
@@ -24783,7 +25011,7 @@
       <c r="H105" s="119">
         <v>-206.21499999999997</v>
       </c>
-      <c r="I105" s="148">
+      <c r="I105" s="146">
         <v>682.28250000000003</v>
       </c>
       <c r="J105" s="119">
@@ -24847,28 +25075,94 @@
         <v>-49.8125</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A106" s="127"/>
-      <c r="B106" s="128"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="126"/>
-      <c r="E106" s="126"/>
-      <c r="F106" s="126"/>
-      <c r="G106" s="126"/>
-      <c r="H106" s="126"/>
-      <c r="I106" s="101"/>
-      <c r="J106" s="126"/>
-      <c r="K106" s="126"/>
-      <c r="L106" s="126"/>
-      <c r="M106" s="126"/>
-      <c r="N106" s="126"/>
-      <c r="O106" s="126"/>
-      <c r="P106" s="126"/>
-      <c r="Q106" s="126"/>
-      <c r="R106" s="126"/>
-      <c r="S106" s="126"/>
-      <c r="T106" s="126"/>
-      <c r="U106" s="126"/>
+    <row r="106" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="118">
+        <v>2022</v>
+      </c>
+      <c r="B106" s="125" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="119">
+        <v>1018.8895</v>
+      </c>
+      <c r="D106" s="119">
+        <v>3471.1770000000006</v>
+      </c>
+      <c r="E106" s="119">
+        <v>-2452.2875000000004</v>
+      </c>
+      <c r="F106" s="119">
+        <v>128.69319999999999</v>
+      </c>
+      <c r="G106" s="119">
+        <v>277.05759999999998</v>
+      </c>
+      <c r="H106" s="119">
+        <v>-148.36439999999999</v>
+      </c>
+      <c r="I106" s="146">
+        <v>722.25299999999993</v>
+      </c>
+      <c r="J106" s="119">
+        <v>617.66</v>
+      </c>
+      <c r="K106" s="119">
+        <v>104.59300000000002</v>
+      </c>
+      <c r="L106" s="119">
+        <v>288.28699999999998</v>
+      </c>
+      <c r="M106" s="119">
+        <v>120.66449999999999</v>
+      </c>
+      <c r="N106" s="119">
+        <v>167.6225</v>
+      </c>
+      <c r="O106" s="119">
+        <v>617.67650000000003</v>
+      </c>
+      <c r="P106" s="119">
+        <v>662.69549999999992</v>
+      </c>
+      <c r="Q106" s="119">
+        <v>-45.018999999999949</v>
+      </c>
+      <c r="R106" s="119">
+        <v>1333.5075000000002</v>
+      </c>
+      <c r="S106" s="119">
+        <v>430.29599999999999</v>
+      </c>
+      <c r="T106" s="119">
+        <v>903.21150000000011</v>
+      </c>
+      <c r="U106" s="119">
+        <v>4109.3067000000001</v>
+      </c>
+      <c r="V106" s="119">
+        <v>5579.5506000000005</v>
+      </c>
+      <c r="W106" s="119">
+        <v>-1470.2438999999995</v>
+      </c>
+      <c r="X106" s="119">
+        <v>6207.5625</v>
+      </c>
+      <c r="Y106" s="119">
+        <v>36.4285</v>
+      </c>
+      <c r="Z106" s="119">
+        <v>6171.134</v>
+      </c>
+      <c r="AA106" s="119">
+        <v>244.529</v>
+      </c>
+      <c r="AB106" s="119">
+        <v>367.25550000000004</v>
+      </c>
+      <c r="AC106" s="119">
+        <v>-122.72650000000004</v>
+      </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="127"/>
@@ -27674,7 +27968,7 @@
   <dimension ref="B2:AI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27716,7 +28010,7 @@
         <v>2022</v>
       </c>
       <c r="C4" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.2">
@@ -28000,244 +28294,244 @@
         <v>15</v>
       </c>
       <c r="D11" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="str">
         <f>$C$11&amp;"r"&amp;$D11&amp;"c"&amp;F$10</f>
-        <v>Annual!r29c1</v>
+        <v>Annual!r30c1</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="str">
         <f t="shared" ref="I11:AB12" si="0">$C$11&amp;"r"&amp;$D11&amp;"c"&amp;I$10</f>
-        <v>Annual!r29c2</v>
+        <v>Annual!r30c2</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c3</v>
+        <v>Annual!r30c3</v>
       </c>
       <c r="K11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c4</v>
+        <v>Annual!r30c4</v>
       </c>
       <c r="L11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c5</v>
+        <v>Annual!r30c5</v>
       </c>
       <c r="M11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c6</v>
+        <v>Annual!r30c6</v>
       </c>
       <c r="N11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c7</v>
+        <v>Annual!r30c7</v>
       </c>
       <c r="O11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c8</v>
+        <v>Annual!r30c8</v>
       </c>
       <c r="P11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c9</v>
+        <v>Annual!r30c9</v>
       </c>
       <c r="Q11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c10</v>
+        <v>Annual!r30c10</v>
       </c>
       <c r="R11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c11</v>
+        <v>Annual!r30c11</v>
       </c>
       <c r="S11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c12</v>
+        <v>Annual!r30c12</v>
       </c>
       <c r="T11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c13</v>
+        <v>Annual!r30c13</v>
       </c>
       <c r="U11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c14</v>
+        <v>Annual!r30c14</v>
       </c>
       <c r="V11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c15</v>
+        <v>Annual!r30c15</v>
       </c>
       <c r="W11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c16</v>
+        <v>Annual!r30c16</v>
       </c>
       <c r="X11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c17</v>
+        <v>Annual!r30c17</v>
       </c>
       <c r="Y11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c18</v>
+        <v>Annual!r30c18</v>
       </c>
       <c r="Z11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c19</v>
+        <v>Annual!r30c19</v>
       </c>
       <c r="AA11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c20</v>
+        <v>Annual!r30c20</v>
       </c>
       <c r="AB11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r29c21</v>
+        <v>Annual!r30c21</v>
       </c>
       <c r="AC11" s="13" t="str">
         <f t="shared" ref="X11:AI12" si="1">$C$11&amp;"r"&amp;$D11&amp;"c"&amp;AC$10</f>
-        <v>Annual!r29c22</v>
+        <v>Annual!r30c22</v>
       </c>
       <c r="AD11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r29c23</v>
+        <v>Annual!r30c23</v>
       </c>
       <c r="AE11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r29c24</v>
+        <v>Annual!r30c24</v>
       </c>
       <c r="AF11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r29c25</v>
+        <v>Annual!r30c25</v>
       </c>
       <c r="AG11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r29c26</v>
+        <v>Annual!r30c26</v>
       </c>
       <c r="AH11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r29c27</v>
+        <v>Annual!r30c27</v>
       </c>
       <c r="AI11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r29c28</v>
+        <v>Annual!r30c28</v>
       </c>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="D12" s="15">
         <f>$D$11+1</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="str">
         <f>$C$11&amp;"r"&amp;$D12&amp;"c"&amp;F$10</f>
-        <v>Annual!r30c1</v>
+        <v>Annual!r31c1</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c2</v>
+        <v>Annual!r31c2</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c3</v>
+        <v>Annual!r31c3</v>
       </c>
       <c r="K12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c4</v>
+        <v>Annual!r31c4</v>
       </c>
       <c r="L12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c5</v>
+        <v>Annual!r31c5</v>
       </c>
       <c r="M12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c6</v>
+        <v>Annual!r31c6</v>
       </c>
       <c r="N12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c7</v>
+        <v>Annual!r31c7</v>
       </c>
       <c r="O12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c8</v>
+        <v>Annual!r31c8</v>
       </c>
       <c r="P12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c9</v>
+        <v>Annual!r31c9</v>
       </c>
       <c r="Q12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c10</v>
+        <v>Annual!r31c10</v>
       </c>
       <c r="R12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c11</v>
+        <v>Annual!r31c11</v>
       </c>
       <c r="S12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c12</v>
+        <v>Annual!r31c12</v>
       </c>
       <c r="T12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c13</v>
+        <v>Annual!r31c13</v>
       </c>
       <c r="U12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c14</v>
+        <v>Annual!r31c14</v>
       </c>
       <c r="V12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c15</v>
+        <v>Annual!r31c15</v>
       </c>
       <c r="W12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Annual!r30c16</v>
+        <v>Annual!r31c16</v>
       </c>
       <c r="X12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c17</v>
+        <v>Annual!r31c17</v>
       </c>
       <c r="Y12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c18</v>
+        <v>Annual!r31c18</v>
       </c>
       <c r="Z12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c19</v>
+        <v>Annual!r31c19</v>
       </c>
       <c r="AA12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c20</v>
+        <v>Annual!r31c20</v>
       </c>
       <c r="AB12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c21</v>
+        <v>Annual!r31c21</v>
       </c>
       <c r="AC12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c22</v>
+        <v>Annual!r31c22</v>
       </c>
       <c r="AD12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c23</v>
+        <v>Annual!r31c23</v>
       </c>
       <c r="AE12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c24</v>
+        <v>Annual!r31c24</v>
       </c>
       <c r="AF12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c25</v>
+        <v>Annual!r31c25</v>
       </c>
       <c r="AG12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c26</v>
+        <v>Annual!r31c26</v>
       </c>
       <c r="AH12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c27</v>
+        <v>Annual!r31c27</v>
       </c>
       <c r="AI12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>Annual!r30c28</v>
+        <v>Annual!r31c28</v>
       </c>
     </row>
     <row r="13" spans="2:35" x14ac:dyDescent="0.2">
@@ -28368,123 +28662,123 @@
       </c>
       <c r="D15" s="18">
         <f>($B$4-1998)*4+$C$4-3</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" ref="F15:F27" si="2">$C$15&amp;"r"&amp;D15&amp;"c"&amp;$F$13</f>
-        <v>Quarter!r96c1</v>
+        <v>Quarter!r97c1</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$15&amp;"c"&amp;G13</f>
-        <v>Quarter!r96c2</v>
+        <v>Quarter!r97c2</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" ref="I15:AI15" si="3">$C$15&amp;"r"&amp;$D$15&amp;"c"&amp;I13</f>
-        <v>Quarter!r96c3</v>
+        <v>Quarter!r97c3</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c4</v>
+        <v>Quarter!r97c4</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c5</v>
+        <v>Quarter!r97c5</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c6</v>
+        <v>Quarter!r97c6</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c7</v>
+        <v>Quarter!r97c7</v>
       </c>
       <c r="N15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c8</v>
+        <v>Quarter!r97c8</v>
       </c>
       <c r="O15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c9</v>
+        <v>Quarter!r97c9</v>
       </c>
       <c r="P15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c10</v>
+        <v>Quarter!r97c10</v>
       </c>
       <c r="Q15" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$15&amp;"c"&amp;Q13</f>
-        <v>Quarter!r96c11</v>
+        <v>Quarter!r97c11</v>
       </c>
       <c r="R15" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$15&amp;"c"&amp;R13</f>
-        <v>Quarter!r96c12</v>
+        <v>Quarter!r97c12</v>
       </c>
       <c r="S15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c13</v>
+        <v>Quarter!r97c13</v>
       </c>
       <c r="T15" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c14</v>
+        <v>Quarter!r97c14</v>
       </c>
       <c r="U15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c15</v>
+        <v>Quarter!r97c15</v>
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c16</v>
+        <v>Quarter!r97c16</v>
       </c>
       <c r="W15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c17</v>
+        <v>Quarter!r97c17</v>
       </c>
       <c r="X15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c18</v>
+        <v>Quarter!r97c18</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c19</v>
+        <v>Quarter!r97c19</v>
       </c>
       <c r="Z15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c20</v>
+        <v>Quarter!r97c20</v>
       </c>
       <c r="AA15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c21</v>
+        <v>Quarter!r97c21</v>
       </c>
       <c r="AB15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c22</v>
+        <v>Quarter!r97c22</v>
       </c>
       <c r="AC15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c23</v>
+        <v>Quarter!r97c23</v>
       </c>
       <c r="AD15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c24</v>
+        <v>Quarter!r97c24</v>
       </c>
       <c r="AE15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c25</v>
+        <v>Quarter!r97c25</v>
       </c>
       <c r="AF15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c26</v>
+        <v>Quarter!r97c26</v>
       </c>
       <c r="AG15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c27</v>
+        <v>Quarter!r97c27</v>
       </c>
       <c r="AH15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c28</v>
+        <v>Quarter!r97c28</v>
       </c>
       <c r="AI15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Quarter!r96c29</v>
+        <v>Quarter!r97c29</v>
       </c>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.2">
@@ -28492,123 +28786,123 @@
       <c r="C16" s="2"/>
       <c r="D16" s="4">
         <f>D15+1</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r97c1</v>
+        <v>Quarter!r98c1</v>
       </c>
       <c r="G16" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$16&amp;"c"&amp;G13</f>
-        <v>Quarter!r97c2</v>
+        <v>Quarter!r98c2</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" ref="I16:AI16" si="4">$C$15&amp;"r"&amp;$D$16&amp;"c"&amp;I13</f>
-        <v>Quarter!r97c3</v>
+        <v>Quarter!r98c3</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c4</v>
+        <v>Quarter!r98c4</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c5</v>
+        <v>Quarter!r98c5</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c6</v>
+        <v>Quarter!r98c6</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c7</v>
+        <v>Quarter!r98c7</v>
       </c>
       <c r="N16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c8</v>
+        <v>Quarter!r98c8</v>
       </c>
       <c r="O16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c9</v>
+        <v>Quarter!r98c9</v>
       </c>
       <c r="P16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c10</v>
+        <v>Quarter!r98c10</v>
       </c>
       <c r="Q16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c11</v>
+        <v>Quarter!r98c11</v>
       </c>
       <c r="R16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c12</v>
+        <v>Quarter!r98c12</v>
       </c>
       <c r="S16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c13</v>
+        <v>Quarter!r98c13</v>
       </c>
       <c r="T16" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c14</v>
+        <v>Quarter!r98c14</v>
       </c>
       <c r="U16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c15</v>
+        <v>Quarter!r98c15</v>
       </c>
       <c r="V16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c16</v>
+        <v>Quarter!r98c16</v>
       </c>
       <c r="W16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c17</v>
+        <v>Quarter!r98c17</v>
       </c>
       <c r="X16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c18</v>
+        <v>Quarter!r98c18</v>
       </c>
       <c r="Y16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c19</v>
+        <v>Quarter!r98c19</v>
       </c>
       <c r="Z16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c20</v>
+        <v>Quarter!r98c20</v>
       </c>
       <c r="AA16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c21</v>
+        <v>Quarter!r98c21</v>
       </c>
       <c r="AB16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c22</v>
+        <v>Quarter!r98c22</v>
       </c>
       <c r="AC16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c23</v>
+        <v>Quarter!r98c23</v>
       </c>
       <c r="AD16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c24</v>
+        <v>Quarter!r98c24</v>
       </c>
       <c r="AE16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c25</v>
+        <v>Quarter!r98c25</v>
       </c>
       <c r="AF16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c26</v>
+        <v>Quarter!r98c26</v>
       </c>
       <c r="AG16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c27</v>
+        <v>Quarter!r98c27</v>
       </c>
       <c r="AH16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c28</v>
+        <v>Quarter!r98c28</v>
       </c>
       <c r="AI16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarter!r97c29</v>
+        <v>Quarter!r98c29</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.2">
@@ -28616,123 +28910,123 @@
       <c r="C17" s="2"/>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D27" si="5">D16+1</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r98c1</v>
+        <v>Quarter!r99c1</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$17&amp;"c"&amp;G13</f>
-        <v>Quarter!r98c2</v>
+        <v>Quarter!r99c2</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" ref="I17:AI17" si="6">$C$15&amp;"r"&amp;$D$17&amp;"c"&amp;I13</f>
-        <v>Quarter!r98c3</v>
+        <v>Quarter!r99c3</v>
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c4</v>
+        <v>Quarter!r99c4</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c5</v>
+        <v>Quarter!r99c5</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c6</v>
+        <v>Quarter!r99c6</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c7</v>
+        <v>Quarter!r99c7</v>
       </c>
       <c r="N17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c8</v>
+        <v>Quarter!r99c8</v>
       </c>
       <c r="O17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c9</v>
+        <v>Quarter!r99c9</v>
       </c>
       <c r="P17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c10</v>
+        <v>Quarter!r99c10</v>
       </c>
       <c r="Q17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c11</v>
+        <v>Quarter!r99c11</v>
       </c>
       <c r="R17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c12</v>
+        <v>Quarter!r99c12</v>
       </c>
       <c r="S17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c13</v>
+        <v>Quarter!r99c13</v>
       </c>
       <c r="T17" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c14</v>
+        <v>Quarter!r99c14</v>
       </c>
       <c r="U17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c15</v>
+        <v>Quarter!r99c15</v>
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c16</v>
+        <v>Quarter!r99c16</v>
       </c>
       <c r="W17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c17</v>
+        <v>Quarter!r99c17</v>
       </c>
       <c r="X17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c18</v>
+        <v>Quarter!r99c18</v>
       </c>
       <c r="Y17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c19</v>
+        <v>Quarter!r99c19</v>
       </c>
       <c r="Z17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c20</v>
+        <v>Quarter!r99c20</v>
       </c>
       <c r="AA17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c21</v>
+        <v>Quarter!r99c21</v>
       </c>
       <c r="AB17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c22</v>
+        <v>Quarter!r99c22</v>
       </c>
       <c r="AC17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c23</v>
+        <v>Quarter!r99c23</v>
       </c>
       <c r="AD17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c24</v>
+        <v>Quarter!r99c24</v>
       </c>
       <c r="AE17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c25</v>
+        <v>Quarter!r99c25</v>
       </c>
       <c r="AF17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c26</v>
+        <v>Quarter!r99c26</v>
       </c>
       <c r="AG17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c27</v>
+        <v>Quarter!r99c27</v>
       </c>
       <c r="AH17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c28</v>
+        <v>Quarter!r99c28</v>
       </c>
       <c r="AI17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Quarter!r98c29</v>
+        <v>Quarter!r99c29</v>
       </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.2">
@@ -28740,123 +29034,123 @@
       <c r="C18" s="2"/>
       <c r="D18" s="4">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r99c1</v>
+        <v>Quarter!r100c1</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$18&amp;"c"&amp;G13</f>
-        <v>Quarter!r99c2</v>
+        <v>Quarter!r100c2</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" ref="I18:AI18" si="7">$C$15&amp;"r"&amp;$D$18&amp;"c"&amp;I13</f>
-        <v>Quarter!r99c3</v>
+        <v>Quarter!r100c3</v>
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c4</v>
+        <v>Quarter!r100c4</v>
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c5</v>
+        <v>Quarter!r100c5</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c6</v>
+        <v>Quarter!r100c6</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c7</v>
+        <v>Quarter!r100c7</v>
       </c>
       <c r="N18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c8</v>
+        <v>Quarter!r100c8</v>
       </c>
       <c r="O18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c9</v>
+        <v>Quarter!r100c9</v>
       </c>
       <c r="P18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c10</v>
+        <v>Quarter!r100c10</v>
       </c>
       <c r="Q18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c11</v>
+        <v>Quarter!r100c11</v>
       </c>
       <c r="R18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c12</v>
+        <v>Quarter!r100c12</v>
       </c>
       <c r="S18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c13</v>
+        <v>Quarter!r100c13</v>
       </c>
       <c r="T18" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c14</v>
+        <v>Quarter!r100c14</v>
       </c>
       <c r="U18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c15</v>
+        <v>Quarter!r100c15</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c16</v>
+        <v>Quarter!r100c16</v>
       </c>
       <c r="W18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c17</v>
+        <v>Quarter!r100c17</v>
       </c>
       <c r="X18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c18</v>
+        <v>Quarter!r100c18</v>
       </c>
       <c r="Y18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c19</v>
+        <v>Quarter!r100c19</v>
       </c>
       <c r="Z18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c20</v>
+        <v>Quarter!r100c20</v>
       </c>
       <c r="AA18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c21</v>
+        <v>Quarter!r100c21</v>
       </c>
       <c r="AB18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c22</v>
+        <v>Quarter!r100c22</v>
       </c>
       <c r="AC18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c23</v>
+        <v>Quarter!r100c23</v>
       </c>
       <c r="AD18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c24</v>
+        <v>Quarter!r100c24</v>
       </c>
       <c r="AE18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c25</v>
+        <v>Quarter!r100c25</v>
       </c>
       <c r="AF18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c26</v>
+        <v>Quarter!r100c26</v>
       </c>
       <c r="AG18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c27</v>
+        <v>Quarter!r100c27</v>
       </c>
       <c r="AH18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c28</v>
+        <v>Quarter!r100c28</v>
       </c>
       <c r="AI18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>Quarter!r99c29</v>
+        <v>Quarter!r100c29</v>
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.2">
@@ -28864,123 +29158,123 @@
       <c r="C19" s="2"/>
       <c r="D19" s="4">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r100c1</v>
+        <v>Quarter!r101c1</v>
       </c>
       <c r="G19" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$19&amp;"c"&amp;G13</f>
-        <v>Quarter!r100c2</v>
+        <v>Quarter!r101c2</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" ref="I19:AI19" si="8">$C$15&amp;"r"&amp;$D$19&amp;"c"&amp;I13</f>
-        <v>Quarter!r100c3</v>
+        <v>Quarter!r101c3</v>
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c4</v>
+        <v>Quarter!r101c4</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c5</v>
+        <v>Quarter!r101c5</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c6</v>
+        <v>Quarter!r101c6</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c7</v>
+        <v>Quarter!r101c7</v>
       </c>
       <c r="N19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c8</v>
+        <v>Quarter!r101c8</v>
       </c>
       <c r="O19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c9</v>
+        <v>Quarter!r101c9</v>
       </c>
       <c r="P19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c10</v>
+        <v>Quarter!r101c10</v>
       </c>
       <c r="Q19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c11</v>
+        <v>Quarter!r101c11</v>
       </c>
       <c r="R19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c12</v>
+        <v>Quarter!r101c12</v>
       </c>
       <c r="S19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c13</v>
+        <v>Quarter!r101c13</v>
       </c>
       <c r="T19" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c14</v>
+        <v>Quarter!r101c14</v>
       </c>
       <c r="U19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c15</v>
+        <v>Quarter!r101c15</v>
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c16</v>
+        <v>Quarter!r101c16</v>
       </c>
       <c r="W19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c17</v>
+        <v>Quarter!r101c17</v>
       </c>
       <c r="X19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c18</v>
+        <v>Quarter!r101c18</v>
       </c>
       <c r="Y19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c19</v>
+        <v>Quarter!r101c19</v>
       </c>
       <c r="Z19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c20</v>
+        <v>Quarter!r101c20</v>
       </c>
       <c r="AA19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c21</v>
+        <v>Quarter!r101c21</v>
       </c>
       <c r="AB19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c22</v>
+        <v>Quarter!r101c22</v>
       </c>
       <c r="AC19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c23</v>
+        <v>Quarter!r101c23</v>
       </c>
       <c r="AD19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c24</v>
+        <v>Quarter!r101c24</v>
       </c>
       <c r="AE19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c25</v>
+        <v>Quarter!r101c25</v>
       </c>
       <c r="AF19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c26</v>
+        <v>Quarter!r101c26</v>
       </c>
       <c r="AG19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c27</v>
+        <v>Quarter!r101c27</v>
       </c>
       <c r="AH19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c28</v>
+        <v>Quarter!r101c28</v>
       </c>
       <c r="AI19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>Quarter!r100c29</v>
+        <v>Quarter!r101c29</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.2">
@@ -28988,369 +29282,369 @@
       <c r="C20" s="2"/>
       <c r="D20" s="4">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>$C$15&amp;"r"&amp;D20&amp;"c"&amp;$F$13</f>
-        <v>Quarter!r101c1</v>
+        <v>Quarter!r102c1</v>
       </c>
       <c r="G20" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$20&amp;"c"&amp;G13</f>
-        <v>Quarter!r101c2</v>
+        <v>Quarter!r102c2</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" ref="I20:AI20" si="9">$C$15&amp;"r"&amp;$D$20&amp;"c"&amp;I13</f>
-        <v>Quarter!r101c3</v>
+        <v>Quarter!r102c3</v>
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c4</v>
+        <v>Quarter!r102c4</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c5</v>
+        <v>Quarter!r102c5</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c6</v>
+        <v>Quarter!r102c6</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c7</v>
+        <v>Quarter!r102c7</v>
       </c>
       <c r="N20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c8</v>
+        <v>Quarter!r102c8</v>
       </c>
       <c r="O20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c9</v>
+        <v>Quarter!r102c9</v>
       </c>
       <c r="P20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c10</v>
+        <v>Quarter!r102c10</v>
       </c>
       <c r="Q20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c11</v>
+        <v>Quarter!r102c11</v>
       </c>
       <c r="R20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c12</v>
+        <v>Quarter!r102c12</v>
       </c>
       <c r="S20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c13</v>
+        <v>Quarter!r102c13</v>
       </c>
       <c r="T20" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c14</v>
+        <v>Quarter!r102c14</v>
       </c>
       <c r="U20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c15</v>
+        <v>Quarter!r102c15</v>
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c16</v>
+        <v>Quarter!r102c16</v>
       </c>
       <c r="W20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c17</v>
+        <v>Quarter!r102c17</v>
       </c>
       <c r="X20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c18</v>
+        <v>Quarter!r102c18</v>
       </c>
       <c r="Y20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c19</v>
+        <v>Quarter!r102c19</v>
       </c>
       <c r="Z20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c20</v>
+        <v>Quarter!r102c20</v>
       </c>
       <c r="AA20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c21</v>
+        <v>Quarter!r102c21</v>
       </c>
       <c r="AB20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c22</v>
+        <v>Quarter!r102c22</v>
       </c>
       <c r="AC20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c23</v>
+        <v>Quarter!r102c23</v>
       </c>
       <c r="AD20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c24</v>
+        <v>Quarter!r102c24</v>
       </c>
       <c r="AE20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c25</v>
+        <v>Quarter!r102c25</v>
       </c>
       <c r="AF20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c26</v>
+        <v>Quarter!r102c26</v>
       </c>
       <c r="AG20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c27</v>
+        <v>Quarter!r102c27</v>
       </c>
       <c r="AH20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c28</v>
+        <v>Quarter!r102c28</v>
       </c>
       <c r="AI20" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarter!r101c29</v>
+        <v>Quarter!r102c29</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="D21" s="4">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r102c1</v>
+        <v>Quarter!r103c1</v>
       </c>
       <c r="G21" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$21&amp;"c"&amp;G13</f>
-        <v>Quarter!r102c2</v>
+        <v>Quarter!r103c2</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" ref="I21:AI21" si="10">$C$15&amp;"r"&amp;$D$21&amp;"c"&amp;I13</f>
-        <v>Quarter!r102c3</v>
+        <v>Quarter!r103c3</v>
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c4</v>
+        <v>Quarter!r103c4</v>
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c5</v>
+        <v>Quarter!r103c5</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c6</v>
+        <v>Quarter!r103c6</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c7</v>
+        <v>Quarter!r103c7</v>
       </c>
       <c r="N21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c8</v>
+        <v>Quarter!r103c8</v>
       </c>
       <c r="O21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c9</v>
+        <v>Quarter!r103c9</v>
       </c>
       <c r="P21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c10</v>
+        <v>Quarter!r103c10</v>
       </c>
       <c r="Q21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c11</v>
+        <v>Quarter!r103c11</v>
       </c>
       <c r="R21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c12</v>
+        <v>Quarter!r103c12</v>
       </c>
       <c r="S21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c13</v>
+        <v>Quarter!r103c13</v>
       </c>
       <c r="T21" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c14</v>
+        <v>Quarter!r103c14</v>
       </c>
       <c r="U21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c15</v>
+        <v>Quarter!r103c15</v>
       </c>
       <c r="V21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c16</v>
+        <v>Quarter!r103c16</v>
       </c>
       <c r="W21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c17</v>
+        <v>Quarter!r103c17</v>
       </c>
       <c r="X21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c18</v>
+        <v>Quarter!r103c18</v>
       </c>
       <c r="Y21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c19</v>
+        <v>Quarter!r103c19</v>
       </c>
       <c r="Z21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c20</v>
+        <v>Quarter!r103c20</v>
       </c>
       <c r="AA21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c21</v>
+        <v>Quarter!r103c21</v>
       </c>
       <c r="AB21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c22</v>
+        <v>Quarter!r103c22</v>
       </c>
       <c r="AC21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c23</v>
+        <v>Quarter!r103c23</v>
       </c>
       <c r="AD21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c24</v>
+        <v>Quarter!r103c24</v>
       </c>
       <c r="AE21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c25</v>
+        <v>Quarter!r103c25</v>
       </c>
       <c r="AF21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c26</v>
+        <v>Quarter!r103c26</v>
       </c>
       <c r="AG21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c27</v>
+        <v>Quarter!r103c27</v>
       </c>
       <c r="AH21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c28</v>
+        <v>Quarter!r103c28</v>
       </c>
       <c r="AI21" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>Quarter!r102c29</v>
+        <v>Quarter!r103c29</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="D22" s="4">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r103c1</v>
+        <v>Quarter!r104c1</v>
       </c>
       <c r="G22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;G13</f>
-        <v>Quarter!r103c2</v>
+        <v>Quarter!r104c2</v>
       </c>
       <c r="I22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;I13</f>
-        <v>Quarter!r103c3</v>
+        <v>Quarter!r104c3</v>
       </c>
       <c r="J22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;J13</f>
-        <v>Quarter!r103c4</v>
+        <v>Quarter!r104c4</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" ref="K22:AI22" si="11">$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;K13</f>
-        <v>Quarter!r103c5</v>
+        <v>Quarter!r104c5</v>
       </c>
       <c r="L22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;L13</f>
-        <v>Quarter!r103c6</v>
+        <v>Quarter!r104c6</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c7</v>
+        <v>Quarter!r104c7</v>
       </c>
       <c r="N22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;N13</f>
-        <v>Quarter!r103c8</v>
+        <v>Quarter!r104c8</v>
       </c>
       <c r="O22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c9</v>
+        <v>Quarter!r104c9</v>
       </c>
       <c r="P22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;P13</f>
-        <v>Quarter!r103c10</v>
+        <v>Quarter!r104c10</v>
       </c>
       <c r="Q22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;Q13</f>
-        <v>Quarter!r103c11</v>
+        <v>Quarter!r104c11</v>
       </c>
       <c r="R22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;R13</f>
-        <v>Quarter!r103c12</v>
+        <v>Quarter!r104c12</v>
       </c>
       <c r="S22" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$22&amp;"c"&amp;S13</f>
-        <v>Quarter!r103c13</v>
+        <v>Quarter!r104c13</v>
       </c>
       <c r="T22" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c14</v>
+        <v>Quarter!r104c14</v>
       </c>
       <c r="U22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c15</v>
+        <v>Quarter!r104c15</v>
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c16</v>
+        <v>Quarter!r104c16</v>
       </c>
       <c r="W22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c17</v>
+        <v>Quarter!r104c17</v>
       </c>
       <c r="X22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c18</v>
+        <v>Quarter!r104c18</v>
       </c>
       <c r="Y22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c19</v>
+        <v>Quarter!r104c19</v>
       </c>
       <c r="Z22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c20</v>
+        <v>Quarter!r104c20</v>
       </c>
       <c r="AA22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c21</v>
+        <v>Quarter!r104c21</v>
       </c>
       <c r="AB22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c22</v>
+        <v>Quarter!r104c22</v>
       </c>
       <c r="AC22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c23</v>
+        <v>Quarter!r104c23</v>
       </c>
       <c r="AD22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c24</v>
+        <v>Quarter!r104c24</v>
       </c>
       <c r="AE22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c25</v>
+        <v>Quarter!r104c25</v>
       </c>
       <c r="AF22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c26</v>
+        <v>Quarter!r104c26</v>
       </c>
       <c r="AG22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c27</v>
+        <v>Quarter!r104c27</v>
       </c>
       <c r="AH22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c28</v>
+        <v>Quarter!r104c28</v>
       </c>
       <c r="AI22" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>Quarter!r103c29</v>
+        <v>Quarter!r104c29</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.2">
@@ -29358,123 +29652,123 @@
       <c r="C23" s="2"/>
       <c r="D23" s="4">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r104c1</v>
+        <v>Quarter!r105c1</v>
       </c>
       <c r="G23" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$23&amp;"c"&amp;G13</f>
-        <v>Quarter!r104c2</v>
+        <v>Quarter!r105c2</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" ref="I23:AI23" si="12">$C$15&amp;"r"&amp;$D$23&amp;"c"&amp;I13</f>
-        <v>Quarter!r104c3</v>
+        <v>Quarter!r105c3</v>
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c4</v>
+        <v>Quarter!r105c4</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c5</v>
+        <v>Quarter!r105c5</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c6</v>
+        <v>Quarter!r105c6</v>
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c7</v>
+        <v>Quarter!r105c7</v>
       </c>
       <c r="N23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c8</v>
+        <v>Quarter!r105c8</v>
       </c>
       <c r="O23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c9</v>
+        <v>Quarter!r105c9</v>
       </c>
       <c r="P23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c10</v>
+        <v>Quarter!r105c10</v>
       </c>
       <c r="Q23" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$23&amp;"c"&amp;Q13</f>
-        <v>Quarter!r104c11</v>
+        <v>Quarter!r105c11</v>
       </c>
       <c r="R23" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$23&amp;"c"&amp;R13</f>
-        <v>Quarter!r104c12</v>
+        <v>Quarter!r105c12</v>
       </c>
       <c r="S23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c13</v>
+        <v>Quarter!r105c13</v>
       </c>
       <c r="T23" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c14</v>
+        <v>Quarter!r105c14</v>
       </c>
       <c r="U23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c15</v>
+        <v>Quarter!r105c15</v>
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c16</v>
+        <v>Quarter!r105c16</v>
       </c>
       <c r="W23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c17</v>
+        <v>Quarter!r105c17</v>
       </c>
       <c r="X23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c18</v>
+        <v>Quarter!r105c18</v>
       </c>
       <c r="Y23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c19</v>
+        <v>Quarter!r105c19</v>
       </c>
       <c r="Z23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c20</v>
+        <v>Quarter!r105c20</v>
       </c>
       <c r="AA23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c21</v>
+        <v>Quarter!r105c21</v>
       </c>
       <c r="AB23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c22</v>
+        <v>Quarter!r105c22</v>
       </c>
       <c r="AC23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c23</v>
+        <v>Quarter!r105c23</v>
       </c>
       <c r="AD23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c24</v>
+        <v>Quarter!r105c24</v>
       </c>
       <c r="AE23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c25</v>
+        <v>Quarter!r105c25</v>
       </c>
       <c r="AF23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c26</v>
+        <v>Quarter!r105c26</v>
       </c>
       <c r="AG23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c27</v>
+        <v>Quarter!r105c27</v>
       </c>
       <c r="AH23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c28</v>
+        <v>Quarter!r105c28</v>
       </c>
       <c r="AI23" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>Quarter!r104c29</v>
+        <v>Quarter!r105c29</v>
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.2">
@@ -29482,123 +29776,123 @@
       <c r="C24" s="2"/>
       <c r="D24" s="4">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r105c1</v>
+        <v>Quarter!r106c1</v>
       </c>
       <c r="G24" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;G14</f>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="I24" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;I14</f>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" ref="J24:AI27" si="13">$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;J13</f>
-        <v>Quarter!r105c4</v>
+        <v>Quarter!r106c4</v>
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c5</v>
+        <v>Quarter!r106c5</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c6</v>
+        <v>Quarter!r106c6</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c7</v>
+        <v>Quarter!r106c7</v>
       </c>
       <c r="N24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c8</v>
+        <v>Quarter!r106c8</v>
       </c>
       <c r="O24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c9</v>
+        <v>Quarter!r106c9</v>
       </c>
       <c r="P24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c10</v>
+        <v>Quarter!r106c10</v>
       </c>
       <c r="Q24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c11</v>
+        <v>Quarter!r106c11</v>
       </c>
       <c r="R24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c12</v>
+        <v>Quarter!r106c12</v>
       </c>
       <c r="S24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c13</v>
+        <v>Quarter!r106c13</v>
       </c>
       <c r="T24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c14</v>
+        <v>Quarter!r106c14</v>
       </c>
       <c r="U24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c15</v>
+        <v>Quarter!r106c15</v>
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c16</v>
+        <v>Quarter!r106c16</v>
       </c>
       <c r="W24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c17</v>
+        <v>Quarter!r106c17</v>
       </c>
       <c r="X24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c18</v>
+        <v>Quarter!r106c18</v>
       </c>
       <c r="Y24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c19</v>
+        <v>Quarter!r106c19</v>
       </c>
       <c r="Z24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c20</v>
+        <v>Quarter!r106c20</v>
       </c>
       <c r="AA24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c21</v>
+        <v>Quarter!r106c21</v>
       </c>
       <c r="AB24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c22</v>
+        <v>Quarter!r106c22</v>
       </c>
       <c r="AC24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c23</v>
+        <v>Quarter!r106c23</v>
       </c>
       <c r="AD24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c24</v>
+        <v>Quarter!r106c24</v>
       </c>
       <c r="AE24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c25</v>
+        <v>Quarter!r106c25</v>
       </c>
       <c r="AF24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c26</v>
+        <v>Quarter!r106c26</v>
       </c>
       <c r="AG24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c27</v>
+        <v>Quarter!r106c27</v>
       </c>
       <c r="AH24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c28</v>
+        <v>Quarter!r106c28</v>
       </c>
       <c r="AI24" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c29</v>
+        <v>Quarter!r106c29</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
@@ -29606,123 +29900,123 @@
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r106c1</v>
+        <v>Quarter!r107c1</v>
       </c>
       <c r="G25" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;G15</f>
-        <v>Quarter!r105cQuarter!r96c2</v>
+        <v>Quarter!r106cQuarter!r97c2</v>
       </c>
       <c r="I25" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;I15</f>
-        <v>Quarter!r105cQuarter!r96c3</v>
+        <v>Quarter!r106cQuarter!r97c3</v>
       </c>
       <c r="J25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="N25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="O25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="P25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="Q25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="R25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="S25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="T25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="U25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="W25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="X25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="Y25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="Z25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AA25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AB25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AC25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AD25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AE25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AF25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AG25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AH25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
       <c r="AI25" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105c</v>
+        <v>Quarter!r106c</v>
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.2">
@@ -29730,123 +30024,123 @@
       <c r="C26" s="2"/>
       <c r="D26" s="4">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r107c1</v>
+        <v>Quarter!r108c1</v>
       </c>
       <c r="G26" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;G16</f>
-        <v>Quarter!r105cQuarter!r97c2</v>
+        <v>Quarter!r106cQuarter!r98c2</v>
       </c>
       <c r="I26" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;I16</f>
-        <v>Quarter!r105cQuarter!r97c3</v>
+        <v>Quarter!r106cQuarter!r98c3</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c4</v>
+        <v>Quarter!r106cQuarter!r97c4</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c5</v>
+        <v>Quarter!r106cQuarter!r97c5</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c6</v>
+        <v>Quarter!r106cQuarter!r97c6</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c7</v>
+        <v>Quarter!r106cQuarter!r97c7</v>
       </c>
       <c r="N26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c8</v>
+        <v>Quarter!r106cQuarter!r97c8</v>
       </c>
       <c r="O26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c9</v>
+        <v>Quarter!r106cQuarter!r97c9</v>
       </c>
       <c r="P26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c10</v>
+        <v>Quarter!r106cQuarter!r97c10</v>
       </c>
       <c r="Q26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c11</v>
+        <v>Quarter!r106cQuarter!r97c11</v>
       </c>
       <c r="R26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c12</v>
+        <v>Quarter!r106cQuarter!r97c12</v>
       </c>
       <c r="S26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c13</v>
+        <v>Quarter!r106cQuarter!r97c13</v>
       </c>
       <c r="T26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c14</v>
+        <v>Quarter!r106cQuarter!r97c14</v>
       </c>
       <c r="U26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c15</v>
+        <v>Quarter!r106cQuarter!r97c15</v>
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c16</v>
+        <v>Quarter!r106cQuarter!r97c16</v>
       </c>
       <c r="W26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c17</v>
+        <v>Quarter!r106cQuarter!r97c17</v>
       </c>
       <c r="X26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c18</v>
+        <v>Quarter!r106cQuarter!r97c18</v>
       </c>
       <c r="Y26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c19</v>
+        <v>Quarter!r106cQuarter!r97c19</v>
       </c>
       <c r="Z26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c20</v>
+        <v>Quarter!r106cQuarter!r97c20</v>
       </c>
       <c r="AA26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c21</v>
+        <v>Quarter!r106cQuarter!r97c21</v>
       </c>
       <c r="AB26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c22</v>
+        <v>Quarter!r106cQuarter!r97c22</v>
       </c>
       <c r="AC26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c23</v>
+        <v>Quarter!r106cQuarter!r97c23</v>
       </c>
       <c r="AD26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c24</v>
+        <v>Quarter!r106cQuarter!r97c24</v>
       </c>
       <c r="AE26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c25</v>
+        <v>Quarter!r106cQuarter!r97c25</v>
       </c>
       <c r="AF26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c26</v>
+        <v>Quarter!r106cQuarter!r97c26</v>
       </c>
       <c r="AG26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c27</v>
+        <v>Quarter!r106cQuarter!r97c27</v>
       </c>
       <c r="AH26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c28</v>
+        <v>Quarter!r106cQuarter!r97c28</v>
       </c>
       <c r="AI26" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r96c29</v>
+        <v>Quarter!r106cQuarter!r97c29</v>
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.2">
@@ -29854,123 +30148,123 @@
       <c r="C27" s="2"/>
       <c r="D27" s="4">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Quarter!r108c1</v>
+        <v>Quarter!r109c1</v>
       </c>
       <c r="G27" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;G17</f>
-        <v>Quarter!r105cQuarter!r98c2</v>
+        <v>Quarter!r106cQuarter!r99c2</v>
       </c>
       <c r="I27" s="4" t="str">
         <f>$C$15&amp;"r"&amp;$D$24&amp;"c"&amp;I17</f>
-        <v>Quarter!r105cQuarter!r98c3</v>
+        <v>Quarter!r106cQuarter!r99c3</v>
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c4</v>
+        <v>Quarter!r106cQuarter!r98c4</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c5</v>
+        <v>Quarter!r106cQuarter!r98c5</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c6</v>
+        <v>Quarter!r106cQuarter!r98c6</v>
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c7</v>
+        <v>Quarter!r106cQuarter!r98c7</v>
       </c>
       <c r="N27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c8</v>
+        <v>Quarter!r106cQuarter!r98c8</v>
       </c>
       <c r="O27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c9</v>
+        <v>Quarter!r106cQuarter!r98c9</v>
       </c>
       <c r="P27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c10</v>
+        <v>Quarter!r106cQuarter!r98c10</v>
       </c>
       <c r="Q27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c11</v>
+        <v>Quarter!r106cQuarter!r98c11</v>
       </c>
       <c r="R27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c12</v>
+        <v>Quarter!r106cQuarter!r98c12</v>
       </c>
       <c r="S27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c13</v>
+        <v>Quarter!r106cQuarter!r98c13</v>
       </c>
       <c r="T27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c14</v>
+        <v>Quarter!r106cQuarter!r98c14</v>
       </c>
       <c r="U27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c15</v>
+        <v>Quarter!r106cQuarter!r98c15</v>
       </c>
       <c r="V27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c16</v>
+        <v>Quarter!r106cQuarter!r98c16</v>
       </c>
       <c r="W27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c17</v>
+        <v>Quarter!r106cQuarter!r98c17</v>
       </c>
       <c r="X27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c18</v>
+        <v>Quarter!r106cQuarter!r98c18</v>
       </c>
       <c r="Y27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c19</v>
+        <v>Quarter!r106cQuarter!r98c19</v>
       </c>
       <c r="Z27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c20</v>
+        <v>Quarter!r106cQuarter!r98c20</v>
       </c>
       <c r="AA27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c21</v>
+        <v>Quarter!r106cQuarter!r98c21</v>
       </c>
       <c r="AB27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c22</v>
+        <v>Quarter!r106cQuarter!r98c22</v>
       </c>
       <c r="AC27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c23</v>
+        <v>Quarter!r106cQuarter!r98c23</v>
       </c>
       <c r="AD27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c24</v>
+        <v>Quarter!r106cQuarter!r98c24</v>
       </c>
       <c r="AE27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c25</v>
+        <v>Quarter!r106cQuarter!r98c25</v>
       </c>
       <c r="AF27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c26</v>
+        <v>Quarter!r106cQuarter!r98c26</v>
       </c>
       <c r="AG27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c27</v>
+        <v>Quarter!r106cQuarter!r98c27</v>
       </c>
       <c r="AH27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c28</v>
+        <v>Quarter!r106cQuarter!r98c28</v>
       </c>
       <c r="AI27" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Quarter!r105cQuarter!r97c29</v>
+        <v>Quarter!r106cQuarter!r98c29</v>
       </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.2">
